--- a/ch4/tabn219_20.xlsx
+++ b/ch4/tabn219_20.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/709290408fa44f9b/Documents/GitHub/data/ch4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9DE1B3A-5B0B-46AD-9146-389A614A4D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{D9DE1B3A-5B0B-46AD-9146-389A614A4D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B526C7-B0FD-4424-AA6B-6D94D22FB7A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2043F598-A324-425E-B2FA-4C07D4A07404}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2043F598-A324-425E-B2FA-4C07D4A07404}"/>
   </bookViews>
   <sheets>
     <sheet name="Digest 2018 Table 219.20" sheetId="1" r:id="rId1"/>
+    <sheet name="HSGrad" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_Int" localSheetId="0" hidden="1">1</definedName>
@@ -25,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="159">
   <si>
     <t>Table 219.20. Public high school graduates, by region, state, and jurisdiction: Selected years, 1980-81 through 2028-29</t>
   </si>
@@ -381,13 +384,170 @@
   <si>
     <t>SOURCE: U.S. Department of Education, National Center for Education Statistics, Common Core of Data (CCD), "State Nonfiscal Survey of Public Elementary/Secondary Education," 1981-82 through 2005-06; "State Dropout and Completion Data File," 2005-06 through 2012-13; and State High School Graduates Projection Model, 1980-81 through 2028-29. (This table was prepared March 2019.)</t>
   </si>
+  <si>
+    <t xml:space="preserve">  District of Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Alabama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Alaska </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Arizona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Arkansas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  California </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Colorado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Connecticut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Delaware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Florida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Georgia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hawaii </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Idaho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Illinois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Indiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Iowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kansas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kentucky </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Louisiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Maine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Maryland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Massachusetts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Michigan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Minnesota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mississippi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Missouri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Montana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nebraska </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nevada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  New Hampshire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  New Jersey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  New Mexico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  New York </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  North Carolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  North Dakota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ohio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oklahoma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oregon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pennsylvania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rhode Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  South Carolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  South Dakota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tennessee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Texas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Utah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Vermont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Virginia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Washington </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  West Virginia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wisconsin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wyoming </t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -626,273 +786,244 @@
   <cellStyleXfs count="1">
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="82">
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="distributed" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,6 +1040,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1208,11 +1343,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A9A81F-00FC-4204-8139-6315BD0D8D73}">
-  <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1"/>
+  <sheetPr syncVertical="1" syncRef="A37" transitionEvaluation="1"/>
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:Z1"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1230,78 +1365,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="76" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
     </row>
     <row r="3" spans="1:26" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1376,10 +1511,10 @@
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="76">
         <v>3</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="9">
         <v>4</v>
       </c>
@@ -6610,34 +6745,34 @@
       <c r="Z79" s="50"/>
     </row>
     <row r="80" spans="1:26" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="58"/>
-      <c r="M80" s="58"/>
-      <c r="N80" s="57"/>
-      <c r="O80" s="57"/>
-      <c r="P80" s="57"/>
-      <c r="Q80" s="57"/>
-      <c r="R80" s="57"/>
-      <c r="S80" s="57"/>
-      <c r="T80" s="57"/>
-      <c r="U80" s="58"/>
-      <c r="V80" s="58"/>
-      <c r="W80" s="58"/>
-      <c r="X80" s="58"/>
-      <c r="Y80" s="59"/>
-      <c r="Z80" s="60"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="33"/>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="33"/>
+      <c r="R80" s="33"/>
+      <c r="S80" s="33"/>
+      <c r="T80" s="33"/>
+      <c r="U80" s="48"/>
+      <c r="V80" s="48"/>
+      <c r="W80" s="48"/>
+      <c r="X80" s="48"/>
+      <c r="Y80" s="49"/>
+      <c r="Z80" s="27"/>
     </row>
     <row r="81" spans="1:26" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="24" t="s">
@@ -6950,20 +7085,20 @@
       <c r="B85" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="61">
+      <c r="C85" s="54">
         <v>1260</v>
       </c>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62">
+      <c r="D85" s="55"/>
+      <c r="E85" s="55">
         <v>1060</v>
       </c>
-      <c r="F85" s="63">
+      <c r="F85" s="56">
         <v>958</v>
       </c>
-      <c r="G85" s="63">
+      <c r="G85" s="56">
         <v>1014</v>
       </c>
-      <c r="H85" s="63">
+      <c r="H85" s="56">
         <v>1046</v>
       </c>
       <c r="I85" s="11">
@@ -6975,10 +7110,10 @@
       <c r="K85" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="L85" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="M85" s="64" t="s">
+      <c r="L85" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="M85" s="57" t="s">
         <v>91</v>
       </c>
       <c r="N85" s="51" t="s">
@@ -7002,210 +7137,177 @@
       <c r="T85" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="U85" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="V85" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="W85" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="X85" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y85" s="65"/>
-      <c r="Z85" s="66" t="s">
+      <c r="U85" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="V85" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="W85" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="X85" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y85" s="58"/>
+      <c r="Z85" s="59" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:26" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="83" t="s">
+      <c r="A86" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
-      <c r="I86" s="85"/>
-      <c r="J86" s="85"/>
-      <c r="K86" s="85"/>
-      <c r="L86" s="85"/>
-      <c r="M86" s="67"/>
-      <c r="N86" s="67"/>
-      <c r="O86" s="67"/>
-      <c r="P86" s="67"/>
-      <c r="Q86" s="67"/>
-      <c r="R86" s="67"/>
-      <c r="S86" s="67"/>
-      <c r="T86" s="67"/>
-      <c r="U86" s="67"/>
-      <c r="V86" s="67"/>
-      <c r="W86" s="67"/>
-      <c r="X86" s="67"/>
-      <c r="Y86" s="67"/>
-      <c r="Z86" s="67"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="80"/>
+      <c r="H86" s="80"/>
+      <c r="I86" s="80"/>
+      <c r="J86" s="80"/>
+      <c r="K86" s="80"/>
+      <c r="L86" s="80"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="60"/>
+      <c r="O86" s="60"/>
+      <c r="P86" s="60"/>
+      <c r="Q86" s="60"/>
+      <c r="R86" s="60"/>
+      <c r="S86" s="60"/>
+      <c r="T86" s="60"/>
+      <c r="U86" s="60"/>
+      <c r="V86" s="60"/>
+      <c r="W86" s="60"/>
+      <c r="X86" s="60"/>
+      <c r="Y86" s="60"/>
+      <c r="Z86" s="60"/>
     </row>
     <row r="87" spans="1:26" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="86" t="s">
+      <c r="A87" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="87"/>
-      <c r="C87" s="87"/>
-      <c r="D87" s="87"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="88"/>
-      <c r="H87" s="88"/>
-      <c r="I87" s="88"/>
-      <c r="J87" s="88"/>
-      <c r="K87" s="88"/>
-      <c r="L87" s="88"/>
-      <c r="M87" s="68"/>
-      <c r="N87" s="68"/>
-      <c r="O87" s="68"/>
-      <c r="P87" s="68"/>
-      <c r="Q87" s="68"/>
-      <c r="R87" s="68"/>
-      <c r="S87" s="68"/>
-      <c r="T87" s="68"/>
-      <c r="U87" s="68"/>
-      <c r="V87" s="68"/>
-      <c r="W87" s="68"/>
-      <c r="X87" s="68"/>
-      <c r="Y87" s="68"/>
-      <c r="Z87" s="68"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="67"/>
     </row>
     <row r="88" spans="1:26" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="89" t="s">
+      <c r="A88" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="89"/>
-      <c r="C88" s="89"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="89"/>
-      <c r="F88" s="89"/>
-      <c r="G88" s="88"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="88"/>
-      <c r="J88" s="88"/>
-      <c r="K88" s="88"/>
-      <c r="L88" s="88"/>
-      <c r="M88" s="69"/>
-      <c r="N88" s="69"/>
-      <c r="O88" s="69"/>
-      <c r="P88" s="69"/>
-      <c r="Q88" s="69"/>
-      <c r="R88" s="69"/>
-      <c r="S88" s="69"/>
-      <c r="T88" s="69"/>
-      <c r="U88" s="69"/>
-      <c r="V88" s="69"/>
-      <c r="W88" s="69"/>
-      <c r="X88" s="69"/>
-      <c r="Y88" s="69"/>
-      <c r="Z88" s="69"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="67"/>
     </row>
     <row r="89" spans="1:26" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="89" t="s">
+      <c r="A89" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="89"/>
-      <c r="C89" s="89"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="89"/>
-      <c r="F89" s="89"/>
-      <c r="G89" s="88"/>
-      <c r="H89" s="88"/>
-      <c r="I89" s="88"/>
-      <c r="J89" s="88"/>
-      <c r="K89" s="88"/>
-      <c r="L89" s="88"/>
-      <c r="M89" s="70"/>
-      <c r="N89" s="70"/>
-      <c r="O89" s="70"/>
-      <c r="P89" s="70"/>
-      <c r="Q89" s="70"/>
-      <c r="R89" s="70"/>
-      <c r="S89" s="70"/>
-      <c r="T89" s="70"/>
-      <c r="U89" s="70"/>
-      <c r="V89" s="70"/>
-      <c r="W89" s="70"/>
-      <c r="X89" s="70"/>
-      <c r="Y89" s="70"/>
-      <c r="Z89" s="70"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="67"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="61"/>
+      <c r="P89" s="61"/>
+      <c r="Q89" s="61"/>
+      <c r="R89" s="61"/>
+      <c r="S89" s="61"/>
+      <c r="T89" s="61"/>
+      <c r="U89" s="61"/>
+      <c r="V89" s="61"/>
+      <c r="W89" s="61"/>
+      <c r="X89" s="61"/>
+      <c r="Y89" s="61"/>
+      <c r="Z89" s="61"/>
     </row>
     <row r="90" spans="1:26" s="13" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="89" t="s">
+      <c r="A90" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="89"/>
-      <c r="C90" s="89"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="90"/>
-      <c r="H90" s="90"/>
-      <c r="I90" s="88"/>
-      <c r="J90" s="88"/>
-      <c r="K90" s="88"/>
-      <c r="L90" s="88"/>
-      <c r="M90" s="71"/>
-      <c r="N90" s="71"/>
-      <c r="O90" s="71"/>
-      <c r="P90" s="71"/>
-      <c r="Q90" s="71"/>
-      <c r="R90" s="71"/>
-      <c r="S90" s="71"/>
-      <c r="T90" s="71"/>
-      <c r="U90" s="71"/>
-      <c r="V90" s="71"/>
-      <c r="W90" s="71"/>
-      <c r="X90" s="71"/>
-      <c r="Y90" s="71"/>
-      <c r="Z90" s="71"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="67"/>
+      <c r="L90" s="67"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="62"/>
+      <c r="O90" s="62"/>
+      <c r="P90" s="62"/>
+      <c r="Q90" s="62"/>
+      <c r="R90" s="62"/>
+      <c r="S90" s="62"/>
+      <c r="T90" s="62"/>
+      <c r="U90" s="62"/>
+      <c r="V90" s="62"/>
+      <c r="W90" s="62"/>
+      <c r="X90" s="62"/>
+      <c r="Y90" s="62"/>
+      <c r="Z90" s="62"/>
     </row>
     <row r="91" spans="1:26" s="13" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="89" t="s">
+      <c r="A91" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="89"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="90"/>
-      <c r="I91" s="88"/>
-      <c r="J91" s="88"/>
-      <c r="K91" s="88"/>
-      <c r="L91" s="88"/>
-      <c r="M91" s="72"/>
-      <c r="N91" s="72"/>
-      <c r="O91" s="72"/>
-      <c r="P91" s="72"/>
-      <c r="Q91" s="72"/>
-      <c r="R91" s="72"/>
-      <c r="S91" s="72"/>
-      <c r="T91" s="72"/>
-      <c r="U91" s="72"/>
-      <c r="V91" s="72"/>
-      <c r="W91" s="72"/>
-      <c r="X91" s="72"/>
-      <c r="Y91" s="72"/>
-      <c r="Z91" s="72"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="67"/>
+      <c r="M91" s="63"/>
+      <c r="N91" s="63"/>
+      <c r="O91" s="63"/>
+      <c r="P91" s="63"/>
+      <c r="Q91" s="63"/>
+      <c r="R91" s="63"/>
+      <c r="S91" s="63"/>
+      <c r="T91" s="63"/>
+      <c r="U91" s="63"/>
+      <c r="V91" s="63"/>
+      <c r="W91" s="63"/>
+      <c r="X91" s="63"/>
+      <c r="Y91" s="63"/>
+      <c r="Z91" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A86:L86"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="A88:L88"/>
-    <mergeCell ref="A89:L89"/>
-    <mergeCell ref="A90:L90"/>
     <mergeCell ref="A91:L91"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:A3"/>
@@ -7213,6 +7315,11 @@
     <mergeCell ref="J2:Z2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A86:L86"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A88:L88"/>
+    <mergeCell ref="A89:L89"/>
+    <mergeCell ref="A90:L90"/>
   </mergeCells>
   <pageMargins left="0.55000000000000004" right="0.5" top="0.75" bottom="0.55000000000000004" header="0.4" footer="0.35"/>
   <pageSetup scale="50" fitToWidth="2" orientation="portrait" r:id="rId1"/>
@@ -7225,4 +7332,4074 @@
     <brk id="12" max="91" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D36248-ECBE-4C90-833D-9DDB9B4B2A5C}">
+  <dimension ref="A1:Y52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="64">
+        <v>1981</v>
+      </c>
+      <c r="D1" s="64">
+        <v>1990</v>
+      </c>
+      <c r="E1" s="64">
+        <v>2000</v>
+      </c>
+      <c r="F1" s="64">
+        <v>2010</v>
+      </c>
+      <c r="G1" s="64">
+        <v>2011</v>
+      </c>
+      <c r="H1" s="64">
+        <v>2012</v>
+      </c>
+      <c r="I1" s="64">
+        <v>2013</v>
+      </c>
+      <c r="J1" s="64">
+        <v>2014</v>
+      </c>
+      <c r="K1" s="64">
+        <v>2015</v>
+      </c>
+      <c r="L1" s="64">
+        <v>2016</v>
+      </c>
+      <c r="M1" s="64">
+        <v>2017</v>
+      </c>
+      <c r="N1" s="64">
+        <v>2018</v>
+      </c>
+      <c r="O1" s="64">
+        <v>2019</v>
+      </c>
+      <c r="P1" s="64">
+        <v>2020</v>
+      </c>
+      <c r="Q1" s="64">
+        <v>2021</v>
+      </c>
+      <c r="R1" s="64">
+        <v>2022</v>
+      </c>
+      <c r="S1" s="64">
+        <v>2023</v>
+      </c>
+      <c r="T1" s="64">
+        <v>2024</v>
+      </c>
+      <c r="U1" s="64">
+        <v>2025</v>
+      </c>
+      <c r="V1" s="64">
+        <v>2026</v>
+      </c>
+      <c r="W1" s="64">
+        <v>2027</v>
+      </c>
+      <c r="X1" s="64">
+        <v>2028</v>
+      </c>
+      <c r="Y1" s="64">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="64">
+        <v>44894</v>
+      </c>
+      <c r="D2" s="64">
+        <v>40485</v>
+      </c>
+      <c r="E2" s="64">
+        <v>37819</v>
+      </c>
+      <c r="F2" s="64">
+        <v>43166</v>
+      </c>
+      <c r="G2" s="64">
+        <v>46035</v>
+      </c>
+      <c r="H2" s="64">
+        <v>45394</v>
+      </c>
+      <c r="I2" s="64">
+        <v>44233</v>
+      </c>
+      <c r="J2" s="64">
+        <v>44540</v>
+      </c>
+      <c r="K2" s="64">
+        <v>45420</v>
+      </c>
+      <c r="L2" s="64">
+        <v>46070</v>
+      </c>
+      <c r="M2" s="64">
+        <v>47560</v>
+      </c>
+      <c r="N2" s="64">
+        <v>48260</v>
+      </c>
+      <c r="O2" s="64">
+        <v>45740</v>
+      </c>
+      <c r="P2" s="64">
+        <v>44070</v>
+      </c>
+      <c r="Q2" s="64">
+        <v>43490</v>
+      </c>
+      <c r="R2" s="64">
+        <v>43380</v>
+      </c>
+      <c r="S2" s="64">
+        <v>43600</v>
+      </c>
+      <c r="T2" s="64">
+        <v>43870</v>
+      </c>
+      <c r="U2" s="64">
+        <v>45410</v>
+      </c>
+      <c r="V2" s="64">
+        <v>45810</v>
+      </c>
+      <c r="W2" s="64">
+        <v>44770</v>
+      </c>
+      <c r="X2" s="64">
+        <v>42960</v>
+      </c>
+      <c r="Y2" s="64">
+        <v>43610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="64">
+        <v>5343</v>
+      </c>
+      <c r="D3" s="64">
+        <v>5386</v>
+      </c>
+      <c r="E3" s="64">
+        <v>6615</v>
+      </c>
+      <c r="F3" s="64">
+        <v>8245</v>
+      </c>
+      <c r="G3" s="64">
+        <v>8064</v>
+      </c>
+      <c r="H3" s="64">
+        <v>7989</v>
+      </c>
+      <c r="I3" s="64">
+        <v>7860</v>
+      </c>
+      <c r="J3" s="64">
+        <v>7720</v>
+      </c>
+      <c r="K3" s="64">
+        <v>7860</v>
+      </c>
+      <c r="L3" s="64">
+        <v>7840</v>
+      </c>
+      <c r="M3" s="64">
+        <v>7910</v>
+      </c>
+      <c r="N3" s="64">
+        <v>8050</v>
+      </c>
+      <c r="O3" s="64">
+        <v>8030</v>
+      </c>
+      <c r="P3" s="64">
+        <v>7840</v>
+      </c>
+      <c r="Q3" s="64">
+        <v>7830</v>
+      </c>
+      <c r="R3" s="64">
+        <v>7930</v>
+      </c>
+      <c r="S3" s="64">
+        <v>8030</v>
+      </c>
+      <c r="T3" s="64">
+        <v>8320</v>
+      </c>
+      <c r="U3" s="64">
+        <v>8580</v>
+      </c>
+      <c r="V3" s="64">
+        <v>8740</v>
+      </c>
+      <c r="W3" s="64">
+        <v>8780</v>
+      </c>
+      <c r="X3" s="64">
+        <v>8660</v>
+      </c>
+      <c r="Y3" s="64">
+        <v>8690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <f t="shared" ref="A4:A52" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="64">
+        <v>28416</v>
+      </c>
+      <c r="D4" s="64">
+        <v>32103</v>
+      </c>
+      <c r="E4" s="64">
+        <v>38304</v>
+      </c>
+      <c r="F4" s="64">
+        <v>61145</v>
+      </c>
+      <c r="G4" s="64">
+        <v>64472</v>
+      </c>
+      <c r="H4" s="64">
+        <v>63208</v>
+      </c>
+      <c r="I4" s="64">
+        <v>62208</v>
+      </c>
+      <c r="J4" s="64">
+        <v>66700</v>
+      </c>
+      <c r="K4" s="64">
+        <v>67200</v>
+      </c>
+      <c r="L4" s="64">
+        <v>67120</v>
+      </c>
+      <c r="M4" s="64">
+        <v>68770</v>
+      </c>
+      <c r="N4" s="64">
+        <v>69560</v>
+      </c>
+      <c r="O4" s="64">
+        <v>70710</v>
+      </c>
+      <c r="P4" s="64">
+        <v>69610</v>
+      </c>
+      <c r="Q4" s="64">
+        <v>71070</v>
+      </c>
+      <c r="R4" s="64">
+        <v>70940</v>
+      </c>
+      <c r="S4" s="64">
+        <v>72200</v>
+      </c>
+      <c r="T4" s="64">
+        <v>74230</v>
+      </c>
+      <c r="U4" s="64">
+        <v>76480</v>
+      </c>
+      <c r="V4" s="64">
+        <v>77540</v>
+      </c>
+      <c r="W4" s="64">
+        <v>75780</v>
+      </c>
+      <c r="X4" s="64">
+        <v>72450</v>
+      </c>
+      <c r="Y4" s="64">
+        <v>72560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="64">
+        <v>29577</v>
+      </c>
+      <c r="D5" s="64">
+        <v>26475</v>
+      </c>
+      <c r="E5" s="64">
+        <v>27335</v>
+      </c>
+      <c r="F5" s="64">
+        <v>28276</v>
+      </c>
+      <c r="G5" s="64">
+        <v>28205</v>
+      </c>
+      <c r="H5" s="64">
+        <v>28419</v>
+      </c>
+      <c r="I5" s="64">
+        <v>28928</v>
+      </c>
+      <c r="J5" s="64">
+        <v>29610</v>
+      </c>
+      <c r="K5" s="64">
+        <v>30350</v>
+      </c>
+      <c r="L5" s="64">
+        <v>30290</v>
+      </c>
+      <c r="M5" s="64">
+        <v>30750</v>
+      </c>
+      <c r="N5" s="64">
+        <v>31020</v>
+      </c>
+      <c r="O5" s="64">
+        <v>31060</v>
+      </c>
+      <c r="P5" s="64">
+        <v>31320</v>
+      </c>
+      <c r="Q5" s="64">
+        <v>30800</v>
+      </c>
+      <c r="R5" s="64">
+        <v>30960</v>
+      </c>
+      <c r="S5" s="64">
+        <v>30940</v>
+      </c>
+      <c r="T5" s="64">
+        <v>30780</v>
+      </c>
+      <c r="U5" s="64">
+        <v>32990</v>
+      </c>
+      <c r="V5" s="64">
+        <v>33030</v>
+      </c>
+      <c r="W5" s="64">
+        <v>32140</v>
+      </c>
+      <c r="X5" s="64">
+        <v>31350</v>
+      </c>
+      <c r="Y5" s="64">
+        <v>31460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="64">
+        <v>242172</v>
+      </c>
+      <c r="D6" s="64">
+        <v>236291</v>
+      </c>
+      <c r="E6" s="64">
+        <v>309866</v>
+      </c>
+      <c r="F6" s="64">
+        <v>404987</v>
+      </c>
+      <c r="G6" s="64">
+        <v>410467</v>
+      </c>
+      <c r="H6" s="64">
+        <v>418664</v>
+      </c>
+      <c r="I6" s="64">
+        <v>422125</v>
+      </c>
+      <c r="J6" s="64">
+        <v>424080</v>
+      </c>
+      <c r="K6" s="64">
+        <v>422830</v>
+      </c>
+      <c r="L6" s="64">
+        <v>419190</v>
+      </c>
+      <c r="M6" s="64">
+        <v>411710</v>
+      </c>
+      <c r="N6" s="64">
+        <v>420500</v>
+      </c>
+      <c r="O6" s="64">
+        <v>420780</v>
+      </c>
+      <c r="P6" s="64">
+        <v>421890</v>
+      </c>
+      <c r="Q6" s="64">
+        <v>427540</v>
+      </c>
+      <c r="R6" s="64">
+        <v>430350</v>
+      </c>
+      <c r="S6" s="64">
+        <v>434120</v>
+      </c>
+      <c r="T6" s="64">
+        <v>444030</v>
+      </c>
+      <c r="U6" s="64">
+        <v>429550</v>
+      </c>
+      <c r="V6" s="64">
+        <v>425400</v>
+      </c>
+      <c r="W6" s="64">
+        <v>408150</v>
+      </c>
+      <c r="X6" s="64">
+        <v>418160</v>
+      </c>
+      <c r="Y6" s="64">
+        <v>416950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="64">
+        <v>35897</v>
+      </c>
+      <c r="D7" s="64">
+        <v>32967</v>
+      </c>
+      <c r="E7" s="64">
+        <v>38924</v>
+      </c>
+      <c r="F7" s="64">
+        <v>49321</v>
+      </c>
+      <c r="G7" s="64">
+        <v>50122</v>
+      </c>
+      <c r="H7" s="64">
+        <v>50087</v>
+      </c>
+      <c r="I7" s="64">
+        <v>50968</v>
+      </c>
+      <c r="J7" s="64">
+        <v>51310</v>
+      </c>
+      <c r="K7" s="64">
+        <v>51450</v>
+      </c>
+      <c r="L7" s="64">
+        <v>53310</v>
+      </c>
+      <c r="M7" s="64">
+        <v>54060</v>
+      </c>
+      <c r="N7" s="64">
+        <v>56050</v>
+      </c>
+      <c r="O7" s="64">
+        <v>57030</v>
+      </c>
+      <c r="P7" s="64">
+        <v>57760</v>
+      </c>
+      <c r="Q7" s="64">
+        <v>59150</v>
+      </c>
+      <c r="R7" s="64">
+        <v>59290</v>
+      </c>
+      <c r="S7" s="64">
+        <v>59790</v>
+      </c>
+      <c r="T7" s="64">
+        <v>61090</v>
+      </c>
+      <c r="U7" s="64">
+        <v>61990</v>
+      </c>
+      <c r="V7" s="64">
+        <v>62170</v>
+      </c>
+      <c r="W7" s="64">
+        <v>60930</v>
+      </c>
+      <c r="X7" s="64">
+        <v>59170</v>
+      </c>
+      <c r="Y7" s="64">
+        <v>59040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="64">
+        <v>38369</v>
+      </c>
+      <c r="D8" s="64">
+        <v>27878</v>
+      </c>
+      <c r="E8" s="64">
+        <v>31562</v>
+      </c>
+      <c r="F8" s="64">
+        <v>34495</v>
+      </c>
+      <c r="G8" s="64">
+        <v>38854</v>
+      </c>
+      <c r="H8" s="64">
+        <v>38681</v>
+      </c>
+      <c r="I8" s="64">
+        <v>38722</v>
+      </c>
+      <c r="J8" s="64">
+        <v>37860</v>
+      </c>
+      <c r="K8" s="64">
+        <v>37160</v>
+      </c>
+      <c r="L8" s="64">
+        <v>37420</v>
+      </c>
+      <c r="M8" s="64">
+        <v>37890</v>
+      </c>
+      <c r="N8" s="64">
+        <v>37130</v>
+      </c>
+      <c r="O8" s="64">
+        <v>37040</v>
+      </c>
+      <c r="P8" s="64">
+        <v>35980</v>
+      </c>
+      <c r="Q8" s="64">
+        <v>36640</v>
+      </c>
+      <c r="R8" s="64">
+        <v>35810</v>
+      </c>
+      <c r="S8" s="64">
+        <v>35670</v>
+      </c>
+      <c r="T8" s="64">
+        <v>35220</v>
+      </c>
+      <c r="U8" s="64">
+        <v>35550</v>
+      </c>
+      <c r="V8" s="64">
+        <v>34450</v>
+      </c>
+      <c r="W8" s="64">
+        <v>33720</v>
+      </c>
+      <c r="X8" s="64">
+        <v>32860</v>
+      </c>
+      <c r="Y8" s="64">
+        <v>32610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="64">
+        <v>7349</v>
+      </c>
+      <c r="D9" s="64">
+        <v>5550</v>
+      </c>
+      <c r="E9" s="64">
+        <v>6108</v>
+      </c>
+      <c r="F9" s="64">
+        <v>8133</v>
+      </c>
+      <c r="G9" s="64">
+        <v>8043</v>
+      </c>
+      <c r="H9" s="64">
+        <v>8247</v>
+      </c>
+      <c r="I9" s="64">
+        <v>8070</v>
+      </c>
+      <c r="J9" s="64">
+        <v>8240</v>
+      </c>
+      <c r="K9" s="64">
+        <v>8390</v>
+      </c>
+      <c r="L9" s="64">
+        <v>8480</v>
+      </c>
+      <c r="M9" s="64">
+        <v>8690</v>
+      </c>
+      <c r="N9" s="64">
+        <v>8930</v>
+      </c>
+      <c r="O9" s="64">
+        <v>9010</v>
+      </c>
+      <c r="P9" s="64">
+        <v>9080</v>
+      </c>
+      <c r="Q9" s="64">
+        <v>9260</v>
+      </c>
+      <c r="R9" s="64">
+        <v>9280</v>
+      </c>
+      <c r="S9" s="64">
+        <v>9500</v>
+      </c>
+      <c r="T9" s="64">
+        <v>9880</v>
+      </c>
+      <c r="U9" s="64">
+        <v>9920</v>
+      </c>
+      <c r="V9" s="64">
+        <v>10240</v>
+      </c>
+      <c r="W9" s="64">
+        <v>10060</v>
+      </c>
+      <c r="X9" s="64">
+        <v>9740</v>
+      </c>
+      <c r="Y9" s="64">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="64">
+        <v>4848</v>
+      </c>
+      <c r="D10" s="64">
+        <v>3626</v>
+      </c>
+      <c r="E10" s="64">
+        <v>2695</v>
+      </c>
+      <c r="F10" s="64">
+        <v>3602</v>
+      </c>
+      <c r="G10" s="64">
+        <v>3477</v>
+      </c>
+      <c r="H10" s="64">
+        <v>3860</v>
+      </c>
+      <c r="I10" s="64">
+        <v>3961</v>
+      </c>
+      <c r="J10" s="64">
+        <v>3880</v>
+      </c>
+      <c r="K10" s="64">
+        <v>3990</v>
+      </c>
+      <c r="L10" s="64">
+        <v>4510</v>
+      </c>
+      <c r="M10" s="64">
+        <v>4430</v>
+      </c>
+      <c r="N10" s="64">
+        <v>4200</v>
+      </c>
+      <c r="O10" s="64">
+        <v>4290</v>
+      </c>
+      <c r="P10" s="64">
+        <v>4270</v>
+      </c>
+      <c r="Q10" s="64">
+        <v>4320</v>
+      </c>
+      <c r="R10" s="64">
+        <v>4310</v>
+      </c>
+      <c r="S10" s="64">
+        <v>4630</v>
+      </c>
+      <c r="T10" s="64">
+        <v>4970</v>
+      </c>
+      <c r="U10" s="64">
+        <v>5520</v>
+      </c>
+      <c r="V10" s="64">
+        <v>5550</v>
+      </c>
+      <c r="W10" s="64">
+        <v>5550</v>
+      </c>
+      <c r="X10" s="64">
+        <v>5640</v>
+      </c>
+      <c r="Y10" s="64">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="64">
+        <v>88755</v>
+      </c>
+      <c r="D11" s="64">
+        <v>88934</v>
+      </c>
+      <c r="E11" s="64">
+        <v>106708</v>
+      </c>
+      <c r="F11" s="64">
+        <v>156130</v>
+      </c>
+      <c r="G11" s="64">
+        <v>155493</v>
+      </c>
+      <c r="H11" s="64">
+        <v>151964</v>
+      </c>
+      <c r="I11" s="64">
+        <v>158029</v>
+      </c>
+      <c r="J11" s="64">
+        <v>158440</v>
+      </c>
+      <c r="K11" s="64">
+        <v>163740</v>
+      </c>
+      <c r="L11" s="64">
+        <v>166540</v>
+      </c>
+      <c r="M11" s="64">
+        <v>170820</v>
+      </c>
+      <c r="N11" s="64">
+        <v>176160</v>
+      </c>
+      <c r="O11" s="64">
+        <v>179520</v>
+      </c>
+      <c r="P11" s="64">
+        <v>175370</v>
+      </c>
+      <c r="Q11" s="64">
+        <v>176380</v>
+      </c>
+      <c r="R11" s="64">
+        <v>179930</v>
+      </c>
+      <c r="S11" s="64">
+        <v>182780</v>
+      </c>
+      <c r="T11" s="64">
+        <v>192590</v>
+      </c>
+      <c r="U11" s="64">
+        <v>190040</v>
+      </c>
+      <c r="V11" s="64">
+        <v>197900</v>
+      </c>
+      <c r="W11" s="64">
+        <v>192690</v>
+      </c>
+      <c r="X11" s="64">
+        <v>187880</v>
+      </c>
+      <c r="Y11" s="64">
+        <v>190410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="64">
+        <v>62963</v>
+      </c>
+      <c r="D12" s="64">
+        <v>56605</v>
+      </c>
+      <c r="E12" s="64">
+        <v>62563</v>
+      </c>
+      <c r="F12" s="64">
+        <v>91561</v>
+      </c>
+      <c r="G12" s="64">
+        <v>92338</v>
+      </c>
+      <c r="H12" s="64">
+        <v>90582</v>
+      </c>
+      <c r="I12" s="64">
+        <v>92416</v>
+      </c>
+      <c r="J12" s="64">
+        <v>94380</v>
+      </c>
+      <c r="K12" s="64">
+        <v>97420</v>
+      </c>
+      <c r="L12" s="64">
+        <v>100070</v>
+      </c>
+      <c r="M12" s="64">
+        <v>102050</v>
+      </c>
+      <c r="N12" s="64">
+        <v>105890</v>
+      </c>
+      <c r="O12" s="64">
+        <v>106920</v>
+      </c>
+      <c r="P12" s="64">
+        <v>105660</v>
+      </c>
+      <c r="Q12" s="64">
+        <v>104900</v>
+      </c>
+      <c r="R12" s="64">
+        <v>106500</v>
+      </c>
+      <c r="S12" s="64">
+        <v>107710</v>
+      </c>
+      <c r="T12" s="64">
+        <v>110270</v>
+      </c>
+      <c r="U12" s="64">
+        <v>112930</v>
+      </c>
+      <c r="V12" s="64">
+        <v>113710</v>
+      </c>
+      <c r="W12" s="64">
+        <v>111370</v>
+      </c>
+      <c r="X12" s="64">
+        <v>107750</v>
+      </c>
+      <c r="Y12" s="64">
+        <v>108130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="64">
+        <v>11472</v>
+      </c>
+      <c r="D13" s="64">
+        <v>10325</v>
+      </c>
+      <c r="E13" s="64">
+        <v>10437</v>
+      </c>
+      <c r="F13" s="64">
+        <v>10998</v>
+      </c>
+      <c r="G13" s="64">
+        <v>10716</v>
+      </c>
+      <c r="H13" s="64">
+        <v>11360</v>
+      </c>
+      <c r="I13" s="64">
+        <v>10790</v>
+      </c>
+      <c r="J13" s="64">
+        <v>11050</v>
+      </c>
+      <c r="K13" s="64">
+        <v>10760</v>
+      </c>
+      <c r="L13" s="64">
+        <v>10860</v>
+      </c>
+      <c r="M13" s="64">
+        <v>10690</v>
+      </c>
+      <c r="N13" s="64">
+        <v>11130</v>
+      </c>
+      <c r="O13" s="64">
+        <v>10540</v>
+      </c>
+      <c r="P13" s="64">
+        <v>10820</v>
+      </c>
+      <c r="Q13" s="64">
+        <v>10830</v>
+      </c>
+      <c r="R13" s="64">
+        <v>11010</v>
+      </c>
+      <c r="S13" s="64">
+        <v>11210</v>
+      </c>
+      <c r="T13" s="64">
+        <v>11290</v>
+      </c>
+      <c r="U13" s="64">
+        <v>11510</v>
+      </c>
+      <c r="V13" s="64">
+        <v>11580</v>
+      </c>
+      <c r="W13" s="64">
+        <v>8780</v>
+      </c>
+      <c r="X13" s="64">
+        <v>10890</v>
+      </c>
+      <c r="Y13" s="64">
+        <v>10670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="64">
+        <v>12679</v>
+      </c>
+      <c r="D14" s="64">
+        <v>11971</v>
+      </c>
+      <c r="E14" s="64">
+        <v>16170</v>
+      </c>
+      <c r="F14" s="64">
+        <v>17793</v>
+      </c>
+      <c r="G14" s="64">
+        <v>17525</v>
+      </c>
+      <c r="H14" s="64">
+        <v>17568</v>
+      </c>
+      <c r="I14" s="64">
+        <v>17198</v>
+      </c>
+      <c r="J14" s="64">
+        <v>19120</v>
+      </c>
+      <c r="K14" s="64">
+        <v>18050</v>
+      </c>
+      <c r="L14" s="64">
+        <v>18230</v>
+      </c>
+      <c r="M14" s="64">
+        <v>19130</v>
+      </c>
+      <c r="N14" s="64">
+        <v>19280</v>
+      </c>
+      <c r="O14" s="64">
+        <v>19720</v>
+      </c>
+      <c r="P14" s="64">
+        <v>19440</v>
+      </c>
+      <c r="Q14" s="64">
+        <v>19830</v>
+      </c>
+      <c r="R14" s="64">
+        <v>20340</v>
+      </c>
+      <c r="S14" s="64">
+        <v>21040</v>
+      </c>
+      <c r="T14" s="64">
+        <v>21090</v>
+      </c>
+      <c r="U14" s="64">
+        <v>21850</v>
+      </c>
+      <c r="V14" s="64">
+        <v>21960</v>
+      </c>
+      <c r="W14" s="64">
+        <v>21400</v>
+      </c>
+      <c r="X14" s="64">
+        <v>21010</v>
+      </c>
+      <c r="Y14" s="64">
+        <v>21320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="64">
+        <v>136795</v>
+      </c>
+      <c r="D15" s="64">
+        <v>108119</v>
+      </c>
+      <c r="E15" s="64">
+        <v>111835</v>
+      </c>
+      <c r="F15" s="64">
+        <v>139035</v>
+      </c>
+      <c r="G15" s="64">
+        <v>134956</v>
+      </c>
+      <c r="H15" s="64">
+        <v>139575</v>
+      </c>
+      <c r="I15" s="64">
+        <v>139228</v>
+      </c>
+      <c r="J15" s="64">
+        <v>137640</v>
+      </c>
+      <c r="K15" s="64">
+        <v>140520</v>
+      </c>
+      <c r="L15" s="64">
+        <v>140850</v>
+      </c>
+      <c r="M15" s="64">
+        <v>141250</v>
+      </c>
+      <c r="N15" s="64">
+        <v>143510</v>
+      </c>
+      <c r="O15" s="64">
+        <v>142800</v>
+      </c>
+      <c r="P15" s="64">
+        <v>139490</v>
+      </c>
+      <c r="Q15" s="64">
+        <v>144730</v>
+      </c>
+      <c r="R15" s="64">
+        <v>146850</v>
+      </c>
+      <c r="S15" s="64">
+        <v>144610</v>
+      </c>
+      <c r="T15" s="64">
+        <v>147870</v>
+      </c>
+      <c r="U15" s="64">
+        <v>152340</v>
+      </c>
+      <c r="V15" s="64">
+        <v>149530</v>
+      </c>
+      <c r="W15" s="64">
+        <v>146040</v>
+      </c>
+      <c r="X15" s="64">
+        <v>138960</v>
+      </c>
+      <c r="Y15" s="64">
+        <v>138790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="64">
+        <v>73381</v>
+      </c>
+      <c r="D16" s="64">
+        <v>60012</v>
+      </c>
+      <c r="E16" s="64">
+        <v>57012</v>
+      </c>
+      <c r="F16" s="64">
+        <v>64551</v>
+      </c>
+      <c r="G16" s="64">
+        <v>66133</v>
+      </c>
+      <c r="H16" s="64">
+        <v>65667</v>
+      </c>
+      <c r="I16" s="64">
+        <v>66595</v>
+      </c>
+      <c r="J16" s="64">
+        <v>67560</v>
+      </c>
+      <c r="K16" s="64">
+        <v>66750</v>
+      </c>
+      <c r="L16" s="64">
+        <v>66720</v>
+      </c>
+      <c r="M16" s="64">
+        <v>68970</v>
+      </c>
+      <c r="N16" s="64">
+        <v>69640</v>
+      </c>
+      <c r="O16" s="64">
+        <v>71980</v>
+      </c>
+      <c r="P16" s="64">
+        <v>69520</v>
+      </c>
+      <c r="Q16" s="64">
+        <v>68320</v>
+      </c>
+      <c r="R16" s="64">
+        <v>69820</v>
+      </c>
+      <c r="S16" s="64">
+        <v>68920</v>
+      </c>
+      <c r="T16" s="64">
+        <v>70120</v>
+      </c>
+      <c r="U16" s="64">
+        <v>70340</v>
+      </c>
+      <c r="V16" s="64">
+        <v>71660</v>
+      </c>
+      <c r="W16" s="64">
+        <v>69740</v>
+      </c>
+      <c r="X16" s="64">
+        <v>68530</v>
+      </c>
+      <c r="Y16" s="64">
+        <v>68580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="64">
+        <v>42635</v>
+      </c>
+      <c r="D17" s="64">
+        <v>31796</v>
+      </c>
+      <c r="E17" s="64">
+        <v>33926</v>
+      </c>
+      <c r="F17" s="64">
+        <v>34462</v>
+      </c>
+      <c r="G17" s="64">
+        <v>33853</v>
+      </c>
+      <c r="H17" s="64">
+        <v>33230</v>
+      </c>
+      <c r="I17" s="64">
+        <v>32548</v>
+      </c>
+      <c r="J17" s="64">
+        <v>32590</v>
+      </c>
+      <c r="K17" s="64">
+        <v>32450</v>
+      </c>
+      <c r="L17" s="64">
+        <v>32700</v>
+      </c>
+      <c r="M17" s="64">
+        <v>32850</v>
+      </c>
+      <c r="N17" s="64">
+        <v>33390</v>
+      </c>
+      <c r="O17" s="64">
+        <v>33310</v>
+      </c>
+      <c r="P17" s="64">
+        <v>33390</v>
+      </c>
+      <c r="Q17" s="64">
+        <v>33890</v>
+      </c>
+      <c r="R17" s="64">
+        <v>33930</v>
+      </c>
+      <c r="S17" s="64">
+        <v>34700</v>
+      </c>
+      <c r="T17" s="64">
+        <v>35460</v>
+      </c>
+      <c r="U17" s="64">
+        <v>36120</v>
+      </c>
+      <c r="V17" s="64">
+        <v>36390</v>
+      </c>
+      <c r="W17" s="64">
+        <v>35350</v>
+      </c>
+      <c r="X17" s="64">
+        <v>35090</v>
+      </c>
+      <c r="Y17" s="64">
+        <v>35110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="64">
+        <v>29397</v>
+      </c>
+      <c r="D18" s="64">
+        <v>25367</v>
+      </c>
+      <c r="E18" s="64">
+        <v>29102</v>
+      </c>
+      <c r="F18" s="64">
+        <v>31642</v>
+      </c>
+      <c r="G18" s="64">
+        <v>31370</v>
+      </c>
+      <c r="H18" s="64">
+        <v>31898</v>
+      </c>
+      <c r="I18" s="64">
+        <v>31922</v>
+      </c>
+      <c r="J18" s="64">
+        <v>32150</v>
+      </c>
+      <c r="K18" s="64">
+        <v>31900</v>
+      </c>
+      <c r="L18" s="64">
+        <v>32790</v>
+      </c>
+      <c r="M18" s="64">
+        <v>32900</v>
+      </c>
+      <c r="N18" s="64">
+        <v>33470</v>
+      </c>
+      <c r="O18" s="64">
+        <v>33410</v>
+      </c>
+      <c r="P18" s="64">
+        <v>33330</v>
+      </c>
+      <c r="Q18" s="64">
+        <v>33490</v>
+      </c>
+      <c r="R18" s="64">
+        <v>33680</v>
+      </c>
+      <c r="S18" s="64">
+        <v>33660</v>
+      </c>
+      <c r="T18" s="64">
+        <v>34200</v>
+      </c>
+      <c r="U18" s="64">
+        <v>34870</v>
+      </c>
+      <c r="V18" s="64">
+        <v>34670</v>
+      </c>
+      <c r="W18" s="64">
+        <v>33910</v>
+      </c>
+      <c r="X18" s="64">
+        <v>33560</v>
+      </c>
+      <c r="Y18" s="64">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="64">
+        <v>41714</v>
+      </c>
+      <c r="D19" s="64">
+        <v>38005</v>
+      </c>
+      <c r="E19" s="64">
+        <v>36830</v>
+      </c>
+      <c r="F19" s="64">
+        <v>42664</v>
+      </c>
+      <c r="G19" s="64">
+        <v>43031</v>
+      </c>
+      <c r="H19" s="64">
+        <v>42642</v>
+      </c>
+      <c r="I19" s="64">
+        <v>42888</v>
+      </c>
+      <c r="J19" s="64">
+        <v>42400</v>
+      </c>
+      <c r="K19" s="64">
+        <v>42530</v>
+      </c>
+      <c r="L19" s="64">
+        <v>43280</v>
+      </c>
+      <c r="M19" s="64">
+        <v>43280</v>
+      </c>
+      <c r="N19" s="64">
+        <v>44330</v>
+      </c>
+      <c r="O19" s="64">
+        <v>44420</v>
+      </c>
+      <c r="P19" s="64">
+        <v>43760</v>
+      </c>
+      <c r="Q19" s="64">
+        <v>43830</v>
+      </c>
+      <c r="R19" s="64">
+        <v>43840</v>
+      </c>
+      <c r="S19" s="64">
+        <v>43930</v>
+      </c>
+      <c r="T19" s="64">
+        <v>44930</v>
+      </c>
+      <c r="U19" s="64">
+        <v>45890</v>
+      </c>
+      <c r="V19" s="64">
+        <v>45440</v>
+      </c>
+      <c r="W19" s="64">
+        <v>44540</v>
+      </c>
+      <c r="X19" s="64">
+        <v>42610</v>
+      </c>
+      <c r="Y19" s="64">
+        <v>42660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="64">
+        <v>46199</v>
+      </c>
+      <c r="D20" s="64">
+        <v>36053</v>
+      </c>
+      <c r="E20" s="64">
+        <v>38430</v>
+      </c>
+      <c r="F20" s="64">
+        <v>36573</v>
+      </c>
+      <c r="G20" s="64">
+        <v>35844</v>
+      </c>
+      <c r="H20" s="64">
+        <v>36675</v>
+      </c>
+      <c r="I20" s="64">
+        <v>37508</v>
+      </c>
+      <c r="J20" s="64">
+        <v>38180</v>
+      </c>
+      <c r="K20" s="64">
+        <v>37720</v>
+      </c>
+      <c r="L20" s="64">
+        <v>38790</v>
+      </c>
+      <c r="M20" s="64">
+        <v>39380</v>
+      </c>
+      <c r="N20" s="64">
+        <v>41970</v>
+      </c>
+      <c r="O20" s="64">
+        <v>41720</v>
+      </c>
+      <c r="P20" s="64">
+        <v>40430</v>
+      </c>
+      <c r="Q20" s="64">
+        <v>39810</v>
+      </c>
+      <c r="R20" s="64">
+        <v>40380</v>
+      </c>
+      <c r="S20" s="64">
+        <v>40360</v>
+      </c>
+      <c r="T20" s="64">
+        <v>41590</v>
+      </c>
+      <c r="U20" s="64">
+        <v>42410</v>
+      </c>
+      <c r="V20" s="64">
+        <v>42570</v>
+      </c>
+      <c r="W20" s="64">
+        <v>41560</v>
+      </c>
+      <c r="X20" s="64">
+        <v>39600</v>
+      </c>
+      <c r="Y20" s="64">
+        <v>40130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="64">
+        <v>15554</v>
+      </c>
+      <c r="D21" s="64">
+        <v>13839</v>
+      </c>
+      <c r="E21" s="64">
+        <v>12211</v>
+      </c>
+      <c r="F21" s="64">
+        <v>14069</v>
+      </c>
+      <c r="G21" s="64">
+        <v>13653</v>
+      </c>
+      <c r="H21" s="64">
+        <v>13473</v>
+      </c>
+      <c r="I21" s="64">
+        <v>13170</v>
+      </c>
+      <c r="J21" s="64">
+        <v>12730</v>
+      </c>
+      <c r="K21" s="64">
+        <v>12560</v>
+      </c>
+      <c r="L21" s="64">
+        <v>12790</v>
+      </c>
+      <c r="M21" s="64">
+        <v>12640</v>
+      </c>
+      <c r="N21" s="64">
+        <v>12470</v>
+      </c>
+      <c r="O21" s="64">
+        <v>12430</v>
+      </c>
+      <c r="P21" s="64">
+        <v>12100</v>
+      </c>
+      <c r="Q21" s="64">
+        <v>12050</v>
+      </c>
+      <c r="R21" s="64">
+        <v>12250</v>
+      </c>
+      <c r="S21" s="64">
+        <v>12300</v>
+      </c>
+      <c r="T21" s="64">
+        <v>12160</v>
+      </c>
+      <c r="U21" s="64">
+        <v>12340</v>
+      </c>
+      <c r="V21" s="64">
+        <v>12080</v>
+      </c>
+      <c r="W21" s="64">
+        <v>11960</v>
+      </c>
+      <c r="X21" s="64">
+        <v>11600</v>
+      </c>
+      <c r="Y21" s="64">
+        <v>11580</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="64">
+        <v>54050</v>
+      </c>
+      <c r="D22" s="64">
+        <v>41566</v>
+      </c>
+      <c r="E22" s="64">
+        <v>47849</v>
+      </c>
+      <c r="F22" s="64">
+        <v>59078</v>
+      </c>
+      <c r="G22" s="64">
+        <v>58745</v>
+      </c>
+      <c r="H22" s="64">
+        <v>58811</v>
+      </c>
+      <c r="I22" s="64">
+        <v>58896</v>
+      </c>
+      <c r="J22" s="64">
+        <v>58120</v>
+      </c>
+      <c r="K22" s="64">
+        <v>57650</v>
+      </c>
+      <c r="L22" s="64">
+        <v>57490</v>
+      </c>
+      <c r="M22" s="64">
+        <v>57290</v>
+      </c>
+      <c r="N22" s="64">
+        <v>59040</v>
+      </c>
+      <c r="O22" s="64">
+        <v>58560</v>
+      </c>
+      <c r="P22" s="64">
+        <v>60180</v>
+      </c>
+      <c r="Q22" s="64">
+        <v>60920</v>
+      </c>
+      <c r="R22" s="64">
+        <v>61640</v>
+      </c>
+      <c r="S22" s="64">
+        <v>61990</v>
+      </c>
+      <c r="T22" s="64">
+        <v>63770</v>
+      </c>
+      <c r="U22" s="64">
+        <v>65820</v>
+      </c>
+      <c r="V22" s="64">
+        <v>66930</v>
+      </c>
+      <c r="W22" s="64">
+        <v>65550</v>
+      </c>
+      <c r="X22" s="64">
+        <v>64340</v>
+      </c>
+      <c r="Y22" s="64">
+        <v>64550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="64">
+        <v>74831</v>
+      </c>
+      <c r="D23" s="64">
+        <v>55941</v>
+      </c>
+      <c r="E23" s="64">
+        <v>52950</v>
+      </c>
+      <c r="F23" s="64">
+        <v>64462</v>
+      </c>
+      <c r="G23" s="64">
+        <v>64724</v>
+      </c>
+      <c r="H23" s="64">
+        <v>65157</v>
+      </c>
+      <c r="I23" s="64">
+        <v>66360</v>
+      </c>
+      <c r="J23" s="64">
+        <v>65200</v>
+      </c>
+      <c r="K23" s="64">
+        <v>65790</v>
+      </c>
+      <c r="L23" s="64">
+        <v>68630</v>
+      </c>
+      <c r="M23" s="64">
+        <v>68610</v>
+      </c>
+      <c r="N23" s="64">
+        <v>69320</v>
+      </c>
+      <c r="O23" s="64">
+        <v>69810</v>
+      </c>
+      <c r="P23" s="64">
+        <v>69790</v>
+      </c>
+      <c r="Q23" s="64">
+        <v>70020</v>
+      </c>
+      <c r="R23" s="64">
+        <v>70360</v>
+      </c>
+      <c r="S23" s="64">
+        <v>69700</v>
+      </c>
+      <c r="T23" s="64">
+        <v>70020</v>
+      </c>
+      <c r="U23" s="64">
+        <v>71160</v>
+      </c>
+      <c r="V23" s="64">
+        <v>71310</v>
+      </c>
+      <c r="W23" s="64">
+        <v>69390</v>
+      </c>
+      <c r="X23" s="64">
+        <v>67880</v>
+      </c>
+      <c r="Y23" s="64">
+        <v>68390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="64">
+        <v>124372</v>
+      </c>
+      <c r="D24" s="64">
+        <v>93807</v>
+      </c>
+      <c r="E24" s="64">
+        <v>97679</v>
+      </c>
+      <c r="F24" s="64">
+        <v>110682</v>
+      </c>
+      <c r="G24" s="64">
+        <v>106017</v>
+      </c>
+      <c r="H24" s="64">
+        <v>105446</v>
+      </c>
+      <c r="I24" s="64">
+        <v>104210</v>
+      </c>
+      <c r="J24" s="64">
+        <v>102520</v>
+      </c>
+      <c r="K24" s="64">
+        <v>102020</v>
+      </c>
+      <c r="L24" s="64">
+        <v>100800</v>
+      </c>
+      <c r="M24" s="64">
+        <v>101570</v>
+      </c>
+      <c r="N24" s="64">
+        <v>102440</v>
+      </c>
+      <c r="O24" s="64">
+        <v>99910</v>
+      </c>
+      <c r="P24" s="64">
+        <v>98170</v>
+      </c>
+      <c r="Q24" s="64">
+        <v>97790</v>
+      </c>
+      <c r="R24" s="64">
+        <v>97500</v>
+      </c>
+      <c r="S24" s="64">
+        <v>94870</v>
+      </c>
+      <c r="T24" s="64">
+        <v>96260</v>
+      </c>
+      <c r="U24" s="64">
+        <v>96030</v>
+      </c>
+      <c r="V24" s="64">
+        <v>92560</v>
+      </c>
+      <c r="W24" s="64">
+        <v>90060</v>
+      </c>
+      <c r="X24" s="64">
+        <v>88840</v>
+      </c>
+      <c r="Y24" s="64">
+        <v>88680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="64">
+        <v>64166</v>
+      </c>
+      <c r="D25" s="64">
+        <v>49087</v>
+      </c>
+      <c r="E25" s="64">
+        <v>57372</v>
+      </c>
+      <c r="F25" s="64">
+        <v>59667</v>
+      </c>
+      <c r="G25" s="64">
+        <v>59357</v>
+      </c>
+      <c r="H25" s="64">
+        <v>57501</v>
+      </c>
+      <c r="I25" s="64">
+        <v>58255</v>
+      </c>
+      <c r="J25" s="64">
+        <v>56370</v>
+      </c>
+      <c r="K25" s="64">
+        <v>56800</v>
+      </c>
+      <c r="L25" s="64">
+        <v>56640</v>
+      </c>
+      <c r="M25" s="64">
+        <v>57250</v>
+      </c>
+      <c r="N25" s="64">
+        <v>58370</v>
+      </c>
+      <c r="O25" s="64">
+        <v>59350</v>
+      </c>
+      <c r="P25" s="64">
+        <v>58510</v>
+      </c>
+      <c r="Q25" s="64">
+        <v>60360</v>
+      </c>
+      <c r="R25" s="64">
+        <v>61810</v>
+      </c>
+      <c r="S25" s="64">
+        <v>61920</v>
+      </c>
+      <c r="T25" s="64">
+        <v>63460</v>
+      </c>
+      <c r="U25" s="64">
+        <v>65100</v>
+      </c>
+      <c r="V25" s="64">
+        <v>65520</v>
+      </c>
+      <c r="W25" s="64">
+        <v>64560</v>
+      </c>
+      <c r="X25" s="64">
+        <v>63320</v>
+      </c>
+      <c r="Y25" s="64">
+        <v>63910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="64">
+        <v>28083</v>
+      </c>
+      <c r="D26" s="64">
+        <v>25182</v>
+      </c>
+      <c r="E26" s="64">
+        <v>24232</v>
+      </c>
+      <c r="F26" s="64">
+        <v>25478</v>
+      </c>
+      <c r="G26" s="64">
+        <v>27321</v>
+      </c>
+      <c r="H26" s="64">
+        <v>26158</v>
+      </c>
+      <c r="I26" s="64">
+        <v>26502</v>
+      </c>
+      <c r="J26" s="64">
+        <v>26650</v>
+      </c>
+      <c r="K26" s="64">
+        <v>26260</v>
+      </c>
+      <c r="L26" s="64">
+        <v>26770</v>
+      </c>
+      <c r="M26" s="64">
+        <v>26900</v>
+      </c>
+      <c r="N26" s="64">
+        <v>28050</v>
+      </c>
+      <c r="O26" s="64">
+        <v>27390</v>
+      </c>
+      <c r="P26" s="64">
+        <v>26680</v>
+      </c>
+      <c r="Q26" s="64">
+        <v>25990</v>
+      </c>
+      <c r="R26" s="64">
+        <v>26300</v>
+      </c>
+      <c r="S26" s="64">
+        <v>26180</v>
+      </c>
+      <c r="T26" s="64">
+        <v>25950</v>
+      </c>
+      <c r="U26" s="64">
+        <v>28040</v>
+      </c>
+      <c r="V26" s="64">
+        <v>27280</v>
+      </c>
+      <c r="W26" s="64">
+        <v>26330</v>
+      </c>
+      <c r="X26" s="64">
+        <v>24560</v>
+      </c>
+      <c r="Y26" s="64">
+        <v>24850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="64">
+        <v>60359</v>
+      </c>
+      <c r="D27" s="64">
+        <v>48957</v>
+      </c>
+      <c r="E27" s="64">
+        <v>52848</v>
+      </c>
+      <c r="F27" s="64">
+        <v>63994</v>
+      </c>
+      <c r="G27" s="64">
+        <v>62994</v>
+      </c>
+      <c r="H27" s="64">
+        <v>61313</v>
+      </c>
+      <c r="I27" s="64">
+        <v>61407</v>
+      </c>
+      <c r="J27" s="64">
+        <v>60900</v>
+      </c>
+      <c r="K27" s="64">
+        <v>60590</v>
+      </c>
+      <c r="L27" s="64">
+        <v>61600</v>
+      </c>
+      <c r="M27" s="64">
+        <v>60890</v>
+      </c>
+      <c r="N27" s="64">
+        <v>61700</v>
+      </c>
+      <c r="O27" s="64">
+        <v>61770</v>
+      </c>
+      <c r="P27" s="64">
+        <v>60750</v>
+      </c>
+      <c r="Q27" s="64">
+        <v>60800</v>
+      </c>
+      <c r="R27" s="64">
+        <v>61170</v>
+      </c>
+      <c r="S27" s="64">
+        <v>61590</v>
+      </c>
+      <c r="T27" s="64">
+        <v>62280</v>
+      </c>
+      <c r="U27" s="64">
+        <v>63600</v>
+      </c>
+      <c r="V27" s="64">
+        <v>63560</v>
+      </c>
+      <c r="W27" s="64">
+        <v>61920</v>
+      </c>
+      <c r="X27" s="64">
+        <v>60470</v>
+      </c>
+      <c r="Y27" s="64">
+        <v>60440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="64">
+        <v>11634</v>
+      </c>
+      <c r="D28" s="64">
+        <v>9370</v>
+      </c>
+      <c r="E28" s="64">
+        <v>10903</v>
+      </c>
+      <c r="F28" s="64">
+        <v>10075</v>
+      </c>
+      <c r="G28" s="64">
+        <v>9732</v>
+      </c>
+      <c r="H28" s="64">
+        <v>9750</v>
+      </c>
+      <c r="I28" s="64">
+        <v>9369</v>
+      </c>
+      <c r="J28" s="64">
+        <v>9470</v>
+      </c>
+      <c r="K28" s="64">
+        <v>9390</v>
+      </c>
+      <c r="L28" s="64">
+        <v>9320</v>
+      </c>
+      <c r="M28" s="64">
+        <v>9380</v>
+      </c>
+      <c r="N28" s="64">
+        <v>9210</v>
+      </c>
+      <c r="O28" s="64">
+        <v>9430</v>
+      </c>
+      <c r="P28" s="64">
+        <v>9610</v>
+      </c>
+      <c r="Q28" s="64">
+        <v>9660</v>
+      </c>
+      <c r="R28" s="64">
+        <v>9870</v>
+      </c>
+      <c r="S28" s="64">
+        <v>9890</v>
+      </c>
+      <c r="T28" s="64">
+        <v>10430</v>
+      </c>
+      <c r="U28" s="64">
+        <v>10430</v>
+      </c>
+      <c r="V28" s="64">
+        <v>10800</v>
+      </c>
+      <c r="W28" s="64">
+        <v>10530</v>
+      </c>
+      <c r="X28" s="64">
+        <v>10200</v>
+      </c>
+      <c r="Y28" s="64">
+        <v>10380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="64">
+        <v>21411</v>
+      </c>
+      <c r="D29" s="64">
+        <v>17664</v>
+      </c>
+      <c r="E29" s="64">
+        <v>20149</v>
+      </c>
+      <c r="F29" s="64">
+        <v>19370</v>
+      </c>
+      <c r="G29" s="64">
+        <v>20331</v>
+      </c>
+      <c r="H29" s="64">
+        <v>20464</v>
+      </c>
+      <c r="I29" s="64">
+        <v>20442</v>
+      </c>
+      <c r="J29" s="64">
+        <v>20580</v>
+      </c>
+      <c r="K29" s="64">
+        <v>20650</v>
+      </c>
+      <c r="L29" s="64">
+        <v>21090</v>
+      </c>
+      <c r="M29" s="64">
+        <v>21130</v>
+      </c>
+      <c r="N29" s="64">
+        <v>21960</v>
+      </c>
+      <c r="O29" s="64">
+        <v>22270</v>
+      </c>
+      <c r="P29" s="64">
+        <v>22750</v>
+      </c>
+      <c r="Q29" s="64">
+        <v>23240</v>
+      </c>
+      <c r="R29" s="64">
+        <v>23800</v>
+      </c>
+      <c r="S29" s="64">
+        <v>23640</v>
+      </c>
+      <c r="T29" s="64">
+        <v>24050</v>
+      </c>
+      <c r="U29" s="64">
+        <v>22970</v>
+      </c>
+      <c r="V29" s="64">
+        <v>24790</v>
+      </c>
+      <c r="W29" s="64">
+        <v>24890</v>
+      </c>
+      <c r="X29" s="64">
+        <v>24450</v>
+      </c>
+      <c r="Y29" s="64">
+        <v>24420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="64">
+        <v>9069</v>
+      </c>
+      <c r="D30" s="64">
+        <v>9477</v>
+      </c>
+      <c r="E30" s="64">
+        <v>14551</v>
+      </c>
+      <c r="F30" s="64">
+        <v>20956</v>
+      </c>
+      <c r="G30" s="64">
+        <v>21182</v>
+      </c>
+      <c r="H30" s="64">
+        <v>21891</v>
+      </c>
+      <c r="I30" s="64">
+        <v>23038</v>
+      </c>
+      <c r="J30" s="64">
+        <v>22720</v>
+      </c>
+      <c r="K30" s="64">
+        <v>23040</v>
+      </c>
+      <c r="L30" s="64">
+        <v>23190</v>
+      </c>
+      <c r="M30" s="64">
+        <v>23780</v>
+      </c>
+      <c r="N30" s="64">
+        <v>24170</v>
+      </c>
+      <c r="O30" s="64">
+        <v>24880</v>
+      </c>
+      <c r="P30" s="64">
+        <v>25150</v>
+      </c>
+      <c r="Q30" s="64">
+        <v>25190</v>
+      </c>
+      <c r="R30" s="64">
+        <v>25410</v>
+      </c>
+      <c r="S30" s="64">
+        <v>26270</v>
+      </c>
+      <c r="T30" s="64">
+        <v>27270</v>
+      </c>
+      <c r="U30" s="64">
+        <v>28460</v>
+      </c>
+      <c r="V30" s="64">
+        <v>28610</v>
+      </c>
+      <c r="W30" s="64">
+        <v>27590</v>
+      </c>
+      <c r="X30" s="64">
+        <v>27520</v>
+      </c>
+      <c r="Y30" s="64">
+        <v>27770</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="64">
+        <v>11552</v>
+      </c>
+      <c r="D31" s="64">
+        <v>10766</v>
+      </c>
+      <c r="E31" s="64">
+        <v>11829</v>
+      </c>
+      <c r="F31" s="64">
+        <v>15034</v>
+      </c>
+      <c r="G31" s="64">
+        <v>14495</v>
+      </c>
+      <c r="H31" s="64">
+        <v>14426</v>
+      </c>
+      <c r="I31" s="64">
+        <v>14262</v>
+      </c>
+      <c r="J31" s="64">
+        <v>13790</v>
+      </c>
+      <c r="K31" s="64">
+        <v>13520</v>
+      </c>
+      <c r="L31" s="64">
+        <v>13600</v>
+      </c>
+      <c r="M31" s="64">
+        <v>13160</v>
+      </c>
+      <c r="N31" s="64">
+        <v>13160</v>
+      </c>
+      <c r="O31" s="64">
+        <v>12950</v>
+      </c>
+      <c r="P31" s="64">
+        <v>12960</v>
+      </c>
+      <c r="Q31" s="64">
+        <v>12780</v>
+      </c>
+      <c r="R31" s="64">
+        <v>12810</v>
+      </c>
+      <c r="S31" s="64">
+        <v>12540</v>
+      </c>
+      <c r="T31" s="64">
+        <v>12550</v>
+      </c>
+      <c r="U31" s="64">
+        <v>12500</v>
+      </c>
+      <c r="V31" s="64">
+        <v>12290</v>
+      </c>
+      <c r="W31" s="64">
+        <v>11910</v>
+      </c>
+      <c r="X31" s="64">
+        <v>11490</v>
+      </c>
+      <c r="Y31" s="64">
+        <v>11380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="64">
+        <v>93168</v>
+      </c>
+      <c r="D32" s="64">
+        <v>69824</v>
+      </c>
+      <c r="E32" s="64">
+        <v>74420</v>
+      </c>
+      <c r="F32" s="64">
+        <v>96225</v>
+      </c>
+      <c r="G32" s="64">
+        <v>95186</v>
+      </c>
+      <c r="H32" s="64">
+        <v>93819</v>
+      </c>
+      <c r="I32" s="64">
+        <v>96490</v>
+      </c>
+      <c r="J32" s="64">
+        <v>95220</v>
+      </c>
+      <c r="K32" s="64">
+        <v>95250</v>
+      </c>
+      <c r="L32" s="64">
+        <v>97130</v>
+      </c>
+      <c r="M32" s="64">
+        <v>97990</v>
+      </c>
+      <c r="N32" s="64">
+        <v>98330</v>
+      </c>
+      <c r="O32" s="64">
+        <v>97120</v>
+      </c>
+      <c r="P32" s="64">
+        <v>96210</v>
+      </c>
+      <c r="Q32" s="64">
+        <v>97920</v>
+      </c>
+      <c r="R32" s="64">
+        <v>98540</v>
+      </c>
+      <c r="S32" s="64">
+        <v>97370</v>
+      </c>
+      <c r="T32" s="64">
+        <v>98540</v>
+      </c>
+      <c r="U32" s="64">
+        <v>100920</v>
+      </c>
+      <c r="V32" s="64">
+        <v>99270</v>
+      </c>
+      <c r="W32" s="64">
+        <v>97620</v>
+      </c>
+      <c r="X32" s="64">
+        <v>96130</v>
+      </c>
+      <c r="Y32" s="64">
+        <v>96020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="64">
+        <v>17915</v>
+      </c>
+      <c r="D33" s="64">
+        <v>14884</v>
+      </c>
+      <c r="E33" s="64">
+        <v>18031</v>
+      </c>
+      <c r="F33" s="64">
+        <v>18595</v>
+      </c>
+      <c r="G33" s="64">
+        <v>19352</v>
+      </c>
+      <c r="H33" s="64">
+        <v>20315</v>
+      </c>
+      <c r="I33" s="64">
+        <v>19232</v>
+      </c>
+      <c r="J33" s="64">
+        <v>18590</v>
+      </c>
+      <c r="K33" s="64">
+        <v>19530</v>
+      </c>
+      <c r="L33" s="64">
+        <v>19480</v>
+      </c>
+      <c r="M33" s="64">
+        <v>19770</v>
+      </c>
+      <c r="N33" s="64">
+        <v>20190</v>
+      </c>
+      <c r="O33" s="64">
+        <v>20300</v>
+      </c>
+      <c r="P33" s="64">
+        <v>20780</v>
+      </c>
+      <c r="Q33" s="64">
+        <v>20410</v>
+      </c>
+      <c r="R33" s="64">
+        <v>20430</v>
+      </c>
+      <c r="S33" s="64">
+        <v>20800</v>
+      </c>
+      <c r="T33" s="64">
+        <v>20820</v>
+      </c>
+      <c r="U33" s="64">
+        <v>21380</v>
+      </c>
+      <c r="V33" s="64">
+        <v>21510</v>
+      </c>
+      <c r="W33" s="64">
+        <v>20920</v>
+      </c>
+      <c r="X33" s="64">
+        <v>19510</v>
+      </c>
+      <c r="Y33" s="64">
+        <v>19290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="64">
+        <v>198465</v>
+      </c>
+      <c r="D34" s="64">
+        <v>143318</v>
+      </c>
+      <c r="E34" s="64">
+        <v>141731</v>
+      </c>
+      <c r="F34" s="64">
+        <v>183826</v>
+      </c>
+      <c r="G34" s="64">
+        <v>182759</v>
+      </c>
+      <c r="H34" s="64">
+        <v>180806</v>
+      </c>
+      <c r="I34" s="64">
+        <v>180351</v>
+      </c>
+      <c r="J34" s="64">
+        <v>178810</v>
+      </c>
+      <c r="K34" s="64">
+        <v>179110</v>
+      </c>
+      <c r="L34" s="64">
+        <v>178260</v>
+      </c>
+      <c r="M34" s="64">
+        <v>181790</v>
+      </c>
+      <c r="N34" s="64">
+        <v>185630</v>
+      </c>
+      <c r="O34" s="64">
+        <v>182480</v>
+      </c>
+      <c r="P34" s="64">
+        <v>179160</v>
+      </c>
+      <c r="Q34" s="64">
+        <v>180970</v>
+      </c>
+      <c r="R34" s="64">
+        <v>180070</v>
+      </c>
+      <c r="S34" s="64">
+        <v>180320</v>
+      </c>
+      <c r="T34" s="64">
+        <v>183830</v>
+      </c>
+      <c r="U34" s="64">
+        <v>186510</v>
+      </c>
+      <c r="V34" s="64">
+        <v>185690</v>
+      </c>
+      <c r="W34" s="64">
+        <v>183510</v>
+      </c>
+      <c r="X34" s="64">
+        <v>180560</v>
+      </c>
+      <c r="Y34" s="64">
+        <v>181140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="64">
+        <v>69395</v>
+      </c>
+      <c r="D35" s="64">
+        <v>64782</v>
+      </c>
+      <c r="E35" s="64">
+        <v>62140</v>
+      </c>
+      <c r="F35" s="64">
+        <v>88704</v>
+      </c>
+      <c r="G35" s="64">
+        <v>89892</v>
+      </c>
+      <c r="H35" s="64">
+        <v>93977</v>
+      </c>
+      <c r="I35" s="64">
+        <v>94339</v>
+      </c>
+      <c r="J35" s="64">
+        <v>96210</v>
+      </c>
+      <c r="K35" s="64">
+        <v>97020</v>
+      </c>
+      <c r="L35" s="64">
+        <v>98970</v>
+      </c>
+      <c r="M35" s="64">
+        <v>101710</v>
+      </c>
+      <c r="N35" s="64">
+        <v>105280</v>
+      </c>
+      <c r="O35" s="64">
+        <v>107590</v>
+      </c>
+      <c r="P35" s="64">
+        <v>104770</v>
+      </c>
+      <c r="Q35" s="64">
+        <v>104820</v>
+      </c>
+      <c r="R35" s="64">
+        <v>97640</v>
+      </c>
+      <c r="S35" s="64">
+        <v>104440</v>
+      </c>
+      <c r="T35" s="64">
+        <v>107090</v>
+      </c>
+      <c r="U35" s="64">
+        <v>110400</v>
+      </c>
+      <c r="V35" s="64">
+        <v>110430</v>
+      </c>
+      <c r="W35" s="64">
+        <v>108930</v>
+      </c>
+      <c r="X35" s="64">
+        <v>105400</v>
+      </c>
+      <c r="Y35" s="64">
+        <v>106280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="64">
+        <v>9924</v>
+      </c>
+      <c r="D36" s="64">
+        <v>7690</v>
+      </c>
+      <c r="E36" s="64">
+        <v>8606</v>
+      </c>
+      <c r="F36" s="64">
+        <v>7155</v>
+      </c>
+      <c r="G36" s="64">
+        <v>7156</v>
+      </c>
+      <c r="H36" s="64">
+        <v>6942</v>
+      </c>
+      <c r="I36" s="64">
+        <v>6900</v>
+      </c>
+      <c r="J36" s="64">
+        <v>6960</v>
+      </c>
+      <c r="K36" s="64">
+        <v>7040</v>
+      </c>
+      <c r="L36" s="64">
+        <v>7020</v>
+      </c>
+      <c r="M36" s="64">
+        <v>6940</v>
+      </c>
+      <c r="N36" s="64">
+        <v>6570</v>
+      </c>
+      <c r="O36" s="64">
+        <v>6800</v>
+      </c>
+      <c r="P36" s="64">
+        <v>6850</v>
+      </c>
+      <c r="Q36" s="64">
+        <v>7050</v>
+      </c>
+      <c r="R36" s="64">
+        <v>7330</v>
+      </c>
+      <c r="S36" s="64">
+        <v>7450</v>
+      </c>
+      <c r="T36" s="64">
+        <v>7910</v>
+      </c>
+      <c r="U36" s="64">
+        <v>8140</v>
+      </c>
+      <c r="V36" s="64">
+        <v>8240</v>
+      </c>
+      <c r="W36" s="64">
+        <v>8270</v>
+      </c>
+      <c r="X36" s="64">
+        <v>8000</v>
+      </c>
+      <c r="Y36" s="64">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="64">
+        <v>143503</v>
+      </c>
+      <c r="D37" s="64">
+        <v>114513</v>
+      </c>
+      <c r="E37" s="64">
+        <v>111668</v>
+      </c>
+      <c r="F37" s="64">
+        <v>123437</v>
+      </c>
+      <c r="G37" s="64">
+        <v>124229</v>
+      </c>
+      <c r="H37" s="64">
+        <v>123135</v>
+      </c>
+      <c r="I37" s="64">
+        <v>122491</v>
+      </c>
+      <c r="J37" s="64">
+        <v>119520</v>
+      </c>
+      <c r="K37" s="64">
+        <v>120940</v>
+      </c>
+      <c r="L37" s="64">
+        <v>125050</v>
+      </c>
+      <c r="M37" s="64">
+        <v>126590</v>
+      </c>
+      <c r="N37" s="64">
+        <v>122380</v>
+      </c>
+      <c r="O37" s="64">
+        <v>123350</v>
+      </c>
+      <c r="P37" s="64">
+        <v>121250</v>
+      </c>
+      <c r="Q37" s="64">
+        <v>120550</v>
+      </c>
+      <c r="R37" s="64">
+        <v>120190</v>
+      </c>
+      <c r="S37" s="64">
+        <v>117580</v>
+      </c>
+      <c r="T37" s="64">
+        <v>120240</v>
+      </c>
+      <c r="U37" s="64">
+        <v>121250</v>
+      </c>
+      <c r="V37" s="64">
+        <v>122090</v>
+      </c>
+      <c r="W37" s="64">
+        <v>117540</v>
+      </c>
+      <c r="X37" s="64">
+        <v>114030</v>
+      </c>
+      <c r="Y37" s="64">
+        <v>114690</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="64">
+        <v>38875</v>
+      </c>
+      <c r="D38" s="64">
+        <v>35606</v>
+      </c>
+      <c r="E38" s="64">
+        <v>37646</v>
+      </c>
+      <c r="F38" s="64">
+        <v>38503</v>
+      </c>
+      <c r="G38" s="64">
+        <v>37744</v>
+      </c>
+      <c r="H38" s="64">
+        <v>37305</v>
+      </c>
+      <c r="I38" s="64">
+        <v>37033</v>
+      </c>
+      <c r="J38" s="64">
+        <v>37260</v>
+      </c>
+      <c r="K38" s="64">
+        <v>38420</v>
+      </c>
+      <c r="L38" s="64">
+        <v>39690</v>
+      </c>
+      <c r="M38" s="64">
+        <v>40230</v>
+      </c>
+      <c r="N38" s="64">
+        <v>41170</v>
+      </c>
+      <c r="O38" s="64">
+        <v>41370</v>
+      </c>
+      <c r="P38" s="64">
+        <v>41640</v>
+      </c>
+      <c r="Q38" s="64">
+        <v>41920</v>
+      </c>
+      <c r="R38" s="64">
+        <v>41960</v>
+      </c>
+      <c r="S38" s="64">
+        <v>40480</v>
+      </c>
+      <c r="T38" s="64">
+        <v>42640</v>
+      </c>
+      <c r="U38" s="64">
+        <v>44270</v>
+      </c>
+      <c r="V38" s="64">
+        <v>44080</v>
+      </c>
+      <c r="W38" s="64">
+        <v>43800</v>
+      </c>
+      <c r="X38" s="64">
+        <v>42440</v>
+      </c>
+      <c r="Y38" s="64">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="64">
+        <v>28729</v>
+      </c>
+      <c r="D39" s="64">
+        <v>25473</v>
+      </c>
+      <c r="E39" s="64">
+        <v>30151</v>
+      </c>
+      <c r="F39" s="64">
+        <v>34671</v>
+      </c>
+      <c r="G39" s="64">
+        <v>34723</v>
+      </c>
+      <c r="H39" s="64">
+        <v>34261</v>
+      </c>
+      <c r="I39" s="64">
+        <v>33899</v>
+      </c>
+      <c r="J39" s="64">
+        <v>34440</v>
+      </c>
+      <c r="K39" s="64">
+        <v>34800</v>
+      </c>
+      <c r="L39" s="64">
+        <v>35650</v>
+      </c>
+      <c r="M39" s="64">
+        <v>34700</v>
+      </c>
+      <c r="N39" s="64">
+        <v>35380</v>
+      </c>
+      <c r="O39" s="64">
+        <v>35610</v>
+      </c>
+      <c r="P39" s="64">
+        <v>35190</v>
+      </c>
+      <c r="Q39" s="64">
+        <v>35790</v>
+      </c>
+      <c r="R39" s="64">
+        <v>36200</v>
+      </c>
+      <c r="S39" s="64">
+        <v>36320</v>
+      </c>
+      <c r="T39" s="64">
+        <v>37570</v>
+      </c>
+      <c r="U39" s="64">
+        <v>38690</v>
+      </c>
+      <c r="V39" s="64">
+        <v>38920</v>
+      </c>
+      <c r="W39" s="64">
+        <v>37850</v>
+      </c>
+      <c r="X39" s="64">
+        <v>37360</v>
+      </c>
+      <c r="Y39" s="64">
+        <v>37620</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="64">
+        <v>144645</v>
+      </c>
+      <c r="D40" s="64">
+        <v>110527</v>
+      </c>
+      <c r="E40" s="64">
+        <v>113959</v>
+      </c>
+      <c r="F40" s="64">
+        <v>131182</v>
+      </c>
+      <c r="G40" s="64">
+        <v>130284</v>
+      </c>
+      <c r="H40" s="64">
+        <v>131733</v>
+      </c>
+      <c r="I40" s="64">
+        <v>129777</v>
+      </c>
+      <c r="J40" s="64">
+        <v>127200</v>
+      </c>
+      <c r="K40" s="64">
+        <v>123560</v>
+      </c>
+      <c r="L40" s="64">
+        <v>121840</v>
+      </c>
+      <c r="M40" s="64">
+        <v>123990</v>
+      </c>
+      <c r="N40" s="64">
+        <v>123190</v>
+      </c>
+      <c r="O40" s="64">
+        <v>120390</v>
+      </c>
+      <c r="P40" s="64">
+        <v>118130</v>
+      </c>
+      <c r="Q40" s="64">
+        <v>119550</v>
+      </c>
+      <c r="R40" s="64">
+        <v>120570</v>
+      </c>
+      <c r="S40" s="64">
+        <v>119610</v>
+      </c>
+      <c r="T40" s="64">
+        <v>121370</v>
+      </c>
+      <c r="U40" s="64">
+        <v>123220</v>
+      </c>
+      <c r="V40" s="64">
+        <v>123420</v>
+      </c>
+      <c r="W40" s="64">
+        <v>120520</v>
+      </c>
+      <c r="X40" s="64">
+        <v>118990</v>
+      </c>
+      <c r="Y40" s="64">
+        <v>119130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="64">
+        <v>10719</v>
+      </c>
+      <c r="D41" s="64">
+        <v>7825</v>
+      </c>
+      <c r="E41" s="64">
+        <v>8477</v>
+      </c>
+      <c r="F41" s="64">
+        <v>9908</v>
+      </c>
+      <c r="G41" s="64">
+        <v>9724</v>
+      </c>
+      <c r="H41" s="64">
+        <v>9751</v>
+      </c>
+      <c r="I41" s="64">
+        <v>9579</v>
+      </c>
+      <c r="J41" s="64">
+        <v>9730</v>
+      </c>
+      <c r="K41" s="64">
+        <v>9900</v>
+      </c>
+      <c r="L41" s="64">
+        <v>10050</v>
+      </c>
+      <c r="M41" s="64">
+        <v>9390</v>
+      </c>
+      <c r="N41" s="64">
+        <v>9660</v>
+      </c>
+      <c r="O41" s="64">
+        <v>10240</v>
+      </c>
+      <c r="P41" s="64">
+        <v>10390</v>
+      </c>
+      <c r="Q41" s="64">
+        <v>10250</v>
+      </c>
+      <c r="R41" s="64">
+        <v>10510</v>
+      </c>
+      <c r="S41" s="64">
+        <v>10300</v>
+      </c>
+      <c r="T41" s="64">
+        <v>10420</v>
+      </c>
+      <c r="U41" s="64">
+        <v>10540</v>
+      </c>
+      <c r="V41" s="64">
+        <v>10390</v>
+      </c>
+      <c r="W41" s="64">
+        <v>9990</v>
+      </c>
+      <c r="X41" s="64">
+        <v>9780</v>
+      </c>
+      <c r="Y41" s="64">
+        <v>9740</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="64">
+        <v>38347</v>
+      </c>
+      <c r="D42" s="64">
+        <v>32483</v>
+      </c>
+      <c r="E42" s="64">
+        <v>31617</v>
+      </c>
+      <c r="F42" s="64">
+        <v>40438</v>
+      </c>
+      <c r="G42" s="64">
+        <v>40708</v>
+      </c>
+      <c r="H42" s="64">
+        <v>41442</v>
+      </c>
+      <c r="I42" s="64">
+        <v>42246</v>
+      </c>
+      <c r="J42" s="64">
+        <v>41720</v>
+      </c>
+      <c r="K42" s="64">
+        <v>42650</v>
+      </c>
+      <c r="L42" s="64">
+        <v>43840</v>
+      </c>
+      <c r="M42" s="64">
+        <v>45090</v>
+      </c>
+      <c r="N42" s="64">
+        <v>46640</v>
+      </c>
+      <c r="O42" s="64">
+        <v>46890</v>
+      </c>
+      <c r="P42" s="64">
+        <v>46620</v>
+      </c>
+      <c r="Q42" s="64">
+        <v>46480</v>
+      </c>
+      <c r="R42" s="64">
+        <v>47070</v>
+      </c>
+      <c r="S42" s="64">
+        <v>48120</v>
+      </c>
+      <c r="T42" s="64">
+        <v>49580</v>
+      </c>
+      <c r="U42" s="64">
+        <v>52080</v>
+      </c>
+      <c r="V42" s="64">
+        <v>52000</v>
+      </c>
+      <c r="W42" s="64">
+        <v>51900</v>
+      </c>
+      <c r="X42" s="64">
+        <v>49310</v>
+      </c>
+      <c r="Y42" s="64">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="64">
+        <v>10385</v>
+      </c>
+      <c r="D43" s="64">
+        <v>7650</v>
+      </c>
+      <c r="E43" s="64">
+        <v>9278</v>
+      </c>
+      <c r="F43" s="64">
+        <v>8162</v>
+      </c>
+      <c r="G43" s="64">
+        <v>8248</v>
+      </c>
+      <c r="H43" s="64">
+        <v>8196</v>
+      </c>
+      <c r="I43" s="64">
+        <v>8239</v>
+      </c>
+      <c r="J43" s="64">
+        <v>7960</v>
+      </c>
+      <c r="K43" s="64">
+        <v>8140</v>
+      </c>
+      <c r="L43" s="64">
+        <v>8080</v>
+      </c>
+      <c r="M43" s="64">
+        <v>8160</v>
+      </c>
+      <c r="N43" s="64">
+        <v>8280</v>
+      </c>
+      <c r="O43" s="64">
+        <v>8190</v>
+      </c>
+      <c r="P43" s="64">
+        <v>8380</v>
+      </c>
+      <c r="Q43" s="64">
+        <v>8500</v>
+      </c>
+      <c r="R43" s="64">
+        <v>8820</v>
+      </c>
+      <c r="S43" s="64">
+        <v>9200</v>
+      </c>
+      <c r="T43" s="64">
+        <v>9350</v>
+      </c>
+      <c r="U43" s="64">
+        <v>9610</v>
+      </c>
+      <c r="V43" s="64">
+        <v>9660</v>
+      </c>
+      <c r="W43" s="64">
+        <v>9470</v>
+      </c>
+      <c r="X43" s="64">
+        <v>9380</v>
+      </c>
+      <c r="Y43" s="64">
+        <v>9470</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="64">
+        <v>50648</v>
+      </c>
+      <c r="D44" s="64">
+        <v>46094</v>
+      </c>
+      <c r="E44" s="64">
+        <v>41568</v>
+      </c>
+      <c r="F44" s="64">
+        <v>62408</v>
+      </c>
+      <c r="G44" s="64">
+        <v>61862</v>
+      </c>
+      <c r="H44" s="64">
+        <v>62454</v>
+      </c>
+      <c r="I44" s="64">
+        <v>61323</v>
+      </c>
+      <c r="J44" s="64">
+        <v>60970</v>
+      </c>
+      <c r="K44" s="64">
+        <v>62010</v>
+      </c>
+      <c r="L44" s="64">
+        <v>63480</v>
+      </c>
+      <c r="M44" s="64">
+        <v>63710</v>
+      </c>
+      <c r="N44" s="64">
+        <v>66310</v>
+      </c>
+      <c r="O44" s="64">
+        <v>65660</v>
+      </c>
+      <c r="P44" s="64">
+        <v>64430</v>
+      </c>
+      <c r="Q44" s="64">
+        <v>64190</v>
+      </c>
+      <c r="R44" s="64">
+        <v>64540</v>
+      </c>
+      <c r="S44" s="64">
+        <v>65250</v>
+      </c>
+      <c r="T44" s="64">
+        <v>67010</v>
+      </c>
+      <c r="U44" s="64">
+        <v>68260</v>
+      </c>
+      <c r="V44" s="64">
+        <v>67850</v>
+      </c>
+      <c r="W44" s="64">
+        <v>65050</v>
+      </c>
+      <c r="X44" s="64">
+        <v>64230</v>
+      </c>
+      <c r="Y44" s="64">
+        <v>64670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="64">
+        <v>171665</v>
+      </c>
+      <c r="D45" s="64">
+        <v>172480</v>
+      </c>
+      <c r="E45" s="64">
+        <v>212925</v>
+      </c>
+      <c r="F45" s="64">
+        <v>280894</v>
+      </c>
+      <c r="G45" s="64">
+        <v>290470</v>
+      </c>
+      <c r="H45" s="64">
+        <v>292531</v>
+      </c>
+      <c r="I45" s="64">
+        <v>301390</v>
+      </c>
+      <c r="J45" s="64">
+        <v>304360</v>
+      </c>
+      <c r="K45" s="64">
+        <v>309280</v>
+      </c>
+      <c r="L45" s="64">
+        <v>318660</v>
+      </c>
+      <c r="M45" s="64">
+        <v>327690</v>
+      </c>
+      <c r="N45" s="64">
+        <v>339950</v>
+      </c>
+      <c r="O45" s="64">
+        <v>349360</v>
+      </c>
+      <c r="P45" s="64">
+        <v>352500</v>
+      </c>
+      <c r="Q45" s="64">
+        <v>357190</v>
+      </c>
+      <c r="R45" s="64">
+        <v>363530</v>
+      </c>
+      <c r="S45" s="64">
+        <v>370780</v>
+      </c>
+      <c r="T45" s="64">
+        <v>374490</v>
+      </c>
+      <c r="U45" s="64">
+        <v>387420</v>
+      </c>
+      <c r="V45" s="64">
+        <v>390110</v>
+      </c>
+      <c r="W45" s="64">
+        <v>387360</v>
+      </c>
+      <c r="X45" s="64">
+        <v>374920</v>
+      </c>
+      <c r="Y45" s="64">
+        <v>377680</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="64">
+        <v>19886</v>
+      </c>
+      <c r="D46" s="64">
+        <v>21196</v>
+      </c>
+      <c r="E46" s="64">
+        <v>32501</v>
+      </c>
+      <c r="F46" s="64">
+        <v>31481</v>
+      </c>
+      <c r="G46" s="64">
+        <v>30888</v>
+      </c>
+      <c r="H46" s="64">
+        <v>31157</v>
+      </c>
+      <c r="I46" s="64">
+        <v>33186</v>
+      </c>
+      <c r="J46" s="64">
+        <v>33400</v>
+      </c>
+      <c r="K46" s="64">
+        <v>34070</v>
+      </c>
+      <c r="L46" s="64">
+        <v>35400</v>
+      </c>
+      <c r="M46" s="64">
+        <v>36560</v>
+      </c>
+      <c r="N46" s="64">
+        <v>37690</v>
+      </c>
+      <c r="O46" s="64">
+        <v>38350</v>
+      </c>
+      <c r="P46" s="64">
+        <v>39140</v>
+      </c>
+      <c r="Q46" s="64">
+        <v>40300</v>
+      </c>
+      <c r="R46" s="64">
+        <v>41230</v>
+      </c>
+      <c r="S46" s="64">
+        <v>41670</v>
+      </c>
+      <c r="T46" s="64">
+        <v>42770</v>
+      </c>
+      <c r="U46" s="64">
+        <v>44030</v>
+      </c>
+      <c r="V46" s="64">
+        <v>44070</v>
+      </c>
+      <c r="W46" s="64">
+        <v>43120</v>
+      </c>
+      <c r="X46" s="64">
+        <v>42500</v>
+      </c>
+      <c r="Y46" s="64">
+        <v>42650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="64">
+        <v>6424</v>
+      </c>
+      <c r="D47" s="64">
+        <v>6127</v>
+      </c>
+      <c r="E47" s="64">
+        <v>6675</v>
+      </c>
+      <c r="F47" s="64">
+        <v>7199</v>
+      </c>
+      <c r="G47" s="64">
+        <v>6932</v>
+      </c>
+      <c r="H47" s="64">
+        <v>6859</v>
+      </c>
+      <c r="I47" s="64">
+        <v>6491</v>
+      </c>
+      <c r="J47" s="64">
+        <v>6360</v>
+      </c>
+      <c r="K47" s="64">
+        <v>6240</v>
+      </c>
+      <c r="L47" s="64">
+        <v>6090</v>
+      </c>
+      <c r="M47" s="64">
+        <v>6010</v>
+      </c>
+      <c r="N47" s="64">
+        <v>5930</v>
+      </c>
+      <c r="O47" s="64">
+        <v>5880</v>
+      </c>
+      <c r="P47" s="64">
+        <v>5750</v>
+      </c>
+      <c r="Q47" s="64">
+        <v>5680</v>
+      </c>
+      <c r="R47" s="64">
+        <v>5730</v>
+      </c>
+      <c r="S47" s="64">
+        <v>5800</v>
+      </c>
+      <c r="T47" s="64">
+        <v>5660</v>
+      </c>
+      <c r="U47" s="64">
+        <v>5810</v>
+      </c>
+      <c r="V47" s="64">
+        <v>5860</v>
+      </c>
+      <c r="W47" s="64">
+        <v>5420</v>
+      </c>
+      <c r="X47" s="64">
+        <v>5490</v>
+      </c>
+      <c r="Y47" s="64">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="64">
+        <v>67126</v>
+      </c>
+      <c r="D48" s="64">
+        <v>60605</v>
+      </c>
+      <c r="E48" s="64">
+        <v>65596</v>
+      </c>
+      <c r="F48" s="64">
+        <v>81511</v>
+      </c>
+      <c r="G48" s="64">
+        <v>82895</v>
+      </c>
+      <c r="H48" s="64">
+        <v>83336</v>
+      </c>
+      <c r="I48" s="64">
+        <v>83279</v>
+      </c>
+      <c r="J48" s="64">
+        <v>83100</v>
+      </c>
+      <c r="K48" s="64">
+        <v>82680</v>
+      </c>
+      <c r="L48" s="64">
+        <v>84640</v>
+      </c>
+      <c r="M48" s="64">
+        <v>84720</v>
+      </c>
+      <c r="N48" s="64">
+        <v>87490</v>
+      </c>
+      <c r="O48" s="64">
+        <v>87860</v>
+      </c>
+      <c r="P48" s="64">
+        <v>87800</v>
+      </c>
+      <c r="Q48" s="64">
+        <v>87670</v>
+      </c>
+      <c r="R48" s="64">
+        <v>89310</v>
+      </c>
+      <c r="S48" s="64">
+        <v>89250</v>
+      </c>
+      <c r="T48" s="64">
+        <v>90680</v>
+      </c>
+      <c r="U48" s="64">
+        <v>92690</v>
+      </c>
+      <c r="V48" s="64">
+        <v>92530</v>
+      </c>
+      <c r="W48" s="64">
+        <v>90310</v>
+      </c>
+      <c r="X48" s="64">
+        <v>88120</v>
+      </c>
+      <c r="Y48" s="64">
+        <v>88820</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="64">
+        <v>50046</v>
+      </c>
+      <c r="D49" s="64">
+        <v>45941</v>
+      </c>
+      <c r="E49" s="64">
+        <v>57597</v>
+      </c>
+      <c r="F49" s="64">
+        <v>66046</v>
+      </c>
+      <c r="G49" s="64">
+        <v>66453</v>
+      </c>
+      <c r="H49" s="64">
+        <v>65205</v>
+      </c>
+      <c r="I49" s="64">
+        <v>66066</v>
+      </c>
+      <c r="J49" s="64">
+        <v>66240</v>
+      </c>
+      <c r="K49" s="64">
+        <v>68200</v>
+      </c>
+      <c r="L49" s="64">
+        <v>69770</v>
+      </c>
+      <c r="M49" s="64">
+        <v>70840</v>
+      </c>
+      <c r="N49" s="64">
+        <v>72500</v>
+      </c>
+      <c r="O49" s="64">
+        <v>73160</v>
+      </c>
+      <c r="P49" s="64">
+        <v>72220</v>
+      </c>
+      <c r="Q49" s="64">
+        <v>73530</v>
+      </c>
+      <c r="R49" s="64">
+        <v>74900</v>
+      </c>
+      <c r="S49" s="64">
+        <v>75990</v>
+      </c>
+      <c r="T49" s="64">
+        <v>78500</v>
+      </c>
+      <c r="U49" s="64">
+        <v>81790</v>
+      </c>
+      <c r="V49" s="64">
+        <v>83300</v>
+      </c>
+      <c r="W49" s="64">
+        <v>82670</v>
+      </c>
+      <c r="X49" s="64">
+        <v>81360</v>
+      </c>
+      <c r="Y49" s="64">
+        <v>82790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="64">
+        <v>23580</v>
+      </c>
+      <c r="D50" s="64">
+        <v>21854</v>
+      </c>
+      <c r="E50" s="64">
+        <v>19437</v>
+      </c>
+      <c r="F50" s="64">
+        <v>17651</v>
+      </c>
+      <c r="G50" s="64">
+        <v>17311</v>
+      </c>
+      <c r="H50" s="64">
+        <v>17603</v>
+      </c>
+      <c r="I50" s="64">
+        <v>17924</v>
+      </c>
+      <c r="J50" s="64">
+        <v>17510</v>
+      </c>
+      <c r="K50" s="64">
+        <v>17460</v>
+      </c>
+      <c r="L50" s="64">
+        <v>17640</v>
+      </c>
+      <c r="M50" s="64">
+        <v>17370</v>
+      </c>
+      <c r="N50" s="64">
+        <v>17540</v>
+      </c>
+      <c r="O50" s="64">
+        <v>17270</v>
+      </c>
+      <c r="P50" s="64">
+        <v>17230</v>
+      </c>
+      <c r="Q50" s="64">
+        <v>16790</v>
+      </c>
+      <c r="R50" s="64">
+        <v>16920</v>
+      </c>
+      <c r="S50" s="64">
+        <v>16600</v>
+      </c>
+      <c r="T50" s="64">
+        <v>16220</v>
+      </c>
+      <c r="U50" s="64">
+        <v>16600</v>
+      </c>
+      <c r="V50" s="64">
+        <v>16370</v>
+      </c>
+      <c r="W50" s="64">
+        <v>15850</v>
+      </c>
+      <c r="X50" s="64">
+        <v>15230</v>
+      </c>
+      <c r="Y50" s="64">
+        <v>15270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="64">
+        <v>67743</v>
+      </c>
+      <c r="D51" s="64">
+        <v>52038</v>
+      </c>
+      <c r="E51" s="64">
+        <v>58545</v>
+      </c>
+      <c r="F51" s="64">
+        <v>64687</v>
+      </c>
+      <c r="G51" s="64">
+        <v>64135</v>
+      </c>
+      <c r="H51" s="64">
+        <v>62705</v>
+      </c>
+      <c r="I51" s="64">
+        <v>61425</v>
+      </c>
+      <c r="J51" s="64">
+        <v>60810</v>
+      </c>
+      <c r="K51" s="64">
+        <v>60460</v>
+      </c>
+      <c r="L51" s="64">
+        <v>60710</v>
+      </c>
+      <c r="M51" s="64">
+        <v>60740</v>
+      </c>
+      <c r="N51" s="64">
+        <v>61560</v>
+      </c>
+      <c r="O51" s="64">
+        <v>61130</v>
+      </c>
+      <c r="P51" s="64">
+        <v>60040</v>
+      </c>
+      <c r="Q51" s="64">
+        <v>60420</v>
+      </c>
+      <c r="R51" s="64">
+        <v>61450</v>
+      </c>
+      <c r="S51" s="64">
+        <v>60940</v>
+      </c>
+      <c r="T51" s="64">
+        <v>61020</v>
+      </c>
+      <c r="U51" s="64">
+        <v>62250</v>
+      </c>
+      <c r="V51" s="64">
+        <v>61750</v>
+      </c>
+      <c r="W51" s="64">
+        <v>60700</v>
+      </c>
+      <c r="X51" s="64">
+        <v>58540</v>
+      </c>
+      <c r="Y51" s="64">
+        <v>58330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="64">
+        <v>6161</v>
+      </c>
+      <c r="D52" s="64">
+        <v>5823</v>
+      </c>
+      <c r="E52" s="64">
+        <v>6462</v>
+      </c>
+      <c r="F52" s="64">
+        <v>5695</v>
+      </c>
+      <c r="G52" s="64">
+        <v>5600</v>
+      </c>
+      <c r="H52" s="64">
+        <v>5553</v>
+      </c>
+      <c r="I52" s="64">
+        <v>5489</v>
+      </c>
+      <c r="J52" s="64">
+        <v>5590</v>
+      </c>
+      <c r="K52" s="64">
+        <v>5550</v>
+      </c>
+      <c r="L52" s="64">
+        <v>5700</v>
+      </c>
+      <c r="M52" s="64">
+        <v>5660</v>
+      </c>
+      <c r="N52" s="64">
+        <v>5740</v>
+      </c>
+      <c r="O52" s="64">
+        <v>5770</v>
+      </c>
+      <c r="P52" s="64">
+        <v>5770</v>
+      </c>
+      <c r="Q52" s="64">
+        <v>5950</v>
+      </c>
+      <c r="R52" s="64">
+        <v>5880</v>
+      </c>
+      <c r="S52" s="64">
+        <v>6130</v>
+      </c>
+      <c r="T52" s="64">
+        <v>6200</v>
+      </c>
+      <c r="U52" s="64">
+        <v>6290</v>
+      </c>
+      <c r="V52" s="64">
+        <v>6170</v>
+      </c>
+      <c r="W52" s="64">
+        <v>5960</v>
+      </c>
+      <c r="X52" s="64">
+        <v>5720</v>
+      </c>
+      <c r="Y52" s="64">
+        <v>5590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ch4/tabn219_20.xlsx
+++ b/ch4/tabn219_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/709290408fa44f9b/Documents/GitHub/data/ch4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{D9DE1B3A-5B0B-46AD-9146-389A614A4D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B526C7-B0FD-4424-AA6B-6D94D22FB7A3}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{D9DE1B3A-5B0B-46AD-9146-389A614A4D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EDB2D03-540F-428F-A630-5783CBD417C1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2043F598-A324-425E-B2FA-4C07D4A07404}"/>
   </bookViews>
@@ -549,7 +549,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Courier"/>
@@ -574,6 +574,11 @@
     <font>
       <sz val="10"/>
       <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier New"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -786,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -973,7 +978,8 @@
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
@@ -1365,78 +1371,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="71" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
     </row>
     <row r="3" spans="1:26" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1511,10 +1517,10 @@
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="77">
         <v>3</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="9">
         <v>4</v>
       </c>
@@ -7155,20 +7161,20 @@
       </c>
     </row>
     <row r="86" spans="1:26" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="78" t="s">
+      <c r="A86" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="79"/>
-      <c r="C86" s="79"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="80"/>
-      <c r="H86" s="80"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="80"/>
-      <c r="K86" s="80"/>
-      <c r="L86" s="80"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="81"/>
+      <c r="H86" s="81"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="81"/>
+      <c r="K86" s="81"/>
+      <c r="L86" s="81"/>
       <c r="M86" s="60"/>
       <c r="N86" s="60"/>
       <c r="O86" s="60"/>
@@ -7185,52 +7191,52 @@
       <c r="Z86" s="60"/>
     </row>
     <row r="87" spans="1:26" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="65" t="s">
+      <c r="A87" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="81"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="68"/>
+      <c r="L87" s="68"/>
     </row>
     <row r="88" spans="1:26" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="65" t="s">
+      <c r="A88" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="67"/>
-      <c r="L88" s="67"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="68"/>
+      <c r="L88" s="68"/>
     </row>
     <row r="89" spans="1:26" s="13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="65" t="s">
+      <c r="A89" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="67"/>
-      <c r="K89" s="67"/>
-      <c r="L89" s="67"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="68"/>
+      <c r="K89" s="68"/>
+      <c r="L89" s="68"/>
       <c r="M89" s="61"/>
       <c r="N89" s="61"/>
       <c r="O89" s="61"/>
@@ -7247,20 +7253,20 @@
       <c r="Z89" s="61"/>
     </row>
     <row r="90" spans="1:26" s="13" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="65" t="s">
+      <c r="A90" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="67"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="68"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="68"/>
       <c r="M90" s="62"/>
       <c r="N90" s="62"/>
       <c r="O90" s="62"/>
@@ -7277,20 +7283,20 @@
       <c r="Z90" s="62"/>
     </row>
     <row r="91" spans="1:26" s="13" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="65" t="s">
+      <c r="A91" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="67"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="67"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="68"/>
+      <c r="K91" s="68"/>
+      <c r="L91" s="68"/>
       <c r="M91" s="63"/>
       <c r="N91" s="63"/>
       <c r="O91" s="63"/>
@@ -7338,4064 +7344,4018 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D36248-ECBE-4C90-833D-9DDB9B4B2A5C}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="9.875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="64">
+      <c r="C1" s="65">
         <v>1981</v>
       </c>
-      <c r="D1" s="64">
+      <c r="D1" s="65">
         <v>1990</v>
       </c>
-      <c r="E1" s="64">
+      <c r="E1" s="65">
         <v>2000</v>
       </c>
-      <c r="F1" s="64">
+      <c r="F1" s="65">
         <v>2010</v>
       </c>
-      <c r="G1" s="64">
+      <c r="G1" s="65">
         <v>2011</v>
       </c>
-      <c r="H1" s="64">
+      <c r="H1" s="65">
         <v>2012</v>
       </c>
-      <c r="I1" s="64">
+      <c r="I1" s="65">
         <v>2013</v>
       </c>
-      <c r="J1" s="64">
+      <c r="J1" s="65">
         <v>2014</v>
       </c>
-      <c r="K1" s="64">
+      <c r="K1" s="65">
         <v>2015</v>
       </c>
-      <c r="L1" s="64">
+      <c r="L1" s="65">
         <v>2016</v>
       </c>
-      <c r="M1" s="64">
+      <c r="M1" s="65">
         <v>2017</v>
       </c>
-      <c r="N1" s="64">
+      <c r="N1" s="65">
         <v>2018</v>
       </c>
-      <c r="O1" s="64">
+      <c r="O1" s="65">
         <v>2019</v>
       </c>
-      <c r="P1" s="64">
+      <c r="P1" s="65">
         <v>2020</v>
       </c>
-      <c r="Q1" s="64">
+      <c r="Q1" s="65">
         <v>2021</v>
       </c>
-      <c r="R1" s="64">
+      <c r="R1" s="65">
         <v>2022</v>
       </c>
-      <c r="S1" s="64">
+      <c r="S1" s="65">
         <v>2023</v>
       </c>
-      <c r="T1" s="64">
+      <c r="T1" s="65">
         <v>2024</v>
       </c>
-      <c r="U1" s="64">
+      <c r="U1" s="65">
         <v>2025</v>
       </c>
-      <c r="V1" s="64">
+      <c r="V1" s="65">
         <v>2026</v>
       </c>
-      <c r="W1" s="64">
+      <c r="W1" s="65">
         <v>2027</v>
       </c>
-      <c r="X1" s="64">
+      <c r="X1" s="65">
         <v>2028</v>
       </c>
-      <c r="Y1" s="64">
+      <c r="Y1" s="65">
         <v>2029</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="65">
         <v>44894</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="65">
         <v>40485</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="65">
         <v>37819</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="65">
         <v>43166</v>
       </c>
-      <c r="G2" s="64">
+      <c r="G2" s="65">
         <v>46035</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="65">
         <v>45394</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="65">
         <v>44233</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="65">
         <v>44540</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="65">
         <v>45420</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="65">
         <v>46070</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="65">
         <v>47560</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="65">
         <v>48260</v>
       </c>
-      <c r="O2" s="64">
+      <c r="O2" s="65">
         <v>45740</v>
       </c>
-      <c r="P2" s="64">
+      <c r="P2" s="65">
         <v>44070</v>
       </c>
-      <c r="Q2" s="64">
+      <c r="Q2" s="65">
         <v>43490</v>
       </c>
-      <c r="R2" s="64">
+      <c r="R2" s="65">
         <v>43380</v>
       </c>
-      <c r="S2" s="64">
+      <c r="S2" s="65">
         <v>43600</v>
       </c>
-      <c r="T2" s="64">
+      <c r="T2" s="65">
         <v>43870</v>
       </c>
-      <c r="U2" s="64">
+      <c r="U2" s="65">
         <v>45410</v>
       </c>
-      <c r="V2" s="64">
+      <c r="V2" s="65">
         <v>45810</v>
       </c>
-      <c r="W2" s="64">
+      <c r="W2" s="65">
         <v>44770</v>
       </c>
-      <c r="X2" s="64">
+      <c r="X2" s="65">
         <v>42960</v>
       </c>
-      <c r="Y2" s="64">
+      <c r="Y2" s="65">
         <v>43610</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <f>A2+1</f>
+    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="64">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="65">
         <v>5343</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="65">
         <v>5386</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="65">
         <v>6615</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="65">
         <v>8245</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="65">
         <v>8064</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="65">
         <v>7989</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="65">
         <v>7860</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="65">
         <v>7720</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="65">
         <v>7860</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="65">
         <v>7840</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="65">
         <v>7910</v>
       </c>
-      <c r="N3" s="64">
+      <c r="N3" s="65">
         <v>8050</v>
       </c>
-      <c r="O3" s="64">
+      <c r="O3" s="65">
         <v>8030</v>
       </c>
-      <c r="P3" s="64">
+      <c r="P3" s="65">
         <v>7840</v>
       </c>
-      <c r="Q3" s="64">
+      <c r="Q3" s="65">
         <v>7830</v>
       </c>
-      <c r="R3" s="64">
+      <c r="R3" s="65">
         <v>7930</v>
       </c>
-      <c r="S3" s="64">
+      <c r="S3" s="65">
         <v>8030</v>
       </c>
-      <c r="T3" s="64">
+      <c r="T3" s="65">
         <v>8320</v>
       </c>
-      <c r="U3" s="64">
+      <c r="U3" s="65">
         <v>8580</v>
       </c>
-      <c r="V3" s="64">
+      <c r="V3" s="65">
         <v>8740</v>
       </c>
-      <c r="W3" s="64">
+      <c r="W3" s="65">
         <v>8780</v>
       </c>
-      <c r="X3" s="64">
+      <c r="X3" s="65">
         <v>8660</v>
       </c>
-      <c r="Y3" s="64">
+      <c r="Y3" s="65">
         <v>8690</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <f t="shared" ref="A4:A52" si="0">A3+1</f>
+    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="64">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="65">
         <v>28416</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="65">
         <v>32103</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="65">
         <v>38304</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="65">
         <v>61145</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="65">
         <v>64472</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="65">
         <v>63208</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="65">
         <v>62208</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="65">
         <v>66700</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="65">
         <v>67200</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="65">
         <v>67120</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="65">
         <v>68770</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="65">
         <v>69560</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="65">
         <v>70710</v>
       </c>
-      <c r="P4" s="64">
+      <c r="P4" s="65">
         <v>69610</v>
       </c>
-      <c r="Q4" s="64">
+      <c r="Q4" s="65">
         <v>71070</v>
       </c>
-      <c r="R4" s="64">
+      <c r="R4" s="65">
         <v>70940</v>
       </c>
-      <c r="S4" s="64">
+      <c r="S4" s="65">
         <v>72200</v>
       </c>
-      <c r="T4" s="64">
+      <c r="T4" s="65">
         <v>74230</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="65">
         <v>76480</v>
       </c>
-      <c r="V4" s="64">
+      <c r="V4" s="65">
         <v>77540</v>
       </c>
-      <c r="W4" s="64">
+      <c r="W4" s="65">
         <v>75780</v>
       </c>
-      <c r="X4" s="64">
+      <c r="X4" s="65">
         <v>72450</v>
       </c>
-      <c r="Y4" s="64">
+      <c r="Y4" s="65">
         <v>72560</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <f t="shared" si="0"/>
+    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="64">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="65">
         <v>29577</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="65">
         <v>26475</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="65">
         <v>27335</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="65">
         <v>28276</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="65">
         <v>28205</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="65">
         <v>28419</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="65">
         <v>28928</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="65">
         <v>29610</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="65">
         <v>30350</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="65">
         <v>30290</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="65">
         <v>30750</v>
       </c>
-      <c r="N5" s="64">
+      <c r="N5" s="65">
         <v>31020</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="65">
         <v>31060</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="65">
         <v>31320</v>
       </c>
-      <c r="Q5" s="64">
+      <c r="Q5" s="65">
         <v>30800</v>
       </c>
-      <c r="R5" s="64">
+      <c r="R5" s="65">
         <v>30960</v>
       </c>
-      <c r="S5" s="64">
+      <c r="S5" s="65">
         <v>30940</v>
       </c>
-      <c r="T5" s="64">
+      <c r="T5" s="65">
         <v>30780</v>
       </c>
-      <c r="U5" s="64">
+      <c r="U5" s="65">
         <v>32990</v>
       </c>
-      <c r="V5" s="64">
+      <c r="V5" s="65">
         <v>33030</v>
       </c>
-      <c r="W5" s="64">
+      <c r="W5" s="65">
         <v>32140</v>
       </c>
-      <c r="X5" s="64">
+      <c r="X5" s="65">
         <v>31350</v>
       </c>
-      <c r="Y5" s="64">
+      <c r="Y5" s="65">
         <v>31460</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <f t="shared" si="0"/>
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="64">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="65">
         <v>242172</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="65">
         <v>236291</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="65">
         <v>309866</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="65">
         <v>404987</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="65">
         <v>410467</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="65">
         <v>418664</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="65">
         <v>422125</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="65">
         <v>424080</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="65">
         <v>422830</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="65">
         <v>419190</v>
       </c>
-      <c r="M6" s="64">
+      <c r="M6" s="65">
         <v>411710</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="65">
         <v>420500</v>
       </c>
-      <c r="O6" s="64">
+      <c r="O6" s="65">
         <v>420780</v>
       </c>
-      <c r="P6" s="64">
+      <c r="P6" s="65">
         <v>421890</v>
       </c>
-      <c r="Q6" s="64">
+      <c r="Q6" s="65">
         <v>427540</v>
       </c>
-      <c r="R6" s="64">
+      <c r="R6" s="65">
         <v>430350</v>
       </c>
-      <c r="S6" s="64">
+      <c r="S6" s="65">
         <v>434120</v>
       </c>
-      <c r="T6" s="64">
+      <c r="T6" s="65">
         <v>444030</v>
       </c>
-      <c r="U6" s="64">
+      <c r="U6" s="65">
         <v>429550</v>
       </c>
-      <c r="V6" s="64">
+      <c r="V6" s="65">
         <v>425400</v>
       </c>
-      <c r="W6" s="64">
+      <c r="W6" s="65">
         <v>408150</v>
       </c>
-      <c r="X6" s="64">
+      <c r="X6" s="65">
         <v>418160</v>
       </c>
-      <c r="Y6" s="64">
+      <c r="Y6" s="65">
         <v>416950</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <f t="shared" si="0"/>
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="64">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="65">
         <v>35897</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="65">
         <v>32967</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="65">
         <v>38924</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="65">
         <v>49321</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="65">
         <v>50122</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="65">
         <v>50087</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="65">
         <v>50968</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="65">
         <v>51310</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="65">
         <v>51450</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="65">
         <v>53310</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="65">
         <v>54060</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="65">
         <v>56050</v>
       </c>
-      <c r="O7" s="64">
+      <c r="O7" s="65">
         <v>57030</v>
       </c>
-      <c r="P7" s="64">
+      <c r="P7" s="65">
         <v>57760</v>
       </c>
-      <c r="Q7" s="64">
+      <c r="Q7" s="65">
         <v>59150</v>
       </c>
-      <c r="R7" s="64">
+      <c r="R7" s="65">
         <v>59290</v>
       </c>
-      <c r="S7" s="64">
+      <c r="S7" s="65">
         <v>59790</v>
       </c>
-      <c r="T7" s="64">
+      <c r="T7" s="65">
         <v>61090</v>
       </c>
-      <c r="U7" s="64">
+      <c r="U7" s="65">
         <v>61990</v>
       </c>
-      <c r="V7" s="64">
+      <c r="V7" s="65">
         <v>62170</v>
       </c>
-      <c r="W7" s="64">
+      <c r="W7" s="65">
         <v>60930</v>
       </c>
-      <c r="X7" s="64">
+      <c r="X7" s="65">
         <v>59170</v>
       </c>
-      <c r="Y7" s="64">
+      <c r="Y7" s="65">
         <v>59040</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <f t="shared" si="0"/>
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="64">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="65">
         <v>38369</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="65">
         <v>27878</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="65">
         <v>31562</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="65">
         <v>34495</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="65">
         <v>38854</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="65">
         <v>38681</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="65">
         <v>38722</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="65">
         <v>37860</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="65">
         <v>37160</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="65">
         <v>37420</v>
       </c>
-      <c r="M8" s="64">
+      <c r="M8" s="65">
         <v>37890</v>
       </c>
-      <c r="N8" s="64">
+      <c r="N8" s="65">
         <v>37130</v>
       </c>
-      <c r="O8" s="64">
+      <c r="O8" s="65">
         <v>37040</v>
       </c>
-      <c r="P8" s="64">
+      <c r="P8" s="65">
         <v>35980</v>
       </c>
-      <c r="Q8" s="64">
+      <c r="Q8" s="65">
         <v>36640</v>
       </c>
-      <c r="R8" s="64">
+      <c r="R8" s="65">
         <v>35810</v>
       </c>
-      <c r="S8" s="64">
+      <c r="S8" s="65">
         <v>35670</v>
       </c>
-      <c r="T8" s="64">
+      <c r="T8" s="65">
         <v>35220</v>
       </c>
-      <c r="U8" s="64">
+      <c r="U8" s="65">
         <v>35550</v>
       </c>
-      <c r="V8" s="64">
+      <c r="V8" s="65">
         <v>34450</v>
       </c>
-      <c r="W8" s="64">
+      <c r="W8" s="65">
         <v>33720</v>
       </c>
-      <c r="X8" s="64">
+      <c r="X8" s="65">
         <v>32860</v>
       </c>
-      <c r="Y8" s="64">
+      <c r="Y8" s="65">
         <v>32610</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <f t="shared" si="0"/>
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="64">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="65">
         <v>7349</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="65">
         <v>5550</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="65">
         <v>6108</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="65">
         <v>8133</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="65">
         <v>8043</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="65">
         <v>8247</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="65">
         <v>8070</v>
       </c>
-      <c r="J9" s="64">
+      <c r="J9" s="65">
         <v>8240</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="65">
         <v>8390</v>
       </c>
-      <c r="L9" s="64">
+      <c r="L9" s="65">
         <v>8480</v>
       </c>
-      <c r="M9" s="64">
+      <c r="M9" s="65">
         <v>8690</v>
       </c>
-      <c r="N9" s="64">
+      <c r="N9" s="65">
         <v>8930</v>
       </c>
-      <c r="O9" s="64">
+      <c r="O9" s="65">
         <v>9010</v>
       </c>
-      <c r="P9" s="64">
+      <c r="P9" s="65">
         <v>9080</v>
       </c>
-      <c r="Q9" s="64">
+      <c r="Q9" s="65">
         <v>9260</v>
       </c>
-      <c r="R9" s="64">
+      <c r="R9" s="65">
         <v>9280</v>
       </c>
-      <c r="S9" s="64">
+      <c r="S9" s="65">
         <v>9500</v>
       </c>
-      <c r="T9" s="64">
+      <c r="T9" s="65">
         <v>9880</v>
       </c>
-      <c r="U9" s="64">
+      <c r="U9" s="65">
         <v>9920</v>
       </c>
-      <c r="V9" s="64">
+      <c r="V9" s="65">
         <v>10240</v>
       </c>
-      <c r="W9" s="64">
+      <c r="W9" s="65">
         <v>10060</v>
       </c>
-      <c r="X9" s="64">
+      <c r="X9" s="65">
         <v>9740</v>
       </c>
-      <c r="Y9" s="64">
+      <c r="Y9" s="65">
         <v>9800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <f t="shared" si="0"/>
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="64">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="65">
         <v>4848</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="65">
         <v>3626</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="65">
         <v>2695</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="65">
         <v>3602</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="65">
         <v>3477</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="65">
         <v>3860</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="65">
         <v>3961</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="65">
         <v>3880</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="65">
         <v>3990</v>
       </c>
-      <c r="L10" s="64">
+      <c r="L10" s="65">
         <v>4510</v>
       </c>
-      <c r="M10" s="64">
+      <c r="M10" s="65">
         <v>4430</v>
       </c>
-      <c r="N10" s="64">
+      <c r="N10" s="65">
         <v>4200</v>
       </c>
-      <c r="O10" s="64">
+      <c r="O10" s="65">
         <v>4290</v>
       </c>
-      <c r="P10" s="64">
+      <c r="P10" s="65">
         <v>4270</v>
       </c>
-      <c r="Q10" s="64">
+      <c r="Q10" s="65">
         <v>4320</v>
       </c>
-      <c r="R10" s="64">
+      <c r="R10" s="65">
         <v>4310</v>
       </c>
-      <c r="S10" s="64">
+      <c r="S10" s="65">
         <v>4630</v>
       </c>
-      <c r="T10" s="64">
+      <c r="T10" s="65">
         <v>4970</v>
       </c>
-      <c r="U10" s="64">
+      <c r="U10" s="65">
         <v>5520</v>
       </c>
-      <c r="V10" s="64">
+      <c r="V10" s="65">
         <v>5550</v>
       </c>
-      <c r="W10" s="64">
+      <c r="W10" s="65">
         <v>5550</v>
       </c>
-      <c r="X10" s="64">
+      <c r="X10" s="65">
         <v>5640</v>
       </c>
-      <c r="Y10" s="64">
+      <c r="Y10" s="65">
         <v>6020</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <f t="shared" si="0"/>
+    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="64">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="65">
         <v>88755</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="65">
         <v>88934</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="65">
         <v>106708</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="65">
         <v>156130</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="65">
         <v>155493</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="65">
         <v>151964</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="65">
         <v>158029</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="65">
         <v>158440</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="65">
         <v>163740</v>
       </c>
-      <c r="L11" s="64">
+      <c r="L11" s="65">
         <v>166540</v>
       </c>
-      <c r="M11" s="64">
+      <c r="M11" s="65">
         <v>170820</v>
       </c>
-      <c r="N11" s="64">
+      <c r="N11" s="65">
         <v>176160</v>
       </c>
-      <c r="O11" s="64">
+      <c r="O11" s="65">
         <v>179520</v>
       </c>
-      <c r="P11" s="64">
+      <c r="P11" s="65">
         <v>175370</v>
       </c>
-      <c r="Q11" s="64">
+      <c r="Q11" s="65">
         <v>176380</v>
       </c>
-      <c r="R11" s="64">
+      <c r="R11" s="65">
         <v>179930</v>
       </c>
-      <c r="S11" s="64">
+      <c r="S11" s="65">
         <v>182780</v>
       </c>
-      <c r="T11" s="64">
+      <c r="T11" s="65">
         <v>192590</v>
       </c>
-      <c r="U11" s="64">
+      <c r="U11" s="65">
         <v>190040</v>
       </c>
-      <c r="V11" s="64">
+      <c r="V11" s="65">
         <v>197900</v>
       </c>
-      <c r="W11" s="64">
+      <c r="W11" s="65">
         <v>192690</v>
       </c>
-      <c r="X11" s="64">
+      <c r="X11" s="65">
         <v>187880</v>
       </c>
-      <c r="Y11" s="64">
+      <c r="Y11" s="65">
         <v>190410</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <f t="shared" si="0"/>
+    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="64">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="65">
         <v>62963</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="65">
         <v>56605</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="65">
         <v>62563</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="65">
         <v>91561</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="65">
         <v>92338</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="65">
         <v>90582</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="65">
         <v>92416</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="65">
         <v>94380</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="65">
         <v>97420</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="65">
         <v>100070</v>
       </c>
-      <c r="M12" s="64">
+      <c r="M12" s="65">
         <v>102050</v>
       </c>
-      <c r="N12" s="64">
+      <c r="N12" s="65">
         <v>105890</v>
       </c>
-      <c r="O12" s="64">
+      <c r="O12" s="65">
         <v>106920</v>
       </c>
-      <c r="P12" s="64">
+      <c r="P12" s="65">
         <v>105660</v>
       </c>
-      <c r="Q12" s="64">
+      <c r="Q12" s="65">
         <v>104900</v>
       </c>
-      <c r="R12" s="64">
+      <c r="R12" s="65">
         <v>106500</v>
       </c>
-      <c r="S12" s="64">
+      <c r="S12" s="65">
         <v>107710</v>
       </c>
-      <c r="T12" s="64">
+      <c r="T12" s="65">
         <v>110270</v>
       </c>
-      <c r="U12" s="64">
+      <c r="U12" s="65">
         <v>112930</v>
       </c>
-      <c r="V12" s="64">
+      <c r="V12" s="65">
         <v>113710</v>
       </c>
-      <c r="W12" s="64">
+      <c r="W12" s="65">
         <v>111370</v>
       </c>
-      <c r="X12" s="64">
+      <c r="X12" s="65">
         <v>107750</v>
       </c>
-      <c r="Y12" s="64">
+      <c r="Y12" s="65">
         <v>108130</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <f t="shared" si="0"/>
+    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="64">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="65">
         <v>11472</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="65">
         <v>10325</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="65">
         <v>10437</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="65">
         <v>10998</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="65">
         <v>10716</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="65">
         <v>11360</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="65">
         <v>10790</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="65">
         <v>11050</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="65">
         <v>10760</v>
       </c>
-      <c r="L13" s="64">
+      <c r="L13" s="65">
         <v>10860</v>
       </c>
-      <c r="M13" s="64">
+      <c r="M13" s="65">
         <v>10690</v>
       </c>
-      <c r="N13" s="64">
+      <c r="N13" s="65">
         <v>11130</v>
       </c>
-      <c r="O13" s="64">
+      <c r="O13" s="65">
         <v>10540</v>
       </c>
-      <c r="P13" s="64">
+      <c r="P13" s="65">
         <v>10820</v>
       </c>
-      <c r="Q13" s="64">
+      <c r="Q13" s="65">
         <v>10830</v>
       </c>
-      <c r="R13" s="64">
+      <c r="R13" s="65">
         <v>11010</v>
       </c>
-      <c r="S13" s="64">
+      <c r="S13" s="65">
         <v>11210</v>
       </c>
-      <c r="T13" s="64">
+      <c r="T13" s="65">
         <v>11290</v>
       </c>
-      <c r="U13" s="64">
+      <c r="U13" s="65">
         <v>11510</v>
       </c>
-      <c r="V13" s="64">
+      <c r="V13" s="65">
         <v>11580</v>
       </c>
-      <c r="W13" s="64">
+      <c r="W13" s="65">
         <v>8780</v>
       </c>
-      <c r="X13" s="64">
+      <c r="X13" s="65">
         <v>10890</v>
       </c>
-      <c r="Y13" s="64">
+      <c r="Y13" s="65">
         <v>10670</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <f t="shared" si="0"/>
+    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="64">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="65">
         <v>12679</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="65">
         <v>11971</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="65">
         <v>16170</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="65">
         <v>17793</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="65">
         <v>17525</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="65">
         <v>17568</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="65">
         <v>17198</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="65">
         <v>19120</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="65">
         <v>18050</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="65">
         <v>18230</v>
       </c>
-      <c r="M14" s="64">
+      <c r="M14" s="65">
         <v>19130</v>
       </c>
-      <c r="N14" s="64">
+      <c r="N14" s="65">
         <v>19280</v>
       </c>
-      <c r="O14" s="64">
+      <c r="O14" s="65">
         <v>19720</v>
       </c>
-      <c r="P14" s="64">
+      <c r="P14" s="65">
         <v>19440</v>
       </c>
-      <c r="Q14" s="64">
+      <c r="Q14" s="65">
         <v>19830</v>
       </c>
-      <c r="R14" s="64">
+      <c r="R14" s="65">
         <v>20340</v>
       </c>
-      <c r="S14" s="64">
+      <c r="S14" s="65">
         <v>21040</v>
       </c>
-      <c r="T14" s="64">
+      <c r="T14" s="65">
         <v>21090</v>
       </c>
-      <c r="U14" s="64">
+      <c r="U14" s="65">
         <v>21850</v>
       </c>
-      <c r="V14" s="64">
+      <c r="V14" s="65">
         <v>21960</v>
       </c>
-      <c r="W14" s="64">
+      <c r="W14" s="65">
         <v>21400</v>
       </c>
-      <c r="X14" s="64">
+      <c r="X14" s="65">
         <v>21010</v>
       </c>
-      <c r="Y14" s="64">
+      <c r="Y14" s="65">
         <v>21320</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <f t="shared" si="0"/>
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="64">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="65">
         <v>136795</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="65">
         <v>108119</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="65">
         <v>111835</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="65">
         <v>139035</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="65">
         <v>134956</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="65">
         <v>139575</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="65">
         <v>139228</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="65">
         <v>137640</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="65">
         <v>140520</v>
       </c>
-      <c r="L15" s="64">
+      <c r="L15" s="65">
         <v>140850</v>
       </c>
-      <c r="M15" s="64">
+      <c r="M15" s="65">
         <v>141250</v>
       </c>
-      <c r="N15" s="64">
+      <c r="N15" s="65">
         <v>143510</v>
       </c>
-      <c r="O15" s="64">
+      <c r="O15" s="65">
         <v>142800</v>
       </c>
-      <c r="P15" s="64">
+      <c r="P15" s="65">
         <v>139490</v>
       </c>
-      <c r="Q15" s="64">
+      <c r="Q15" s="65">
         <v>144730</v>
       </c>
-      <c r="R15" s="64">
+      <c r="R15" s="65">
         <v>146850</v>
       </c>
-      <c r="S15" s="64">
+      <c r="S15" s="65">
         <v>144610</v>
       </c>
-      <c r="T15" s="64">
+      <c r="T15" s="65">
         <v>147870</v>
       </c>
-      <c r="U15" s="64">
+      <c r="U15" s="65">
         <v>152340</v>
       </c>
-      <c r="V15" s="64">
+      <c r="V15" s="65">
         <v>149530</v>
       </c>
-      <c r="W15" s="64">
+      <c r="W15" s="65">
         <v>146040</v>
       </c>
-      <c r="X15" s="64">
+      <c r="X15" s="65">
         <v>138960</v>
       </c>
-      <c r="Y15" s="64">
+      <c r="Y15" s="65">
         <v>138790</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <f t="shared" si="0"/>
+    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="64">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="65">
         <v>73381</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="65">
         <v>60012</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="65">
         <v>57012</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="65">
         <v>64551</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="65">
         <v>66133</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="65">
         <v>65667</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="65">
         <v>66595</v>
       </c>
-      <c r="J16" s="64">
+      <c r="J16" s="65">
         <v>67560</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="65">
         <v>66750</v>
       </c>
-      <c r="L16" s="64">
+      <c r="L16" s="65">
         <v>66720</v>
       </c>
-      <c r="M16" s="64">
+      <c r="M16" s="65">
         <v>68970</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="65">
         <v>69640</v>
       </c>
-      <c r="O16" s="64">
+      <c r="O16" s="65">
         <v>71980</v>
       </c>
-      <c r="P16" s="64">
+      <c r="P16" s="65">
         <v>69520</v>
       </c>
-      <c r="Q16" s="64">
+      <c r="Q16" s="65">
         <v>68320</v>
       </c>
-      <c r="R16" s="64">
+      <c r="R16" s="65">
         <v>69820</v>
       </c>
-      <c r="S16" s="64">
+      <c r="S16" s="65">
         <v>68920</v>
       </c>
-      <c r="T16" s="64">
+      <c r="T16" s="65">
         <v>70120</v>
       </c>
-      <c r="U16" s="64">
+      <c r="U16" s="65">
         <v>70340</v>
       </c>
-      <c r="V16" s="64">
+      <c r="V16" s="65">
         <v>71660</v>
       </c>
-      <c r="W16" s="64">
+      <c r="W16" s="65">
         <v>69740</v>
       </c>
-      <c r="X16" s="64">
+      <c r="X16" s="65">
         <v>68530</v>
       </c>
-      <c r="Y16" s="64">
+      <c r="Y16" s="65">
         <v>68580</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <f t="shared" si="0"/>
+    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="64">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="65">
         <v>42635</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="65">
         <v>31796</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="65">
         <v>33926</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="65">
         <v>34462</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="65">
         <v>33853</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="65">
         <v>33230</v>
       </c>
-      <c r="I17" s="64">
+      <c r="I17" s="65">
         <v>32548</v>
       </c>
-      <c r="J17" s="64">
+      <c r="J17" s="65">
         <v>32590</v>
       </c>
-      <c r="K17" s="64">
+      <c r="K17" s="65">
         <v>32450</v>
       </c>
-      <c r="L17" s="64">
+      <c r="L17" s="65">
         <v>32700</v>
       </c>
-      <c r="M17" s="64">
+      <c r="M17" s="65">
         <v>32850</v>
       </c>
-      <c r="N17" s="64">
+      <c r="N17" s="65">
         <v>33390</v>
       </c>
-      <c r="O17" s="64">
+      <c r="O17" s="65">
         <v>33310</v>
       </c>
-      <c r="P17" s="64">
+      <c r="P17" s="65">
         <v>33390</v>
       </c>
-      <c r="Q17" s="64">
+      <c r="Q17" s="65">
         <v>33890</v>
       </c>
-      <c r="R17" s="64">
+      <c r="R17" s="65">
         <v>33930</v>
       </c>
-      <c r="S17" s="64">
+      <c r="S17" s="65">
         <v>34700</v>
       </c>
-      <c r="T17" s="64">
+      <c r="T17" s="65">
         <v>35460</v>
       </c>
-      <c r="U17" s="64">
+      <c r="U17" s="65">
         <v>36120</v>
       </c>
-      <c r="V17" s="64">
+      <c r="V17" s="65">
         <v>36390</v>
       </c>
-      <c r="W17" s="64">
+      <c r="W17" s="65">
         <v>35350</v>
       </c>
-      <c r="X17" s="64">
+      <c r="X17" s="65">
         <v>35090</v>
       </c>
-      <c r="Y17" s="64">
+      <c r="Y17" s="65">
         <v>35110</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <f t="shared" si="0"/>
+    <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="64">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="65">
         <v>29397</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="65">
         <v>25367</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="65">
         <v>29102</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="65">
         <v>31642</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="65">
         <v>31370</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="65">
         <v>31898</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="65">
         <v>31922</v>
       </c>
-      <c r="J18" s="64">
+      <c r="J18" s="65">
         <v>32150</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="65">
         <v>31900</v>
       </c>
-      <c r="L18" s="64">
+      <c r="L18" s="65">
         <v>32790</v>
       </c>
-      <c r="M18" s="64">
+      <c r="M18" s="65">
         <v>32900</v>
       </c>
-      <c r="N18" s="64">
+      <c r="N18" s="65">
         <v>33470</v>
       </c>
-      <c r="O18" s="64">
+      <c r="O18" s="65">
         <v>33410</v>
       </c>
-      <c r="P18" s="64">
+      <c r="P18" s="65">
         <v>33330</v>
       </c>
-      <c r="Q18" s="64">
+      <c r="Q18" s="65">
         <v>33490</v>
       </c>
-      <c r="R18" s="64">
+      <c r="R18" s="65">
         <v>33680</v>
       </c>
-      <c r="S18" s="64">
+      <c r="S18" s="65">
         <v>33660</v>
       </c>
-      <c r="T18" s="64">
+      <c r="T18" s="65">
         <v>34200</v>
       </c>
-      <c r="U18" s="64">
+      <c r="U18" s="65">
         <v>34870</v>
       </c>
-      <c r="V18" s="64">
+      <c r="V18" s="65">
         <v>34670</v>
       </c>
-      <c r="W18" s="64">
+      <c r="W18" s="65">
         <v>33910</v>
       </c>
-      <c r="X18" s="64">
+      <c r="X18" s="65">
         <v>33560</v>
       </c>
-      <c r="Y18" s="64">
+      <c r="Y18" s="65">
         <v>33500</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <f t="shared" si="0"/>
+    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="64">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="65">
         <v>41714</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="65">
         <v>38005</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="65">
         <v>36830</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="65">
         <v>42664</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="65">
         <v>43031</v>
       </c>
-      <c r="H19" s="64">
+      <c r="H19" s="65">
         <v>42642</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="65">
         <v>42888</v>
       </c>
-      <c r="J19" s="64">
+      <c r="J19" s="65">
         <v>42400</v>
       </c>
-      <c r="K19" s="64">
+      <c r="K19" s="65">
         <v>42530</v>
       </c>
-      <c r="L19" s="64">
+      <c r="L19" s="65">
         <v>43280</v>
       </c>
-      <c r="M19" s="64">
+      <c r="M19" s="65">
         <v>43280</v>
       </c>
-      <c r="N19" s="64">
+      <c r="N19" s="65">
         <v>44330</v>
       </c>
-      <c r="O19" s="64">
+      <c r="O19" s="65">
         <v>44420</v>
       </c>
-      <c r="P19" s="64">
+      <c r="P19" s="65">
         <v>43760</v>
       </c>
-      <c r="Q19" s="64">
+      <c r="Q19" s="65">
         <v>43830</v>
       </c>
-      <c r="R19" s="64">
+      <c r="R19" s="65">
         <v>43840</v>
       </c>
-      <c r="S19" s="64">
+      <c r="S19" s="65">
         <v>43930</v>
       </c>
-      <c r="T19" s="64">
+      <c r="T19" s="65">
         <v>44930</v>
       </c>
-      <c r="U19" s="64">
+      <c r="U19" s="65">
         <v>45890</v>
       </c>
-      <c r="V19" s="64">
+      <c r="V19" s="65">
         <v>45440</v>
       </c>
-      <c r="W19" s="64">
+      <c r="W19" s="65">
         <v>44540</v>
       </c>
-      <c r="X19" s="64">
+      <c r="X19" s="65">
         <v>42610</v>
       </c>
-      <c r="Y19" s="64">
+      <c r="Y19" s="65">
         <v>42660</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <f t="shared" si="0"/>
+    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="64">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="65">
         <v>46199</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="65">
         <v>36053</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="65">
         <v>38430</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="65">
         <v>36573</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="65">
         <v>35844</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="65">
         <v>36675</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="65">
         <v>37508</v>
       </c>
-      <c r="J20" s="64">
+      <c r="J20" s="65">
         <v>38180</v>
       </c>
-      <c r="K20" s="64">
+      <c r="K20" s="65">
         <v>37720</v>
       </c>
-      <c r="L20" s="64">
+      <c r="L20" s="65">
         <v>38790</v>
       </c>
-      <c r="M20" s="64">
+      <c r="M20" s="65">
         <v>39380</v>
       </c>
-      <c r="N20" s="64">
+      <c r="N20" s="65">
         <v>41970</v>
       </c>
-      <c r="O20" s="64">
+      <c r="O20" s="65">
         <v>41720</v>
       </c>
-      <c r="P20" s="64">
+      <c r="P20" s="65">
         <v>40430</v>
       </c>
-      <c r="Q20" s="64">
+      <c r="Q20" s="65">
         <v>39810</v>
       </c>
-      <c r="R20" s="64">
+      <c r="R20" s="65">
         <v>40380</v>
       </c>
-      <c r="S20" s="64">
+      <c r="S20" s="65">
         <v>40360</v>
       </c>
-      <c r="T20" s="64">
+      <c r="T20" s="65">
         <v>41590</v>
       </c>
-      <c r="U20" s="64">
+      <c r="U20" s="65">
         <v>42410</v>
       </c>
-      <c r="V20" s="64">
+      <c r="V20" s="65">
         <v>42570</v>
       </c>
-      <c r="W20" s="64">
+      <c r="W20" s="65">
         <v>41560</v>
       </c>
-      <c r="X20" s="64">
+      <c r="X20" s="65">
         <v>39600</v>
       </c>
-      <c r="Y20" s="64">
+      <c r="Y20" s="65">
         <v>40130</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <f t="shared" si="0"/>
+    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="64">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="65">
         <v>15554</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="65">
         <v>13839</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="65">
         <v>12211</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="65">
         <v>14069</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="65">
         <v>13653</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="65">
         <v>13473</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="65">
         <v>13170</v>
       </c>
-      <c r="J21" s="64">
+      <c r="J21" s="65">
         <v>12730</v>
       </c>
-      <c r="K21" s="64">
+      <c r="K21" s="65">
         <v>12560</v>
       </c>
-      <c r="L21" s="64">
+      <c r="L21" s="65">
         <v>12790</v>
       </c>
-      <c r="M21" s="64">
+      <c r="M21" s="65">
         <v>12640</v>
       </c>
-      <c r="N21" s="64">
+      <c r="N21" s="65">
         <v>12470</v>
       </c>
-      <c r="O21" s="64">
+      <c r="O21" s="65">
         <v>12430</v>
       </c>
-      <c r="P21" s="64">
+      <c r="P21" s="65">
         <v>12100</v>
       </c>
-      <c r="Q21" s="64">
+      <c r="Q21" s="65">
         <v>12050</v>
       </c>
-      <c r="R21" s="64">
+      <c r="R21" s="65">
         <v>12250</v>
       </c>
-      <c r="S21" s="64">
+      <c r="S21" s="65">
         <v>12300</v>
       </c>
-      <c r="T21" s="64">
+      <c r="T21" s="65">
         <v>12160</v>
       </c>
-      <c r="U21" s="64">
+      <c r="U21" s="65">
         <v>12340</v>
       </c>
-      <c r="V21" s="64">
+      <c r="V21" s="65">
         <v>12080</v>
       </c>
-      <c r="W21" s="64">
+      <c r="W21" s="65">
         <v>11960</v>
       </c>
-      <c r="X21" s="64">
+      <c r="X21" s="65">
         <v>11600</v>
       </c>
-      <c r="Y21" s="64">
+      <c r="Y21" s="65">
         <v>11580</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <f t="shared" si="0"/>
+    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="64">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="65">
         <v>54050</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="65">
         <v>41566</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="65">
         <v>47849</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="65">
         <v>59078</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="65">
         <v>58745</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="65">
         <v>58811</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="65">
         <v>58896</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="65">
         <v>58120</v>
       </c>
-      <c r="K22" s="64">
+      <c r="K22" s="65">
         <v>57650</v>
       </c>
-      <c r="L22" s="64">
+      <c r="L22" s="65">
         <v>57490</v>
       </c>
-      <c r="M22" s="64">
+      <c r="M22" s="65">
         <v>57290</v>
       </c>
-      <c r="N22" s="64">
+      <c r="N22" s="65">
         <v>59040</v>
       </c>
-      <c r="O22" s="64">
+      <c r="O22" s="65">
         <v>58560</v>
       </c>
-      <c r="P22" s="64">
+      <c r="P22" s="65">
         <v>60180</v>
       </c>
-      <c r="Q22" s="64">
+      <c r="Q22" s="65">
         <v>60920</v>
       </c>
-      <c r="R22" s="64">
+      <c r="R22" s="65">
         <v>61640</v>
       </c>
-      <c r="S22" s="64">
+      <c r="S22" s="65">
         <v>61990</v>
       </c>
-      <c r="T22" s="64">
+      <c r="T22" s="65">
         <v>63770</v>
       </c>
-      <c r="U22" s="64">
+      <c r="U22" s="65">
         <v>65820</v>
       </c>
-      <c r="V22" s="64">
+      <c r="V22" s="65">
         <v>66930</v>
       </c>
-      <c r="W22" s="64">
+      <c r="W22" s="65">
         <v>65550</v>
       </c>
-      <c r="X22" s="64">
+      <c r="X22" s="65">
         <v>64340</v>
       </c>
-      <c r="Y22" s="64">
+      <c r="Y22" s="65">
         <v>64550</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <f t="shared" si="0"/>
+    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="64">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="65">
         <v>74831</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="65">
         <v>55941</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="65">
         <v>52950</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="65">
         <v>64462</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="65">
         <v>64724</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="65">
         <v>65157</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="65">
         <v>66360</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="65">
         <v>65200</v>
       </c>
-      <c r="K23" s="64">
+      <c r="K23" s="65">
         <v>65790</v>
       </c>
-      <c r="L23" s="64">
+      <c r="L23" s="65">
         <v>68630</v>
       </c>
-      <c r="M23" s="64">
+      <c r="M23" s="65">
         <v>68610</v>
       </c>
-      <c r="N23" s="64">
+      <c r="N23" s="65">
         <v>69320</v>
       </c>
-      <c r="O23" s="64">
+      <c r="O23" s="65">
         <v>69810</v>
       </c>
-      <c r="P23" s="64">
+      <c r="P23" s="65">
         <v>69790</v>
       </c>
-      <c r="Q23" s="64">
+      <c r="Q23" s="65">
         <v>70020</v>
       </c>
-      <c r="R23" s="64">
+      <c r="R23" s="65">
         <v>70360</v>
       </c>
-      <c r="S23" s="64">
+      <c r="S23" s="65">
         <v>69700</v>
       </c>
-      <c r="T23" s="64">
+      <c r="T23" s="65">
         <v>70020</v>
       </c>
-      <c r="U23" s="64">
+      <c r="U23" s="65">
         <v>71160</v>
       </c>
-      <c r="V23" s="64">
+      <c r="V23" s="65">
         <v>71310</v>
       </c>
-      <c r="W23" s="64">
+      <c r="W23" s="65">
         <v>69390</v>
       </c>
-      <c r="X23" s="64">
+      <c r="X23" s="65">
         <v>67880</v>
       </c>
-      <c r="Y23" s="64">
+      <c r="Y23" s="65">
         <v>68390</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <f t="shared" si="0"/>
+    <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="64">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="65">
         <v>124372</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="65">
         <v>93807</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="65">
         <v>97679</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="65">
         <v>110682</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="65">
         <v>106017</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="65">
         <v>105446</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="65">
         <v>104210</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="65">
         <v>102520</v>
       </c>
-      <c r="K24" s="64">
+      <c r="K24" s="65">
         <v>102020</v>
       </c>
-      <c r="L24" s="64">
+      <c r="L24" s="65">
         <v>100800</v>
       </c>
-      <c r="M24" s="64">
+      <c r="M24" s="65">
         <v>101570</v>
       </c>
-      <c r="N24" s="64">
+      <c r="N24" s="65">
         <v>102440</v>
       </c>
-      <c r="O24" s="64">
+      <c r="O24" s="65">
         <v>99910</v>
       </c>
-      <c r="P24" s="64">
+      <c r="P24" s="65">
         <v>98170</v>
       </c>
-      <c r="Q24" s="64">
+      <c r="Q24" s="65">
         <v>97790</v>
       </c>
-      <c r="R24" s="64">
+      <c r="R24" s="65">
         <v>97500</v>
       </c>
-      <c r="S24" s="64">
+      <c r="S24" s="65">
         <v>94870</v>
       </c>
-      <c r="T24" s="64">
+      <c r="T24" s="65">
         <v>96260</v>
       </c>
-      <c r="U24" s="64">
+      <c r="U24" s="65">
         <v>96030</v>
       </c>
-      <c r="V24" s="64">
+      <c r="V24" s="65">
         <v>92560</v>
       </c>
-      <c r="W24" s="64">
+      <c r="W24" s="65">
         <v>90060</v>
       </c>
-      <c r="X24" s="64">
+      <c r="X24" s="65">
         <v>88840</v>
       </c>
-      <c r="Y24" s="64">
+      <c r="Y24" s="65">
         <v>88680</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <f t="shared" si="0"/>
+    <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="64">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="65">
         <v>64166</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="65">
         <v>49087</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="65">
         <v>57372</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="65">
         <v>59667</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="65">
         <v>59357</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="65">
         <v>57501</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="65">
         <v>58255</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="65">
         <v>56370</v>
       </c>
-      <c r="K25" s="64">
+      <c r="K25" s="65">
         <v>56800</v>
       </c>
-      <c r="L25" s="64">
+      <c r="L25" s="65">
         <v>56640</v>
       </c>
-      <c r="M25" s="64">
+      <c r="M25" s="65">
         <v>57250</v>
       </c>
-      <c r="N25" s="64">
+      <c r="N25" s="65">
         <v>58370</v>
       </c>
-      <c r="O25" s="64">
+      <c r="O25" s="65">
         <v>59350</v>
       </c>
-      <c r="P25" s="64">
+      <c r="P25" s="65">
         <v>58510</v>
       </c>
-      <c r="Q25" s="64">
+      <c r="Q25" s="65">
         <v>60360</v>
       </c>
-      <c r="R25" s="64">
+      <c r="R25" s="65">
         <v>61810</v>
       </c>
-      <c r="S25" s="64">
+      <c r="S25" s="65">
         <v>61920</v>
       </c>
-      <c r="T25" s="64">
+      <c r="T25" s="65">
         <v>63460</v>
       </c>
-      <c r="U25" s="64">
+      <c r="U25" s="65">
         <v>65100</v>
       </c>
-      <c r="V25" s="64">
+      <c r="V25" s="65">
         <v>65520</v>
       </c>
-      <c r="W25" s="64">
+      <c r="W25" s="65">
         <v>64560</v>
       </c>
-      <c r="X25" s="64">
+      <c r="X25" s="65">
         <v>63320</v>
       </c>
-      <c r="Y25" s="64">
+      <c r="Y25" s="65">
         <v>63910</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <f t="shared" si="0"/>
+    <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="64">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="65">
         <v>28083</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="65">
         <v>25182</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="65">
         <v>24232</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="65">
         <v>25478</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="65">
         <v>27321</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="65">
         <v>26158</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="65">
         <v>26502</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="65">
         <v>26650</v>
       </c>
-      <c r="K26" s="64">
+      <c r="K26" s="65">
         <v>26260</v>
       </c>
-      <c r="L26" s="64">
+      <c r="L26" s="65">
         <v>26770</v>
       </c>
-      <c r="M26" s="64">
+      <c r="M26" s="65">
         <v>26900</v>
       </c>
-      <c r="N26" s="64">
+      <c r="N26" s="65">
         <v>28050</v>
       </c>
-      <c r="O26" s="64">
+      <c r="O26" s="65">
         <v>27390</v>
       </c>
-      <c r="P26" s="64">
+      <c r="P26" s="65">
         <v>26680</v>
       </c>
-      <c r="Q26" s="64">
+      <c r="Q26" s="65">
         <v>25990</v>
       </c>
-      <c r="R26" s="64">
+      <c r="R26" s="65">
         <v>26300</v>
       </c>
-      <c r="S26" s="64">
+      <c r="S26" s="65">
         <v>26180</v>
       </c>
-      <c r="T26" s="64">
+      <c r="T26" s="65">
         <v>25950</v>
       </c>
-      <c r="U26" s="64">
+      <c r="U26" s="65">
         <v>28040</v>
       </c>
-      <c r="V26" s="64">
+      <c r="V26" s="65">
         <v>27280</v>
       </c>
-      <c r="W26" s="64">
+      <c r="W26" s="65">
         <v>26330</v>
       </c>
-      <c r="X26" s="64">
+      <c r="X26" s="65">
         <v>24560</v>
       </c>
-      <c r="Y26" s="64">
+      <c r="Y26" s="65">
         <v>24850</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <f t="shared" si="0"/>
+    <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="64">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="65">
         <v>60359</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="65">
         <v>48957</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="65">
         <v>52848</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="65">
         <v>63994</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="65">
         <v>62994</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="65">
         <v>61313</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I27" s="65">
         <v>61407</v>
       </c>
-      <c r="J27" s="64">
+      <c r="J27" s="65">
         <v>60900</v>
       </c>
-      <c r="K27" s="64">
+      <c r="K27" s="65">
         <v>60590</v>
       </c>
-      <c r="L27" s="64">
+      <c r="L27" s="65">
         <v>61600</v>
       </c>
-      <c r="M27" s="64">
+      <c r="M27" s="65">
         <v>60890</v>
       </c>
-      <c r="N27" s="64">
+      <c r="N27" s="65">
         <v>61700</v>
       </c>
-      <c r="O27" s="64">
+      <c r="O27" s="65">
         <v>61770</v>
       </c>
-      <c r="P27" s="64">
+      <c r="P27" s="65">
         <v>60750</v>
       </c>
-      <c r="Q27" s="64">
+      <c r="Q27" s="65">
         <v>60800</v>
       </c>
-      <c r="R27" s="64">
+      <c r="R27" s="65">
         <v>61170</v>
       </c>
-      <c r="S27" s="64">
+      <c r="S27" s="65">
         <v>61590</v>
       </c>
-      <c r="T27" s="64">
+      <c r="T27" s="65">
         <v>62280</v>
       </c>
-      <c r="U27" s="64">
+      <c r="U27" s="65">
         <v>63600</v>
       </c>
-      <c r="V27" s="64">
+      <c r="V27" s="65">
         <v>63560</v>
       </c>
-      <c r="W27" s="64">
+      <c r="W27" s="65">
         <v>61920</v>
       </c>
-      <c r="X27" s="64">
+      <c r="X27" s="65">
         <v>60470</v>
       </c>
-      <c r="Y27" s="64">
+      <c r="Y27" s="65">
         <v>60440</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <f t="shared" si="0"/>
+    <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="64">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="65">
         <v>11634</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="65">
         <v>9370</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="65">
         <v>10903</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="65">
         <v>10075</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="65">
         <v>9732</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="65">
         <v>9750</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="65">
         <v>9369</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="65">
         <v>9470</v>
       </c>
-      <c r="K28" s="64">
+      <c r="K28" s="65">
         <v>9390</v>
       </c>
-      <c r="L28" s="64">
+      <c r="L28" s="65">
         <v>9320</v>
       </c>
-      <c r="M28" s="64">
+      <c r="M28" s="65">
         <v>9380</v>
       </c>
-      <c r="N28" s="64">
+      <c r="N28" s="65">
         <v>9210</v>
       </c>
-      <c r="O28" s="64">
+      <c r="O28" s="65">
         <v>9430</v>
       </c>
-      <c r="P28" s="64">
+      <c r="P28" s="65">
         <v>9610</v>
       </c>
-      <c r="Q28" s="64">
+      <c r="Q28" s="65">
         <v>9660</v>
       </c>
-      <c r="R28" s="64">
+      <c r="R28" s="65">
         <v>9870</v>
       </c>
-      <c r="S28" s="64">
+      <c r="S28" s="65">
         <v>9890</v>
       </c>
-      <c r="T28" s="64">
+      <c r="T28" s="65">
         <v>10430</v>
       </c>
-      <c r="U28" s="64">
+      <c r="U28" s="65">
         <v>10430</v>
       </c>
-      <c r="V28" s="64">
+      <c r="V28" s="65">
         <v>10800</v>
       </c>
-      <c r="W28" s="64">
+      <c r="W28" s="65">
         <v>10530</v>
       </c>
-      <c r="X28" s="64">
+      <c r="X28" s="65">
         <v>10200</v>
       </c>
-      <c r="Y28" s="64">
+      <c r="Y28" s="65">
         <v>10380</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <f t="shared" si="0"/>
+    <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="64">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="65">
         <v>21411</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="65">
         <v>17664</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="65">
         <v>20149</v>
       </c>
-      <c r="F29" s="64">
+      <c r="F29" s="65">
         <v>19370</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="65">
         <v>20331</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="65">
         <v>20464</v>
       </c>
-      <c r="I29" s="64">
+      <c r="I29" s="65">
         <v>20442</v>
       </c>
-      <c r="J29" s="64">
+      <c r="J29" s="65">
         <v>20580</v>
       </c>
-      <c r="K29" s="64">
+      <c r="K29" s="65">
         <v>20650</v>
       </c>
-      <c r="L29" s="64">
+      <c r="L29" s="65">
         <v>21090</v>
       </c>
-      <c r="M29" s="64">
+      <c r="M29" s="65">
         <v>21130</v>
       </c>
-      <c r="N29" s="64">
+      <c r="N29" s="65">
         <v>21960</v>
       </c>
-      <c r="O29" s="64">
+      <c r="O29" s="65">
         <v>22270</v>
       </c>
-      <c r="P29" s="64">
+      <c r="P29" s="65">
         <v>22750</v>
       </c>
-      <c r="Q29" s="64">
+      <c r="Q29" s="65">
         <v>23240</v>
       </c>
-      <c r="R29" s="64">
+      <c r="R29" s="65">
         <v>23800</v>
       </c>
-      <c r="S29" s="64">
+      <c r="S29" s="65">
         <v>23640</v>
       </c>
-      <c r="T29" s="64">
+      <c r="T29" s="65">
         <v>24050</v>
       </c>
-      <c r="U29" s="64">
+      <c r="U29" s="65">
         <v>22970</v>
       </c>
-      <c r="V29" s="64">
+      <c r="V29" s="65">
         <v>24790</v>
       </c>
-      <c r="W29" s="64">
+      <c r="W29" s="65">
         <v>24890</v>
       </c>
-      <c r="X29" s="64">
+      <c r="X29" s="65">
         <v>24450</v>
       </c>
-      <c r="Y29" s="64">
+      <c r="Y29" s="65">
         <v>24420</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <f t="shared" si="0"/>
+    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="64">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="65">
         <v>9069</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="65">
         <v>9477</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="65">
         <v>14551</v>
       </c>
-      <c r="F30" s="64">
+      <c r="F30" s="65">
         <v>20956</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="65">
         <v>21182</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="65">
         <v>21891</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="65">
         <v>23038</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="65">
         <v>22720</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="65">
         <v>23040</v>
       </c>
-      <c r="L30" s="64">
+      <c r="L30" s="65">
         <v>23190</v>
       </c>
-      <c r="M30" s="64">
+      <c r="M30" s="65">
         <v>23780</v>
       </c>
-      <c r="N30" s="64">
+      <c r="N30" s="65">
         <v>24170</v>
       </c>
-      <c r="O30" s="64">
+      <c r="O30" s="65">
         <v>24880</v>
       </c>
-      <c r="P30" s="64">
+      <c r="P30" s="65">
         <v>25150</v>
       </c>
-      <c r="Q30" s="64">
+      <c r="Q30" s="65">
         <v>25190</v>
       </c>
-      <c r="R30" s="64">
+      <c r="R30" s="65">
         <v>25410</v>
       </c>
-      <c r="S30" s="64">
+      <c r="S30" s="65">
         <v>26270</v>
       </c>
-      <c r="T30" s="64">
+      <c r="T30" s="65">
         <v>27270</v>
       </c>
-      <c r="U30" s="64">
+      <c r="U30" s="65">
         <v>28460</v>
       </c>
-      <c r="V30" s="64">
+      <c r="V30" s="65">
         <v>28610</v>
       </c>
-      <c r="W30" s="64">
+      <c r="W30" s="65">
         <v>27590</v>
       </c>
-      <c r="X30" s="64">
+      <c r="X30" s="65">
         <v>27520</v>
       </c>
-      <c r="Y30" s="64">
+      <c r="Y30" s="65">
         <v>27770</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <f t="shared" si="0"/>
+    <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="64">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="65">
         <v>11552</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="65">
         <v>10766</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="65">
         <v>11829</v>
       </c>
-      <c r="F31" s="64">
+      <c r="F31" s="65">
         <v>15034</v>
       </c>
-      <c r="G31" s="64">
+      <c r="G31" s="65">
         <v>14495</v>
       </c>
-      <c r="H31" s="64">
+      <c r="H31" s="65">
         <v>14426</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="65">
         <v>14262</v>
       </c>
-      <c r="J31" s="64">
+      <c r="J31" s="65">
         <v>13790</v>
       </c>
-      <c r="K31" s="64">
+      <c r="K31" s="65">
         <v>13520</v>
       </c>
-      <c r="L31" s="64">
+      <c r="L31" s="65">
         <v>13600</v>
       </c>
-      <c r="M31" s="64">
+      <c r="M31" s="65">
         <v>13160</v>
       </c>
-      <c r="N31" s="64">
+      <c r="N31" s="65">
         <v>13160</v>
       </c>
-      <c r="O31" s="64">
+      <c r="O31" s="65">
         <v>12950</v>
       </c>
-      <c r="P31" s="64">
+      <c r="P31" s="65">
         <v>12960</v>
       </c>
-      <c r="Q31" s="64">
+      <c r="Q31" s="65">
         <v>12780</v>
       </c>
-      <c r="R31" s="64">
+      <c r="R31" s="65">
         <v>12810</v>
       </c>
-      <c r="S31" s="64">
+      <c r="S31" s="65">
         <v>12540</v>
       </c>
-      <c r="T31" s="64">
+      <c r="T31" s="65">
         <v>12550</v>
       </c>
-      <c r="U31" s="64">
+      <c r="U31" s="65">
         <v>12500</v>
       </c>
-      <c r="V31" s="64">
+      <c r="V31" s="65">
         <v>12290</v>
       </c>
-      <c r="W31" s="64">
+      <c r="W31" s="65">
         <v>11910</v>
       </c>
-      <c r="X31" s="64">
+      <c r="X31" s="65">
         <v>11490</v>
       </c>
-      <c r="Y31" s="64">
+      <c r="Y31" s="65">
         <v>11380</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <f t="shared" si="0"/>
+    <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="64">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="65">
         <v>93168</v>
       </c>
-      <c r="D32" s="64">
+      <c r="D32" s="65">
         <v>69824</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="65">
         <v>74420</v>
       </c>
-      <c r="F32" s="64">
+      <c r="F32" s="65">
         <v>96225</v>
       </c>
-      <c r="G32" s="64">
+      <c r="G32" s="65">
         <v>95186</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="65">
         <v>93819</v>
       </c>
-      <c r="I32" s="64">
+      <c r="I32" s="65">
         <v>96490</v>
       </c>
-      <c r="J32" s="64">
+      <c r="J32" s="65">
         <v>95220</v>
       </c>
-      <c r="K32" s="64">
+      <c r="K32" s="65">
         <v>95250</v>
       </c>
-      <c r="L32" s="64">
+      <c r="L32" s="65">
         <v>97130</v>
       </c>
-      <c r="M32" s="64">
+      <c r="M32" s="65">
         <v>97990</v>
       </c>
-      <c r="N32" s="64">
+      <c r="N32" s="65">
         <v>98330</v>
       </c>
-      <c r="O32" s="64">
+      <c r="O32" s="65">
         <v>97120</v>
       </c>
-      <c r="P32" s="64">
+      <c r="P32" s="65">
         <v>96210</v>
       </c>
-      <c r="Q32" s="64">
+      <c r="Q32" s="65">
         <v>97920</v>
       </c>
-      <c r="R32" s="64">
+      <c r="R32" s="65">
         <v>98540</v>
       </c>
-      <c r="S32" s="64">
+      <c r="S32" s="65">
         <v>97370</v>
       </c>
-      <c r="T32" s="64">
+      <c r="T32" s="65">
         <v>98540</v>
       </c>
-      <c r="U32" s="64">
+      <c r="U32" s="65">
         <v>100920</v>
       </c>
-      <c r="V32" s="64">
+      <c r="V32" s="65">
         <v>99270</v>
       </c>
-      <c r="W32" s="64">
+      <c r="W32" s="65">
         <v>97620</v>
       </c>
-      <c r="X32" s="64">
+      <c r="X32" s="65">
         <v>96130</v>
       </c>
-      <c r="Y32" s="64">
+      <c r="Y32" s="65">
         <v>96020</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <f t="shared" si="0"/>
+    <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="64">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="65">
         <v>17915</v>
       </c>
-      <c r="D33" s="64">
+      <c r="D33" s="65">
         <v>14884</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="65">
         <v>18031</v>
       </c>
-      <c r="F33" s="64">
+      <c r="F33" s="65">
         <v>18595</v>
       </c>
-      <c r="G33" s="64">
+      <c r="G33" s="65">
         <v>19352</v>
       </c>
-      <c r="H33" s="64">
+      <c r="H33" s="65">
         <v>20315</v>
       </c>
-      <c r="I33" s="64">
+      <c r="I33" s="65">
         <v>19232</v>
       </c>
-      <c r="J33" s="64">
+      <c r="J33" s="65">
         <v>18590</v>
       </c>
-      <c r="K33" s="64">
+      <c r="K33" s="65">
         <v>19530</v>
       </c>
-      <c r="L33" s="64">
+      <c r="L33" s="65">
         <v>19480</v>
       </c>
-      <c r="M33" s="64">
+      <c r="M33" s="65">
         <v>19770</v>
       </c>
-      <c r="N33" s="64">
+      <c r="N33" s="65">
         <v>20190</v>
       </c>
-      <c r="O33" s="64">
+      <c r="O33" s="65">
         <v>20300</v>
       </c>
-      <c r="P33" s="64">
+      <c r="P33" s="65">
         <v>20780</v>
       </c>
-      <c r="Q33" s="64">
+      <c r="Q33" s="65">
         <v>20410</v>
       </c>
-      <c r="R33" s="64">
+      <c r="R33" s="65">
         <v>20430</v>
       </c>
-      <c r="S33" s="64">
+      <c r="S33" s="65">
         <v>20800</v>
       </c>
-      <c r="T33" s="64">
+      <c r="T33" s="65">
         <v>20820</v>
       </c>
-      <c r="U33" s="64">
+      <c r="U33" s="65">
         <v>21380</v>
       </c>
-      <c r="V33" s="64">
+      <c r="V33" s="65">
         <v>21510</v>
       </c>
-      <c r="W33" s="64">
+      <c r="W33" s="65">
         <v>20920</v>
       </c>
-      <c r="X33" s="64">
+      <c r="X33" s="65">
         <v>19510</v>
       </c>
-      <c r="Y33" s="64">
+      <c r="Y33" s="65">
         <v>19290</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <f t="shared" si="0"/>
+    <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="64">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="65">
         <v>198465</v>
       </c>
-      <c r="D34" s="64">
+      <c r="D34" s="65">
         <v>143318</v>
       </c>
-      <c r="E34" s="64">
+      <c r="E34" s="65">
         <v>141731</v>
       </c>
-      <c r="F34" s="64">
+      <c r="F34" s="65">
         <v>183826</v>
       </c>
-      <c r="G34" s="64">
+      <c r="G34" s="65">
         <v>182759</v>
       </c>
-      <c r="H34" s="64">
+      <c r="H34" s="65">
         <v>180806</v>
       </c>
-      <c r="I34" s="64">
+      <c r="I34" s="65">
         <v>180351</v>
       </c>
-      <c r="J34" s="64">
+      <c r="J34" s="65">
         <v>178810</v>
       </c>
-      <c r="K34" s="64">
+      <c r="K34" s="65">
         <v>179110</v>
       </c>
-      <c r="L34" s="64">
+      <c r="L34" s="65">
         <v>178260</v>
       </c>
-      <c r="M34" s="64">
+      <c r="M34" s="65">
         <v>181790</v>
       </c>
-      <c r="N34" s="64">
+      <c r="N34" s="65">
         <v>185630</v>
       </c>
-      <c r="O34" s="64">
+      <c r="O34" s="65">
         <v>182480</v>
       </c>
-      <c r="P34" s="64">
+      <c r="P34" s="65">
         <v>179160</v>
       </c>
-      <c r="Q34" s="64">
+      <c r="Q34" s="65">
         <v>180970</v>
       </c>
-      <c r="R34" s="64">
+      <c r="R34" s="65">
         <v>180070</v>
       </c>
-      <c r="S34" s="64">
+      <c r="S34" s="65">
         <v>180320</v>
       </c>
-      <c r="T34" s="64">
+      <c r="T34" s="65">
         <v>183830</v>
       </c>
-      <c r="U34" s="64">
+      <c r="U34" s="65">
         <v>186510</v>
       </c>
-      <c r="V34" s="64">
+      <c r="V34" s="65">
         <v>185690</v>
       </c>
-      <c r="W34" s="64">
+      <c r="W34" s="65">
         <v>183510</v>
       </c>
-      <c r="X34" s="64">
+      <c r="X34" s="65">
         <v>180560</v>
       </c>
-      <c r="Y34" s="64">
+      <c r="Y34" s="65">
         <v>181140</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <f t="shared" si="0"/>
+    <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="64">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="65">
         <v>69395</v>
       </c>
-      <c r="D35" s="64">
+      <c r="D35" s="65">
         <v>64782</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="65">
         <v>62140</v>
       </c>
-      <c r="F35" s="64">
+      <c r="F35" s="65">
         <v>88704</v>
       </c>
-      <c r="G35" s="64">
+      <c r="G35" s="65">
         <v>89892</v>
       </c>
-      <c r="H35" s="64">
+      <c r="H35" s="65">
         <v>93977</v>
       </c>
-      <c r="I35" s="64">
+      <c r="I35" s="65">
         <v>94339</v>
       </c>
-      <c r="J35" s="64">
+      <c r="J35" s="65">
         <v>96210</v>
       </c>
-      <c r="K35" s="64">
+      <c r="K35" s="65">
         <v>97020</v>
       </c>
-      <c r="L35" s="64">
+      <c r="L35" s="65">
         <v>98970</v>
       </c>
-      <c r="M35" s="64">
+      <c r="M35" s="65">
         <v>101710</v>
       </c>
-      <c r="N35" s="64">
+      <c r="N35" s="65">
         <v>105280</v>
       </c>
-      <c r="O35" s="64">
+      <c r="O35" s="65">
         <v>107590</v>
       </c>
-      <c r="P35" s="64">
+      <c r="P35" s="65">
         <v>104770</v>
       </c>
-      <c r="Q35" s="64">
+      <c r="Q35" s="65">
         <v>104820</v>
       </c>
-      <c r="R35" s="64">
+      <c r="R35" s="65">
         <v>97640</v>
       </c>
-      <c r="S35" s="64">
+      <c r="S35" s="65">
         <v>104440</v>
       </c>
-      <c r="T35" s="64">
+      <c r="T35" s="65">
         <v>107090</v>
       </c>
-      <c r="U35" s="64">
+      <c r="U35" s="65">
         <v>110400</v>
       </c>
-      <c r="V35" s="64">
+      <c r="V35" s="65">
         <v>110430</v>
       </c>
-      <c r="W35" s="64">
+      <c r="W35" s="65">
         <v>108930</v>
       </c>
-      <c r="X35" s="64">
+      <c r="X35" s="65">
         <v>105400</v>
       </c>
-      <c r="Y35" s="64">
+      <c r="Y35" s="65">
         <v>106280</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <f t="shared" si="0"/>
+    <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="64">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="65">
         <v>9924</v>
       </c>
-      <c r="D36" s="64">
+      <c r="D36" s="65">
         <v>7690</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="65">
         <v>8606</v>
       </c>
-      <c r="F36" s="64">
+      <c r="F36" s="65">
         <v>7155</v>
       </c>
-      <c r="G36" s="64">
+      <c r="G36" s="65">
         <v>7156</v>
       </c>
-      <c r="H36" s="64">
+      <c r="H36" s="65">
         <v>6942</v>
       </c>
-      <c r="I36" s="64">
+      <c r="I36" s="65">
         <v>6900</v>
       </c>
-      <c r="J36" s="64">
+      <c r="J36" s="65">
         <v>6960</v>
       </c>
-      <c r="K36" s="64">
+      <c r="K36" s="65">
         <v>7040</v>
       </c>
-      <c r="L36" s="64">
+      <c r="L36" s="65">
         <v>7020</v>
       </c>
-      <c r="M36" s="64">
+      <c r="M36" s="65">
         <v>6940</v>
       </c>
-      <c r="N36" s="64">
+      <c r="N36" s="65">
         <v>6570</v>
       </c>
-      <c r="O36" s="64">
+      <c r="O36" s="65">
         <v>6800</v>
       </c>
-      <c r="P36" s="64">
+      <c r="P36" s="65">
         <v>6850</v>
       </c>
-      <c r="Q36" s="64">
+      <c r="Q36" s="65">
         <v>7050</v>
       </c>
-      <c r="R36" s="64">
+      <c r="R36" s="65">
         <v>7330</v>
       </c>
-      <c r="S36" s="64">
+      <c r="S36" s="65">
         <v>7450</v>
       </c>
-      <c r="T36" s="64">
+      <c r="T36" s="65">
         <v>7910</v>
       </c>
-      <c r="U36" s="64">
+      <c r="U36" s="65">
         <v>8140</v>
       </c>
-      <c r="V36" s="64">
+      <c r="V36" s="65">
         <v>8240</v>
       </c>
-      <c r="W36" s="64">
+      <c r="W36" s="65">
         <v>8270</v>
       </c>
-      <c r="X36" s="64">
+      <c r="X36" s="65">
         <v>8000</v>
       </c>
-      <c r="Y36" s="64">
+      <c r="Y36" s="65">
         <v>8190</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <f t="shared" si="0"/>
+    <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="64">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="65">
         <v>143503</v>
       </c>
-      <c r="D37" s="64">
+      <c r="D37" s="65">
         <v>114513</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="65">
         <v>111668</v>
       </c>
-      <c r="F37" s="64">
+      <c r="F37" s="65">
         <v>123437</v>
       </c>
-      <c r="G37" s="64">
+      <c r="G37" s="65">
         <v>124229</v>
       </c>
-      <c r="H37" s="64">
+      <c r="H37" s="65">
         <v>123135</v>
       </c>
-      <c r="I37" s="64">
+      <c r="I37" s="65">
         <v>122491</v>
       </c>
-      <c r="J37" s="64">
+      <c r="J37" s="65">
         <v>119520</v>
       </c>
-      <c r="K37" s="64">
+      <c r="K37" s="65">
         <v>120940</v>
       </c>
-      <c r="L37" s="64">
+      <c r="L37" s="65">
         <v>125050</v>
       </c>
-      <c r="M37" s="64">
+      <c r="M37" s="65">
         <v>126590</v>
       </c>
-      <c r="N37" s="64">
+      <c r="N37" s="65">
         <v>122380</v>
       </c>
-      <c r="O37" s="64">
+      <c r="O37" s="65">
         <v>123350</v>
       </c>
-      <c r="P37" s="64">
+      <c r="P37" s="65">
         <v>121250</v>
       </c>
-      <c r="Q37" s="64">
+      <c r="Q37" s="65">
         <v>120550</v>
       </c>
-      <c r="R37" s="64">
+      <c r="R37" s="65">
         <v>120190</v>
       </c>
-      <c r="S37" s="64">
+      <c r="S37" s="65">
         <v>117580</v>
       </c>
-      <c r="T37" s="64">
+      <c r="T37" s="65">
         <v>120240</v>
       </c>
-      <c r="U37" s="64">
+      <c r="U37" s="65">
         <v>121250</v>
       </c>
-      <c r="V37" s="64">
+      <c r="V37" s="65">
         <v>122090</v>
       </c>
-      <c r="W37" s="64">
+      <c r="W37" s="65">
         <v>117540</v>
       </c>
-      <c r="X37" s="64">
+      <c r="X37" s="65">
         <v>114030</v>
       </c>
-      <c r="Y37" s="64">
+      <c r="Y37" s="65">
         <v>114690</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <f t="shared" si="0"/>
+    <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="64">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="65">
         <v>38875</v>
       </c>
-      <c r="D38" s="64">
+      <c r="D38" s="65">
         <v>35606</v>
       </c>
-      <c r="E38" s="64">
+      <c r="E38" s="65">
         <v>37646</v>
       </c>
-      <c r="F38" s="64">
+      <c r="F38" s="65">
         <v>38503</v>
       </c>
-      <c r="G38" s="64">
+      <c r="G38" s="65">
         <v>37744</v>
       </c>
-      <c r="H38" s="64">
+      <c r="H38" s="65">
         <v>37305</v>
       </c>
-      <c r="I38" s="64">
+      <c r="I38" s="65">
         <v>37033</v>
       </c>
-      <c r="J38" s="64">
+      <c r="J38" s="65">
         <v>37260</v>
       </c>
-      <c r="K38" s="64">
+      <c r="K38" s="65">
         <v>38420</v>
       </c>
-      <c r="L38" s="64">
+      <c r="L38" s="65">
         <v>39690</v>
       </c>
-      <c r="M38" s="64">
+      <c r="M38" s="65">
         <v>40230</v>
       </c>
-      <c r="N38" s="64">
+      <c r="N38" s="65">
         <v>41170</v>
       </c>
-      <c r="O38" s="64">
+      <c r="O38" s="65">
         <v>41370</v>
       </c>
-      <c r="P38" s="64">
+      <c r="P38" s="65">
         <v>41640</v>
       </c>
-      <c r="Q38" s="64">
+      <c r="Q38" s="65">
         <v>41920</v>
       </c>
-      <c r="R38" s="64">
+      <c r="R38" s="65">
         <v>41960</v>
       </c>
-      <c r="S38" s="64">
+      <c r="S38" s="65">
         <v>40480</v>
       </c>
-      <c r="T38" s="64">
+      <c r="T38" s="65">
         <v>42640</v>
       </c>
-      <c r="U38" s="64">
+      <c r="U38" s="65">
         <v>44270</v>
       </c>
-      <c r="V38" s="64">
+      <c r="V38" s="65">
         <v>44080</v>
       </c>
-      <c r="W38" s="64">
+      <c r="W38" s="65">
         <v>43800</v>
       </c>
-      <c r="X38" s="64">
+      <c r="X38" s="65">
         <v>42440</v>
       </c>
-      <c r="Y38" s="64">
+      <c r="Y38" s="65">
         <v>42720</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <f t="shared" si="0"/>
+    <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="64">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="65">
         <v>28729</v>
       </c>
-      <c r="D39" s="64">
+      <c r="D39" s="65">
         <v>25473</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="65">
         <v>30151</v>
       </c>
-      <c r="F39" s="64">
+      <c r="F39" s="65">
         <v>34671</v>
       </c>
-      <c r="G39" s="64">
+      <c r="G39" s="65">
         <v>34723</v>
       </c>
-      <c r="H39" s="64">
+      <c r="H39" s="65">
         <v>34261</v>
       </c>
-      <c r="I39" s="64">
+      <c r="I39" s="65">
         <v>33899</v>
       </c>
-      <c r="J39" s="64">
+      <c r="J39" s="65">
         <v>34440</v>
       </c>
-      <c r="K39" s="64">
+      <c r="K39" s="65">
         <v>34800</v>
       </c>
-      <c r="L39" s="64">
+      <c r="L39" s="65">
         <v>35650</v>
       </c>
-      <c r="M39" s="64">
+      <c r="M39" s="65">
         <v>34700</v>
       </c>
-      <c r="N39" s="64">
+      <c r="N39" s="65">
         <v>35380</v>
       </c>
-      <c r="O39" s="64">
+      <c r="O39" s="65">
         <v>35610</v>
       </c>
-      <c r="P39" s="64">
+      <c r="P39" s="65">
         <v>35190</v>
       </c>
-      <c r="Q39" s="64">
+      <c r="Q39" s="65">
         <v>35790</v>
       </c>
-      <c r="R39" s="64">
+      <c r="R39" s="65">
         <v>36200</v>
       </c>
-      <c r="S39" s="64">
+      <c r="S39" s="65">
         <v>36320</v>
       </c>
-      <c r="T39" s="64">
+      <c r="T39" s="65">
         <v>37570</v>
       </c>
-      <c r="U39" s="64">
+      <c r="U39" s="65">
         <v>38690</v>
       </c>
-      <c r="V39" s="64">
+      <c r="V39" s="65">
         <v>38920</v>
       </c>
-      <c r="W39" s="64">
+      <c r="W39" s="65">
         <v>37850</v>
       </c>
-      <c r="X39" s="64">
+      <c r="X39" s="65">
         <v>37360</v>
       </c>
-      <c r="Y39" s="64">
+      <c r="Y39" s="65">
         <v>37620</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <f t="shared" si="0"/>
+    <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="64">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="64">
+      <c r="C40" s="65">
         <v>144645</v>
       </c>
-      <c r="D40" s="64">
+      <c r="D40" s="65">
         <v>110527</v>
       </c>
-      <c r="E40" s="64">
+      <c r="E40" s="65">
         <v>113959</v>
       </c>
-      <c r="F40" s="64">
+      <c r="F40" s="65">
         <v>131182</v>
       </c>
-      <c r="G40" s="64">
+      <c r="G40" s="65">
         <v>130284</v>
       </c>
-      <c r="H40" s="64">
+      <c r="H40" s="65">
         <v>131733</v>
       </c>
-      <c r="I40" s="64">
+      <c r="I40" s="65">
         <v>129777</v>
       </c>
-      <c r="J40" s="64">
+      <c r="J40" s="65">
         <v>127200</v>
       </c>
-      <c r="K40" s="64">
+      <c r="K40" s="65">
         <v>123560</v>
       </c>
-      <c r="L40" s="64">
+      <c r="L40" s="65">
         <v>121840</v>
       </c>
-      <c r="M40" s="64">
+      <c r="M40" s="65">
         <v>123990</v>
       </c>
-      <c r="N40" s="64">
+      <c r="N40" s="65">
         <v>123190</v>
       </c>
-      <c r="O40" s="64">
+      <c r="O40" s="65">
         <v>120390</v>
       </c>
-      <c r="P40" s="64">
+      <c r="P40" s="65">
         <v>118130</v>
       </c>
-      <c r="Q40" s="64">
+      <c r="Q40" s="65">
         <v>119550</v>
       </c>
-      <c r="R40" s="64">
+      <c r="R40" s="65">
         <v>120570</v>
       </c>
-      <c r="S40" s="64">
+      <c r="S40" s="65">
         <v>119610</v>
       </c>
-      <c r="T40" s="64">
+      <c r="T40" s="65">
         <v>121370</v>
       </c>
-      <c r="U40" s="64">
+      <c r="U40" s="65">
         <v>123220</v>
       </c>
-      <c r="V40" s="64">
+      <c r="V40" s="65">
         <v>123420</v>
       </c>
-      <c r="W40" s="64">
+      <c r="W40" s="65">
         <v>120520</v>
       </c>
-      <c r="X40" s="64">
+      <c r="X40" s="65">
         <v>118990</v>
       </c>
-      <c r="Y40" s="64">
+      <c r="Y40" s="65">
         <v>119130</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <f t="shared" si="0"/>
+    <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="64">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="64">
+      <c r="C41" s="65">
         <v>10719</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="65">
         <v>7825</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="65">
         <v>8477</v>
       </c>
-      <c r="F41" s="64">
+      <c r="F41" s="65">
         <v>9908</v>
       </c>
-      <c r="G41" s="64">
+      <c r="G41" s="65">
         <v>9724</v>
       </c>
-      <c r="H41" s="64">
+      <c r="H41" s="65">
         <v>9751</v>
       </c>
-      <c r="I41" s="64">
+      <c r="I41" s="65">
         <v>9579</v>
       </c>
-      <c r="J41" s="64">
+      <c r="J41" s="65">
         <v>9730</v>
       </c>
-      <c r="K41" s="64">
+      <c r="K41" s="65">
         <v>9900</v>
       </c>
-      <c r="L41" s="64">
+      <c r="L41" s="65">
         <v>10050</v>
       </c>
-      <c r="M41" s="64">
+      <c r="M41" s="65">
         <v>9390</v>
       </c>
-      <c r="N41" s="64">
+      <c r="N41" s="65">
         <v>9660</v>
       </c>
-      <c r="O41" s="64">
+      <c r="O41" s="65">
         <v>10240</v>
       </c>
-      <c r="P41" s="64">
+      <c r="P41" s="65">
         <v>10390</v>
       </c>
-      <c r="Q41" s="64">
+      <c r="Q41" s="65">
         <v>10250</v>
       </c>
-      <c r="R41" s="64">
+      <c r="R41" s="65">
         <v>10510</v>
       </c>
-      <c r="S41" s="64">
+      <c r="S41" s="65">
         <v>10300</v>
       </c>
-      <c r="T41" s="64">
+      <c r="T41" s="65">
         <v>10420</v>
       </c>
-      <c r="U41" s="64">
+      <c r="U41" s="65">
         <v>10540</v>
       </c>
-      <c r="V41" s="64">
+      <c r="V41" s="65">
         <v>10390</v>
       </c>
-      <c r="W41" s="64">
+      <c r="W41" s="65">
         <v>9990</v>
       </c>
-      <c r="X41" s="64">
+      <c r="X41" s="65">
         <v>9780</v>
       </c>
-      <c r="Y41" s="64">
+      <c r="Y41" s="65">
         <v>9740</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <f t="shared" si="0"/>
+    <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="64">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="64">
+      <c r="C42" s="65">
         <v>38347</v>
       </c>
-      <c r="D42" s="64">
+      <c r="D42" s="65">
         <v>32483</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="65">
         <v>31617</v>
       </c>
-      <c r="F42" s="64">
+      <c r="F42" s="65">
         <v>40438</v>
       </c>
-      <c r="G42" s="64">
+      <c r="G42" s="65">
         <v>40708</v>
       </c>
-      <c r="H42" s="64">
+      <c r="H42" s="65">
         <v>41442</v>
       </c>
-      <c r="I42" s="64">
+      <c r="I42" s="65">
         <v>42246</v>
       </c>
-      <c r="J42" s="64">
+      <c r="J42" s="65">
         <v>41720</v>
       </c>
-      <c r="K42" s="64">
+      <c r="K42" s="65">
         <v>42650</v>
       </c>
-      <c r="L42" s="64">
+      <c r="L42" s="65">
         <v>43840</v>
       </c>
-      <c r="M42" s="64">
+      <c r="M42" s="65">
         <v>45090</v>
       </c>
-      <c r="N42" s="64">
+      <c r="N42" s="65">
         <v>46640</v>
       </c>
-      <c r="O42" s="64">
+      <c r="O42" s="65">
         <v>46890</v>
       </c>
-      <c r="P42" s="64">
+      <c r="P42" s="65">
         <v>46620</v>
       </c>
-      <c r="Q42" s="64">
+      <c r="Q42" s="65">
         <v>46480</v>
       </c>
-      <c r="R42" s="64">
+      <c r="R42" s="65">
         <v>47070</v>
       </c>
-      <c r="S42" s="64">
+      <c r="S42" s="65">
         <v>48120</v>
       </c>
-      <c r="T42" s="64">
+      <c r="T42" s="65">
         <v>49580</v>
       </c>
-      <c r="U42" s="64">
+      <c r="U42" s="65">
         <v>52080</v>
       </c>
-      <c r="V42" s="64">
+      <c r="V42" s="65">
         <v>52000</v>
       </c>
-      <c r="W42" s="64">
+      <c r="W42" s="65">
         <v>51900</v>
       </c>
-      <c r="X42" s="64">
+      <c r="X42" s="65">
         <v>49310</v>
       </c>
-      <c r="Y42" s="64">
+      <c r="Y42" s="65">
         <v>50000</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <f t="shared" si="0"/>
+    <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="64">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="64">
+      <c r="C43" s="65">
         <v>10385</v>
       </c>
-      <c r="D43" s="64">
+      <c r="D43" s="65">
         <v>7650</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="65">
         <v>9278</v>
       </c>
-      <c r="F43" s="64">
+      <c r="F43" s="65">
         <v>8162</v>
       </c>
-      <c r="G43" s="64">
+      <c r="G43" s="65">
         <v>8248</v>
       </c>
-      <c r="H43" s="64">
+      <c r="H43" s="65">
         <v>8196</v>
       </c>
-      <c r="I43" s="64">
+      <c r="I43" s="65">
         <v>8239</v>
       </c>
-      <c r="J43" s="64">
+      <c r="J43" s="65">
         <v>7960</v>
       </c>
-      <c r="K43" s="64">
+      <c r="K43" s="65">
         <v>8140</v>
       </c>
-      <c r="L43" s="64">
+      <c r="L43" s="65">
         <v>8080</v>
       </c>
-      <c r="M43" s="64">
+      <c r="M43" s="65">
         <v>8160</v>
       </c>
-      <c r="N43" s="64">
+      <c r="N43" s="65">
         <v>8280</v>
       </c>
-      <c r="O43" s="64">
+      <c r="O43" s="65">
         <v>8190</v>
       </c>
-      <c r="P43" s="64">
+      <c r="P43" s="65">
         <v>8380</v>
       </c>
-      <c r="Q43" s="64">
+      <c r="Q43" s="65">
         <v>8500</v>
       </c>
-      <c r="R43" s="64">
+      <c r="R43" s="65">
         <v>8820</v>
       </c>
-      <c r="S43" s="64">
+      <c r="S43" s="65">
         <v>9200</v>
       </c>
-      <c r="T43" s="64">
+      <c r="T43" s="65">
         <v>9350</v>
       </c>
-      <c r="U43" s="64">
+      <c r="U43" s="65">
         <v>9610</v>
       </c>
-      <c r="V43" s="64">
+      <c r="V43" s="65">
         <v>9660</v>
       </c>
-      <c r="W43" s="64">
+      <c r="W43" s="65">
         <v>9470</v>
       </c>
-      <c r="X43" s="64">
+      <c r="X43" s="65">
         <v>9380</v>
       </c>
-      <c r="Y43" s="64">
+      <c r="Y43" s="65">
         <v>9470</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <f t="shared" si="0"/>
+    <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="64">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="64">
+      <c r="C44" s="65">
         <v>50648</v>
       </c>
-      <c r="D44" s="64">
+      <c r="D44" s="65">
         <v>46094</v>
       </c>
-      <c r="E44" s="64">
+      <c r="E44" s="65">
         <v>41568</v>
       </c>
-      <c r="F44" s="64">
+      <c r="F44" s="65">
         <v>62408</v>
       </c>
-      <c r="G44" s="64">
+      <c r="G44" s="65">
         <v>61862</v>
       </c>
-      <c r="H44" s="64">
+      <c r="H44" s="65">
         <v>62454</v>
       </c>
-      <c r="I44" s="64">
+      <c r="I44" s="65">
         <v>61323</v>
       </c>
-      <c r="J44" s="64">
+      <c r="J44" s="65">
         <v>60970</v>
       </c>
-      <c r="K44" s="64">
+      <c r="K44" s="65">
         <v>62010</v>
       </c>
-      <c r="L44" s="64">
+      <c r="L44" s="65">
         <v>63480</v>
       </c>
-      <c r="M44" s="64">
+      <c r="M44" s="65">
         <v>63710</v>
       </c>
-      <c r="N44" s="64">
+      <c r="N44" s="65">
         <v>66310</v>
       </c>
-      <c r="O44" s="64">
+      <c r="O44" s="65">
         <v>65660</v>
       </c>
-      <c r="P44" s="64">
+      <c r="P44" s="65">
         <v>64430</v>
       </c>
-      <c r="Q44" s="64">
+      <c r="Q44" s="65">
         <v>64190</v>
       </c>
-      <c r="R44" s="64">
+      <c r="R44" s="65">
         <v>64540</v>
       </c>
-      <c r="S44" s="64">
+      <c r="S44" s="65">
         <v>65250</v>
       </c>
-      <c r="T44" s="64">
+      <c r="T44" s="65">
         <v>67010</v>
       </c>
-      <c r="U44" s="64">
+      <c r="U44" s="65">
         <v>68260</v>
       </c>
-      <c r="V44" s="64">
+      <c r="V44" s="65">
         <v>67850</v>
       </c>
-      <c r="W44" s="64">
+      <c r="W44" s="65">
         <v>65050</v>
       </c>
-      <c r="X44" s="64">
+      <c r="X44" s="65">
         <v>64230</v>
       </c>
-      <c r="Y44" s="64">
+      <c r="Y44" s="65">
         <v>64670</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <f t="shared" si="0"/>
+    <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="64">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="64">
+      <c r="C45" s="65">
         <v>171665</v>
       </c>
-      <c r="D45" s="64">
+      <c r="D45" s="65">
         <v>172480</v>
       </c>
-      <c r="E45" s="64">
+      <c r="E45" s="65">
         <v>212925</v>
       </c>
-      <c r="F45" s="64">
+      <c r="F45" s="65">
         <v>280894</v>
       </c>
-      <c r="G45" s="64">
+      <c r="G45" s="65">
         <v>290470</v>
       </c>
-      <c r="H45" s="64">
+      <c r="H45" s="65">
         <v>292531</v>
       </c>
-      <c r="I45" s="64">
+      <c r="I45" s="65">
         <v>301390</v>
       </c>
-      <c r="J45" s="64">
+      <c r="J45" s="65">
         <v>304360</v>
       </c>
-      <c r="K45" s="64">
+      <c r="K45" s="65">
         <v>309280</v>
       </c>
-      <c r="L45" s="64">
+      <c r="L45" s="65">
         <v>318660</v>
       </c>
-      <c r="M45" s="64">
+      <c r="M45" s="65">
         <v>327690</v>
       </c>
-      <c r="N45" s="64">
+      <c r="N45" s="65">
         <v>339950</v>
       </c>
-      <c r="O45" s="64">
+      <c r="O45" s="65">
         <v>349360</v>
       </c>
-      <c r="P45" s="64">
+      <c r="P45" s="65">
         <v>352500</v>
       </c>
-      <c r="Q45" s="64">
+      <c r="Q45" s="65">
         <v>357190</v>
       </c>
-      <c r="R45" s="64">
+      <c r="R45" s="65">
         <v>363530</v>
       </c>
-      <c r="S45" s="64">
+      <c r="S45" s="65">
         <v>370780</v>
       </c>
-      <c r="T45" s="64">
+      <c r="T45" s="65">
         <v>374490</v>
       </c>
-      <c r="U45" s="64">
+      <c r="U45" s="65">
         <v>387420</v>
       </c>
-      <c r="V45" s="64">
+      <c r="V45" s="65">
         <v>390110</v>
       </c>
-      <c r="W45" s="64">
+      <c r="W45" s="65">
         <v>387360</v>
       </c>
-      <c r="X45" s="64">
+      <c r="X45" s="65">
         <v>374920</v>
       </c>
-      <c r="Y45" s="64">
+      <c r="Y45" s="65">
         <v>377680</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <f t="shared" si="0"/>
+    <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="64">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="64">
+      <c r="C46" s="65">
         <v>19886</v>
       </c>
-      <c r="D46" s="64">
+      <c r="D46" s="65">
         <v>21196</v>
       </c>
-      <c r="E46" s="64">
+      <c r="E46" s="65">
         <v>32501</v>
       </c>
-      <c r="F46" s="64">
+      <c r="F46" s="65">
         <v>31481</v>
       </c>
-      <c r="G46" s="64">
+      <c r="G46" s="65">
         <v>30888</v>
       </c>
-      <c r="H46" s="64">
+      <c r="H46" s="65">
         <v>31157</v>
       </c>
-      <c r="I46" s="64">
+      <c r="I46" s="65">
         <v>33186</v>
       </c>
-      <c r="J46" s="64">
+      <c r="J46" s="65">
         <v>33400</v>
       </c>
-      <c r="K46" s="64">
+      <c r="K46" s="65">
         <v>34070</v>
       </c>
-      <c r="L46" s="64">
+      <c r="L46" s="65">
         <v>35400</v>
       </c>
-      <c r="M46" s="64">
+      <c r="M46" s="65">
         <v>36560</v>
       </c>
-      <c r="N46" s="64">
+      <c r="N46" s="65">
         <v>37690</v>
       </c>
-      <c r="O46" s="64">
+      <c r="O46" s="65">
         <v>38350</v>
       </c>
-      <c r="P46" s="64">
+      <c r="P46" s="65">
         <v>39140</v>
       </c>
-      <c r="Q46" s="64">
+      <c r="Q46" s="65">
         <v>40300</v>
       </c>
-      <c r="R46" s="64">
+      <c r="R46" s="65">
         <v>41230</v>
       </c>
-      <c r="S46" s="64">
+      <c r="S46" s="65">
         <v>41670</v>
       </c>
-      <c r="T46" s="64">
+      <c r="T46" s="65">
         <v>42770</v>
       </c>
-      <c r="U46" s="64">
+      <c r="U46" s="65">
         <v>44030</v>
       </c>
-      <c r="V46" s="64">
+      <c r="V46" s="65">
         <v>44070</v>
       </c>
-      <c r="W46" s="64">
+      <c r="W46" s="65">
         <v>43120</v>
       </c>
-      <c r="X46" s="64">
+      <c r="X46" s="65">
         <v>42500</v>
       </c>
-      <c r="Y46" s="64">
+      <c r="Y46" s="65">
         <v>42650</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <f t="shared" si="0"/>
+    <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="64">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="64">
+      <c r="C47" s="65">
         <v>6424</v>
       </c>
-      <c r="D47" s="64">
+      <c r="D47" s="65">
         <v>6127</v>
       </c>
-      <c r="E47" s="64">
+      <c r="E47" s="65">
         <v>6675</v>
       </c>
-      <c r="F47" s="64">
+      <c r="F47" s="65">
         <v>7199</v>
       </c>
-      <c r="G47" s="64">
+      <c r="G47" s="65">
         <v>6932</v>
       </c>
-      <c r="H47" s="64">
+      <c r="H47" s="65">
         <v>6859</v>
       </c>
-      <c r="I47" s="64">
+      <c r="I47" s="65">
         <v>6491</v>
       </c>
-      <c r="J47" s="64">
+      <c r="J47" s="65">
         <v>6360</v>
       </c>
-      <c r="K47" s="64">
+      <c r="K47" s="65">
         <v>6240</v>
       </c>
-      <c r="L47" s="64">
+      <c r="L47" s="65">
         <v>6090</v>
       </c>
-      <c r="M47" s="64">
+      <c r="M47" s="65">
         <v>6010</v>
       </c>
-      <c r="N47" s="64">
+      <c r="N47" s="65">
         <v>5930</v>
       </c>
-      <c r="O47" s="64">
+      <c r="O47" s="65">
         <v>5880</v>
       </c>
-      <c r="P47" s="64">
+      <c r="P47" s="65">
         <v>5750</v>
       </c>
-      <c r="Q47" s="64">
+      <c r="Q47" s="65">
         <v>5680</v>
       </c>
-      <c r="R47" s="64">
+      <c r="R47" s="65">
         <v>5730</v>
       </c>
-      <c r="S47" s="64">
+      <c r="S47" s="65">
         <v>5800</v>
       </c>
-      <c r="T47" s="64">
+      <c r="T47" s="65">
         <v>5660</v>
       </c>
-      <c r="U47" s="64">
+      <c r="U47" s="65">
         <v>5810</v>
       </c>
-      <c r="V47" s="64">
+      <c r="V47" s="65">
         <v>5860</v>
       </c>
-      <c r="W47" s="64">
+      <c r="W47" s="65">
         <v>5420</v>
       </c>
-      <c r="X47" s="64">
+      <c r="X47" s="65">
         <v>5490</v>
       </c>
-      <c r="Y47" s="64">
+      <c r="Y47" s="65">
         <v>5440</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <f t="shared" si="0"/>
+    <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="64">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="64">
+      <c r="C48" s="65">
         <v>67126</v>
       </c>
-      <c r="D48" s="64">
+      <c r="D48" s="65">
         <v>60605</v>
       </c>
-      <c r="E48" s="64">
+      <c r="E48" s="65">
         <v>65596</v>
       </c>
-      <c r="F48" s="64">
+      <c r="F48" s="65">
         <v>81511</v>
       </c>
-      <c r="G48" s="64">
+      <c r="G48" s="65">
         <v>82895</v>
       </c>
-      <c r="H48" s="64">
+      <c r="H48" s="65">
         <v>83336</v>
       </c>
-      <c r="I48" s="64">
+      <c r="I48" s="65">
         <v>83279</v>
       </c>
-      <c r="J48" s="64">
+      <c r="J48" s="65">
         <v>83100</v>
       </c>
-      <c r="K48" s="64">
+      <c r="K48" s="65">
         <v>82680</v>
       </c>
-      <c r="L48" s="64">
+      <c r="L48" s="65">
         <v>84640</v>
       </c>
-      <c r="M48" s="64">
+      <c r="M48" s="65">
         <v>84720</v>
       </c>
-      <c r="N48" s="64">
+      <c r="N48" s="65">
         <v>87490</v>
       </c>
-      <c r="O48" s="64">
+      <c r="O48" s="65">
         <v>87860</v>
       </c>
-      <c r="P48" s="64">
+      <c r="P48" s="65">
         <v>87800</v>
       </c>
-      <c r="Q48" s="64">
+      <c r="Q48" s="65">
         <v>87670</v>
       </c>
-      <c r="R48" s="64">
+      <c r="R48" s="65">
         <v>89310</v>
       </c>
-      <c r="S48" s="64">
+      <c r="S48" s="65">
         <v>89250</v>
       </c>
-      <c r="T48" s="64">
+      <c r="T48" s="65">
         <v>90680</v>
       </c>
-      <c r="U48" s="64">
+      <c r="U48" s="65">
         <v>92690</v>
       </c>
-      <c r="V48" s="64">
+      <c r="V48" s="65">
         <v>92530</v>
       </c>
-      <c r="W48" s="64">
+      <c r="W48" s="65">
         <v>90310</v>
       </c>
-      <c r="X48" s="64">
+      <c r="X48" s="65">
         <v>88120</v>
       </c>
-      <c r="Y48" s="64">
+      <c r="Y48" s="65">
         <v>88820</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <f t="shared" si="0"/>
+    <row r="49" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="64">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="64">
+      <c r="C49" s="65">
         <v>50046</v>
       </c>
-      <c r="D49" s="64">
+      <c r="D49" s="65">
         <v>45941</v>
       </c>
-      <c r="E49" s="64">
+      <c r="E49" s="65">
         <v>57597</v>
       </c>
-      <c r="F49" s="64">
+      <c r="F49" s="65">
         <v>66046</v>
       </c>
-      <c r="G49" s="64">
+      <c r="G49" s="65">
         <v>66453</v>
       </c>
-      <c r="H49" s="64">
+      <c r="H49" s="65">
         <v>65205</v>
       </c>
-      <c r="I49" s="64">
+      <c r="I49" s="65">
         <v>66066</v>
       </c>
-      <c r="J49" s="64">
+      <c r="J49" s="65">
         <v>66240</v>
       </c>
-      <c r="K49" s="64">
+      <c r="K49" s="65">
         <v>68200</v>
       </c>
-      <c r="L49" s="64">
+      <c r="L49" s="65">
         <v>69770</v>
       </c>
-      <c r="M49" s="64">
+      <c r="M49" s="65">
         <v>70840</v>
       </c>
-      <c r="N49" s="64">
+      <c r="N49" s="65">
         <v>72500</v>
       </c>
-      <c r="O49" s="64">
+      <c r="O49" s="65">
         <v>73160</v>
       </c>
-      <c r="P49" s="64">
+      <c r="P49" s="65">
         <v>72220</v>
       </c>
-      <c r="Q49" s="64">
+      <c r="Q49" s="65">
         <v>73530</v>
       </c>
-      <c r="R49" s="64">
+      <c r="R49" s="65">
         <v>74900</v>
       </c>
-      <c r="S49" s="64">
+      <c r="S49" s="65">
         <v>75990</v>
       </c>
-      <c r="T49" s="64">
+      <c r="T49" s="65">
         <v>78500</v>
       </c>
-      <c r="U49" s="64">
+      <c r="U49" s="65">
         <v>81790</v>
       </c>
-      <c r="V49" s="64">
+      <c r="V49" s="65">
         <v>83300</v>
       </c>
-      <c r="W49" s="64">
+      <c r="W49" s="65">
         <v>82670</v>
       </c>
-      <c r="X49" s="64">
+      <c r="X49" s="65">
         <v>81360</v>
       </c>
-      <c r="Y49" s="64">
+      <c r="Y49" s="65">
         <v>82790</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <f t="shared" si="0"/>
+    <row r="50" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="64">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="64">
+      <c r="C50" s="65">
         <v>23580</v>
       </c>
-      <c r="D50" s="64">
+      <c r="D50" s="65">
         <v>21854</v>
       </c>
-      <c r="E50" s="64">
+      <c r="E50" s="65">
         <v>19437</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="65">
         <v>17651</v>
       </c>
-      <c r="G50" s="64">
+      <c r="G50" s="65">
         <v>17311</v>
       </c>
-      <c r="H50" s="64">
+      <c r="H50" s="65">
         <v>17603</v>
       </c>
-      <c r="I50" s="64">
+      <c r="I50" s="65">
         <v>17924</v>
       </c>
-      <c r="J50" s="64">
+      <c r="J50" s="65">
         <v>17510</v>
       </c>
-      <c r="K50" s="64">
+      <c r="K50" s="65">
         <v>17460</v>
       </c>
-      <c r="L50" s="64">
+      <c r="L50" s="65">
         <v>17640</v>
       </c>
-      <c r="M50" s="64">
+      <c r="M50" s="65">
         <v>17370</v>
       </c>
-      <c r="N50" s="64">
+      <c r="N50" s="65">
         <v>17540</v>
       </c>
-      <c r="O50" s="64">
+      <c r="O50" s="65">
         <v>17270</v>
       </c>
-      <c r="P50" s="64">
+      <c r="P50" s="65">
         <v>17230</v>
       </c>
-      <c r="Q50" s="64">
+      <c r="Q50" s="65">
         <v>16790</v>
       </c>
-      <c r="R50" s="64">
+      <c r="R50" s="65">
         <v>16920</v>
       </c>
-      <c r="S50" s="64">
+      <c r="S50" s="65">
         <v>16600</v>
       </c>
-      <c r="T50" s="64">
+      <c r="T50" s="65">
         <v>16220</v>
       </c>
-      <c r="U50" s="64">
+      <c r="U50" s="65">
         <v>16600</v>
       </c>
-      <c r="V50" s="64">
+      <c r="V50" s="65">
         <v>16370</v>
       </c>
-      <c r="W50" s="64">
+      <c r="W50" s="65">
         <v>15850</v>
       </c>
-      <c r="X50" s="64">
+      <c r="X50" s="65">
         <v>15230</v>
       </c>
-      <c r="Y50" s="64">
+      <c r="Y50" s="65">
         <v>15270</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <f t="shared" si="0"/>
+    <row r="51" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="64">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="64">
+      <c r="C51" s="65">
         <v>67743</v>
       </c>
-      <c r="D51" s="64">
+      <c r="D51" s="65">
         <v>52038</v>
       </c>
-      <c r="E51" s="64">
+      <c r="E51" s="65">
         <v>58545</v>
       </c>
-      <c r="F51" s="64">
+      <c r="F51" s="65">
         <v>64687</v>
       </c>
-      <c r="G51" s="64">
+      <c r="G51" s="65">
         <v>64135</v>
       </c>
-      <c r="H51" s="64">
+      <c r="H51" s="65">
         <v>62705</v>
       </c>
-      <c r="I51" s="64">
+      <c r="I51" s="65">
         <v>61425</v>
       </c>
-      <c r="J51" s="64">
+      <c r="J51" s="65">
         <v>60810</v>
       </c>
-      <c r="K51" s="64">
+      <c r="K51" s="65">
         <v>60460</v>
       </c>
-      <c r="L51" s="64">
+      <c r="L51" s="65">
         <v>60710</v>
       </c>
-      <c r="M51" s="64">
+      <c r="M51" s="65">
         <v>60740</v>
       </c>
-      <c r="N51" s="64">
+      <c r="N51" s="65">
         <v>61560</v>
       </c>
-      <c r="O51" s="64">
+      <c r="O51" s="65">
         <v>61130</v>
       </c>
-      <c r="P51" s="64">
+      <c r="P51" s="65">
         <v>60040</v>
       </c>
-      <c r="Q51" s="64">
+      <c r="Q51" s="65">
         <v>60420</v>
       </c>
-      <c r="R51" s="64">
+      <c r="R51" s="65">
         <v>61450</v>
       </c>
-      <c r="S51" s="64">
+      <c r="S51" s="65">
         <v>60940</v>
       </c>
-      <c r="T51" s="64">
+      <c r="T51" s="65">
         <v>61020</v>
       </c>
-      <c r="U51" s="64">
+      <c r="U51" s="65">
         <v>62250</v>
       </c>
-      <c r="V51" s="64">
+      <c r="V51" s="65">
         <v>61750</v>
       </c>
-      <c r="W51" s="64">
+      <c r="W51" s="65">
         <v>60700</v>
       </c>
-      <c r="X51" s="64">
+      <c r="X51" s="65">
         <v>58540</v>
       </c>
-      <c r="Y51" s="64">
+      <c r="Y51" s="65">
         <v>58330</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <f t="shared" si="0"/>
+    <row r="52" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="64">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="64">
+      <c r="C52" s="65">
         <v>6161</v>
       </c>
-      <c r="D52" s="64">
+      <c r="D52" s="65">
         <v>5823</v>
       </c>
-      <c r="E52" s="64">
+      <c r="E52" s="65">
         <v>6462</v>
       </c>
-      <c r="F52" s="64">
+      <c r="F52" s="65">
         <v>5695</v>
       </c>
-      <c r="G52" s="64">
+      <c r="G52" s="65">
         <v>5600</v>
       </c>
-      <c r="H52" s="64">
+      <c r="H52" s="65">
         <v>5553</v>
       </c>
-      <c r="I52" s="64">
+      <c r="I52" s="65">
         <v>5489</v>
       </c>
-      <c r="J52" s="64">
+      <c r="J52" s="65">
         <v>5590</v>
       </c>
-      <c r="K52" s="64">
+      <c r="K52" s="65">
         <v>5550</v>
       </c>
-      <c r="L52" s="64">
+      <c r="L52" s="65">
         <v>5700</v>
       </c>
-      <c r="M52" s="64">
+      <c r="M52" s="65">
         <v>5660</v>
       </c>
-      <c r="N52" s="64">
+      <c r="N52" s="65">
         <v>5740</v>
       </c>
-      <c r="O52" s="64">
+      <c r="O52" s="65">
         <v>5770</v>
       </c>
-      <c r="P52" s="64">
+      <c r="P52" s="65">
         <v>5770</v>
       </c>
-      <c r="Q52" s="64">
+      <c r="Q52" s="65">
         <v>5950</v>
       </c>
-      <c r="R52" s="64">
+      <c r="R52" s="65">
         <v>5880</v>
       </c>
-      <c r="S52" s="64">
+      <c r="S52" s="65">
         <v>6130</v>
       </c>
-      <c r="T52" s="64">
+      <c r="T52" s="65">
         <v>6200</v>
       </c>
-      <c r="U52" s="64">
+      <c r="U52" s="65">
         <v>6290</v>
       </c>
-      <c r="V52" s="64">
+      <c r="V52" s="65">
         <v>6170</v>
       </c>
-      <c r="W52" s="64">
+      <c r="W52" s="65">
         <v>5960</v>
       </c>
-      <c r="X52" s="64">
+      <c r="X52" s="65">
         <v>5720</v>
       </c>
-      <c r="Y52" s="64">
+      <c r="Y52" s="65">
         <v>5590</v>
       </c>
     </row>

--- a/ch4/tabn219_20.xlsx
+++ b/ch4/tabn219_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/709290408fa44f9b/Documents/GitHub/data/ch4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{D9DE1B3A-5B0B-46AD-9146-389A614A4D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EDB2D03-540F-428F-A630-5783CBD417C1}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{D9DE1B3A-5B0B-46AD-9146-389A614A4D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0DC4F95-D585-40EE-89D3-C9D6366AF9CF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2043F598-A324-425E-B2FA-4C07D4A07404}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="158">
   <si>
     <t>Table 219.20. Public high school graduates, by region, state, and jurisdiction: Selected years, 1980-81 through 2028-29</t>
   </si>
@@ -536,9 +536,6 @@
   </si>
   <si>
     <t xml:space="preserve">  Wyoming </t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
 </sst>
 </file>
@@ -7342,4020 +7339,3863 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D36248-ECBE-4C90-833D-9DDB9B4B2A5C}">
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="24" width="9.875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="64" t="s">
         <v>35</v>
       </c>
+      <c r="B1" s="65">
+        <v>1981</v>
+      </c>
       <c r="C1" s="65">
-        <v>1981</v>
+        <v>1990</v>
       </c>
       <c r="D1" s="65">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="E1" s="65">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F1" s="65">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G1" s="65">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H1" s="65">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="I1" s="65">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="J1" s="65">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="K1" s="65">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="L1" s="65">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="M1" s="65">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N1" s="65">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="O1" s="65">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="P1" s="65">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Q1" s="65">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="R1" s="65">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="S1" s="65">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="T1" s="65">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="U1" s="65">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="V1" s="65">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="W1" s="65">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="X1" s="65">
-        <v>2028</v>
-      </c>
-      <c r="Y1" s="65">
         <v>2029</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64">
-        <v>1</v>
-      </c>
-      <c r="B2" s="64" t="s">
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
         <v>108</v>
       </c>
+      <c r="B2" s="65">
+        <v>44894</v>
+      </c>
       <c r="C2" s="65">
-        <v>44894</v>
+        <v>40485</v>
       </c>
       <c r="D2" s="65">
-        <v>40485</v>
+        <v>37819</v>
       </c>
       <c r="E2" s="65">
-        <v>37819</v>
+        <v>43166</v>
       </c>
       <c r="F2" s="65">
-        <v>43166</v>
+        <v>46035</v>
       </c>
       <c r="G2" s="65">
-        <v>46035</v>
+        <v>45394</v>
       </c>
       <c r="H2" s="65">
-        <v>45394</v>
+        <v>44233</v>
       </c>
       <c r="I2" s="65">
-        <v>44233</v>
+        <v>44540</v>
       </c>
       <c r="J2" s="65">
-        <v>44540</v>
+        <v>45420</v>
       </c>
       <c r="K2" s="65">
-        <v>45420</v>
+        <v>46070</v>
       </c>
       <c r="L2" s="65">
-        <v>46070</v>
+        <v>47560</v>
       </c>
       <c r="M2" s="65">
-        <v>47560</v>
+        <v>48260</v>
       </c>
       <c r="N2" s="65">
-        <v>48260</v>
+        <v>45740</v>
       </c>
       <c r="O2" s="65">
-        <v>45740</v>
+        <v>44070</v>
       </c>
       <c r="P2" s="65">
-        <v>44070</v>
+        <v>43490</v>
       </c>
       <c r="Q2" s="65">
-        <v>43490</v>
+        <v>43380</v>
       </c>
       <c r="R2" s="65">
-        <v>43380</v>
+        <v>43600</v>
       </c>
       <c r="S2" s="65">
-        <v>43600</v>
+        <v>43870</v>
       </c>
       <c r="T2" s="65">
-        <v>43870</v>
+        <v>45410</v>
       </c>
       <c r="U2" s="65">
-        <v>45410</v>
+        <v>45810</v>
       </c>
       <c r="V2" s="65">
-        <v>45810</v>
+        <v>44770</v>
       </c>
       <c r="W2" s="65">
-        <v>44770</v>
+        <v>42960</v>
       </c>
       <c r="X2" s="65">
-        <v>42960</v>
-      </c>
-      <c r="Y2" s="65">
         <v>43610</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64">
-        <v>2</v>
-      </c>
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
         <v>109</v>
       </c>
+      <c r="B3" s="65">
+        <v>5343</v>
+      </c>
       <c r="C3" s="65">
-        <v>5343</v>
+        <v>5386</v>
       </c>
       <c r="D3" s="65">
-        <v>5386</v>
+        <v>6615</v>
       </c>
       <c r="E3" s="65">
-        <v>6615</v>
+        <v>8245</v>
       </c>
       <c r="F3" s="65">
-        <v>8245</v>
+        <v>8064</v>
       </c>
       <c r="G3" s="65">
-        <v>8064</v>
+        <v>7989</v>
       </c>
       <c r="H3" s="65">
-        <v>7989</v>
+        <v>7860</v>
       </c>
       <c r="I3" s="65">
+        <v>7720</v>
+      </c>
+      <c r="J3" s="65">
         <v>7860</v>
       </c>
-      <c r="J3" s="65">
-        <v>7720</v>
-      </c>
       <c r="K3" s="65">
-        <v>7860</v>
+        <v>7840</v>
       </c>
       <c r="L3" s="65">
+        <v>7910</v>
+      </c>
+      <c r="M3" s="65">
+        <v>8050</v>
+      </c>
+      <c r="N3" s="65">
+        <v>8030</v>
+      </c>
+      <c r="O3" s="65">
         <v>7840</v>
       </c>
-      <c r="M3" s="65">
-        <v>7910</v>
-      </c>
-      <c r="N3" s="65">
-        <v>8050</v>
-      </c>
-      <c r="O3" s="65">
+      <c r="P3" s="65">
+        <v>7830</v>
+      </c>
+      <c r="Q3" s="65">
+        <v>7930</v>
+      </c>
+      <c r="R3" s="65">
         <v>8030</v>
       </c>
-      <c r="P3" s="65">
-        <v>7840</v>
-      </c>
-      <c r="Q3" s="65">
-        <v>7830</v>
-      </c>
-      <c r="R3" s="65">
-        <v>7930</v>
-      </c>
       <c r="S3" s="65">
-        <v>8030</v>
+        <v>8320</v>
       </c>
       <c r="T3" s="65">
-        <v>8320</v>
+        <v>8580</v>
       </c>
       <c r="U3" s="65">
-        <v>8580</v>
+        <v>8740</v>
       </c>
       <c r="V3" s="65">
-        <v>8740</v>
+        <v>8780</v>
       </c>
       <c r="W3" s="65">
-        <v>8780</v>
+        <v>8660</v>
       </c>
       <c r="X3" s="65">
-        <v>8660</v>
-      </c>
-      <c r="Y3" s="65">
         <v>8690</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64">
-        <v>3</v>
-      </c>
-      <c r="B4" s="64" t="s">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
         <v>110</v>
       </c>
+      <c r="B4" s="65">
+        <v>28416</v>
+      </c>
       <c r="C4" s="65">
-        <v>28416</v>
+        <v>32103</v>
       </c>
       <c r="D4" s="65">
-        <v>32103</v>
+        <v>38304</v>
       </c>
       <c r="E4" s="65">
-        <v>38304</v>
+        <v>61145</v>
       </c>
       <c r="F4" s="65">
-        <v>61145</v>
+        <v>64472</v>
       </c>
       <c r="G4" s="65">
-        <v>64472</v>
+        <v>63208</v>
       </c>
       <c r="H4" s="65">
-        <v>63208</v>
+        <v>62208</v>
       </c>
       <c r="I4" s="65">
-        <v>62208</v>
+        <v>66700</v>
       </c>
       <c r="J4" s="65">
-        <v>66700</v>
+        <v>67200</v>
       </c>
       <c r="K4" s="65">
-        <v>67200</v>
+        <v>67120</v>
       </c>
       <c r="L4" s="65">
-        <v>67120</v>
+        <v>68770</v>
       </c>
       <c r="M4" s="65">
-        <v>68770</v>
+        <v>69560</v>
       </c>
       <c r="N4" s="65">
-        <v>69560</v>
+        <v>70710</v>
       </c>
       <c r="O4" s="65">
-        <v>70710</v>
+        <v>69610</v>
       </c>
       <c r="P4" s="65">
-        <v>69610</v>
+        <v>71070</v>
       </c>
       <c r="Q4" s="65">
-        <v>71070</v>
+        <v>70940</v>
       </c>
       <c r="R4" s="65">
-        <v>70940</v>
+        <v>72200</v>
       </c>
       <c r="S4" s="65">
-        <v>72200</v>
+        <v>74230</v>
       </c>
       <c r="T4" s="65">
-        <v>74230</v>
+        <v>76480</v>
       </c>
       <c r="U4" s="65">
-        <v>76480</v>
+        <v>77540</v>
       </c>
       <c r="V4" s="65">
-        <v>77540</v>
+        <v>75780</v>
       </c>
       <c r="W4" s="65">
-        <v>75780</v>
+        <v>72450</v>
       </c>
       <c r="X4" s="65">
-        <v>72450</v>
-      </c>
-      <c r="Y4" s="65">
         <v>72560</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64">
-        <v>4</v>
-      </c>
-      <c r="B5" s="64" t="s">
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
         <v>111</v>
       </c>
+      <c r="B5" s="65">
+        <v>29577</v>
+      </c>
       <c r="C5" s="65">
-        <v>29577</v>
+        <v>26475</v>
       </c>
       <c r="D5" s="65">
-        <v>26475</v>
+        <v>27335</v>
       </c>
       <c r="E5" s="65">
-        <v>27335</v>
+        <v>28276</v>
       </c>
       <c r="F5" s="65">
-        <v>28276</v>
+        <v>28205</v>
       </c>
       <c r="G5" s="65">
-        <v>28205</v>
+        <v>28419</v>
       </c>
       <c r="H5" s="65">
-        <v>28419</v>
+        <v>28928</v>
       </c>
       <c r="I5" s="65">
-        <v>28928</v>
+        <v>29610</v>
       </c>
       <c r="J5" s="65">
-        <v>29610</v>
+        <v>30350</v>
       </c>
       <c r="K5" s="65">
-        <v>30350</v>
+        <v>30290</v>
       </c>
       <c r="L5" s="65">
-        <v>30290</v>
+        <v>30750</v>
       </c>
       <c r="M5" s="65">
-        <v>30750</v>
+        <v>31020</v>
       </c>
       <c r="N5" s="65">
-        <v>31020</v>
+        <v>31060</v>
       </c>
       <c r="O5" s="65">
-        <v>31060</v>
+        <v>31320</v>
       </c>
       <c r="P5" s="65">
-        <v>31320</v>
+        <v>30800</v>
       </c>
       <c r="Q5" s="65">
-        <v>30800</v>
+        <v>30960</v>
       </c>
       <c r="R5" s="65">
-        <v>30960</v>
+        <v>30940</v>
       </c>
       <c r="S5" s="65">
-        <v>30940</v>
+        <v>30780</v>
       </c>
       <c r="T5" s="65">
-        <v>30780</v>
+        <v>32990</v>
       </c>
       <c r="U5" s="65">
-        <v>32990</v>
+        <v>33030</v>
       </c>
       <c r="V5" s="65">
-        <v>33030</v>
+        <v>32140</v>
       </c>
       <c r="W5" s="65">
-        <v>32140</v>
+        <v>31350</v>
       </c>
       <c r="X5" s="65">
-        <v>31350</v>
-      </c>
-      <c r="Y5" s="65">
         <v>31460</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="64">
-        <v>5</v>
-      </c>
-      <c r="B6" s="64" t="s">
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
         <v>112</v>
       </c>
+      <c r="B6" s="65">
+        <v>242172</v>
+      </c>
       <c r="C6" s="65">
-        <v>242172</v>
+        <v>236291</v>
       </c>
       <c r="D6" s="65">
-        <v>236291</v>
+        <v>309866</v>
       </c>
       <c r="E6" s="65">
-        <v>309866</v>
+        <v>404987</v>
       </c>
       <c r="F6" s="65">
-        <v>404987</v>
+        <v>410467</v>
       </c>
       <c r="G6" s="65">
-        <v>410467</v>
+        <v>418664</v>
       </c>
       <c r="H6" s="65">
-        <v>418664</v>
+        <v>422125</v>
       </c>
       <c r="I6" s="65">
-        <v>422125</v>
+        <v>424080</v>
       </c>
       <c r="J6" s="65">
-        <v>424080</v>
+        <v>422830</v>
       </c>
       <c r="K6" s="65">
-        <v>422830</v>
+        <v>419190</v>
       </c>
       <c r="L6" s="65">
-        <v>419190</v>
+        <v>411710</v>
       </c>
       <c r="M6" s="65">
-        <v>411710</v>
+        <v>420500</v>
       </c>
       <c r="N6" s="65">
-        <v>420500</v>
+        <v>420780</v>
       </c>
       <c r="O6" s="65">
-        <v>420780</v>
+        <v>421890</v>
       </c>
       <c r="P6" s="65">
-        <v>421890</v>
+        <v>427540</v>
       </c>
       <c r="Q6" s="65">
-        <v>427540</v>
+        <v>430350</v>
       </c>
       <c r="R6" s="65">
-        <v>430350</v>
+        <v>434120</v>
       </c>
       <c r="S6" s="65">
-        <v>434120</v>
+        <v>444030</v>
       </c>
       <c r="T6" s="65">
-        <v>444030</v>
+        <v>429550</v>
       </c>
       <c r="U6" s="65">
-        <v>429550</v>
+        <v>425400</v>
       </c>
       <c r="V6" s="65">
-        <v>425400</v>
+        <v>408150</v>
       </c>
       <c r="W6" s="65">
-        <v>408150</v>
+        <v>418160</v>
       </c>
       <c r="X6" s="65">
-        <v>418160</v>
-      </c>
-      <c r="Y6" s="65">
         <v>416950</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="64">
-        <v>6</v>
-      </c>
-      <c r="B7" s="64" t="s">
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
         <v>113</v>
       </c>
+      <c r="B7" s="65">
+        <v>35897</v>
+      </c>
       <c r="C7" s="65">
-        <v>35897</v>
+        <v>32967</v>
       </c>
       <c r="D7" s="65">
-        <v>32967</v>
+        <v>38924</v>
       </c>
       <c r="E7" s="65">
-        <v>38924</v>
+        <v>49321</v>
       </c>
       <c r="F7" s="65">
-        <v>49321</v>
+        <v>50122</v>
       </c>
       <c r="G7" s="65">
-        <v>50122</v>
+        <v>50087</v>
       </c>
       <c r="H7" s="65">
-        <v>50087</v>
+        <v>50968</v>
       </c>
       <c r="I7" s="65">
-        <v>50968</v>
+        <v>51310</v>
       </c>
       <c r="J7" s="65">
-        <v>51310</v>
+        <v>51450</v>
       </c>
       <c r="K7" s="65">
-        <v>51450</v>
+        <v>53310</v>
       </c>
       <c r="L7" s="65">
-        <v>53310</v>
+        <v>54060</v>
       </c>
       <c r="M7" s="65">
-        <v>54060</v>
+        <v>56050</v>
       </c>
       <c r="N7" s="65">
-        <v>56050</v>
+        <v>57030</v>
       </c>
       <c r="O7" s="65">
-        <v>57030</v>
+        <v>57760</v>
       </c>
       <c r="P7" s="65">
-        <v>57760</v>
+        <v>59150</v>
       </c>
       <c r="Q7" s="65">
-        <v>59150</v>
+        <v>59290</v>
       </c>
       <c r="R7" s="65">
-        <v>59290</v>
+        <v>59790</v>
       </c>
       <c r="S7" s="65">
-        <v>59790</v>
+        <v>61090</v>
       </c>
       <c r="T7" s="65">
-        <v>61090</v>
+        <v>61990</v>
       </c>
       <c r="U7" s="65">
-        <v>61990</v>
+        <v>62170</v>
       </c>
       <c r="V7" s="65">
-        <v>62170</v>
+        <v>60930</v>
       </c>
       <c r="W7" s="65">
-        <v>60930</v>
+        <v>59170</v>
       </c>
       <c r="X7" s="65">
-        <v>59170</v>
-      </c>
-      <c r="Y7" s="65">
         <v>59040</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="64">
-        <v>7</v>
-      </c>
-      <c r="B8" s="64" t="s">
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
         <v>114</v>
       </c>
+      <c r="B8" s="65">
+        <v>38369</v>
+      </c>
       <c r="C8" s="65">
-        <v>38369</v>
+        <v>27878</v>
       </c>
       <c r="D8" s="65">
-        <v>27878</v>
+        <v>31562</v>
       </c>
       <c r="E8" s="65">
-        <v>31562</v>
+        <v>34495</v>
       </c>
       <c r="F8" s="65">
-        <v>34495</v>
+        <v>38854</v>
       </c>
       <c r="G8" s="65">
-        <v>38854</v>
+        <v>38681</v>
       </c>
       <c r="H8" s="65">
-        <v>38681</v>
+        <v>38722</v>
       </c>
       <c r="I8" s="65">
-        <v>38722</v>
+        <v>37860</v>
       </c>
       <c r="J8" s="65">
-        <v>37860</v>
+        <v>37160</v>
       </c>
       <c r="K8" s="65">
-        <v>37160</v>
+        <v>37420</v>
       </c>
       <c r="L8" s="65">
-        <v>37420</v>
+        <v>37890</v>
       </c>
       <c r="M8" s="65">
-        <v>37890</v>
+        <v>37130</v>
       </c>
       <c r="N8" s="65">
-        <v>37130</v>
+        <v>37040</v>
       </c>
       <c r="O8" s="65">
-        <v>37040</v>
+        <v>35980</v>
       </c>
       <c r="P8" s="65">
-        <v>35980</v>
+        <v>36640</v>
       </c>
       <c r="Q8" s="65">
-        <v>36640</v>
+        <v>35810</v>
       </c>
       <c r="R8" s="65">
-        <v>35810</v>
+        <v>35670</v>
       </c>
       <c r="S8" s="65">
-        <v>35670</v>
+        <v>35220</v>
       </c>
       <c r="T8" s="65">
-        <v>35220</v>
+        <v>35550</v>
       </c>
       <c r="U8" s="65">
-        <v>35550</v>
+        <v>34450</v>
       </c>
       <c r="V8" s="65">
-        <v>34450</v>
+        <v>33720</v>
       </c>
       <c r="W8" s="65">
-        <v>33720</v>
+        <v>32860</v>
       </c>
       <c r="X8" s="65">
-        <v>32860</v>
-      </c>
-      <c r="Y8" s="65">
         <v>32610</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="64">
-        <v>8</v>
-      </c>
-      <c r="B9" s="64" t="s">
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
         <v>115</v>
       </c>
+      <c r="B9" s="65">
+        <v>7349</v>
+      </c>
       <c r="C9" s="65">
-        <v>7349</v>
+        <v>5550</v>
       </c>
       <c r="D9" s="65">
+        <v>6108</v>
+      </c>
+      <c r="E9" s="65">
+        <v>8133</v>
+      </c>
+      <c r="F9" s="65">
+        <v>8043</v>
+      </c>
+      <c r="G9" s="65">
+        <v>8247</v>
+      </c>
+      <c r="H9" s="65">
+        <v>8070</v>
+      </c>
+      <c r="I9" s="65">
+        <v>8240</v>
+      </c>
+      <c r="J9" s="65">
+        <v>8390</v>
+      </c>
+      <c r="K9" s="65">
+        <v>8480</v>
+      </c>
+      <c r="L9" s="65">
+        <v>8690</v>
+      </c>
+      <c r="M9" s="65">
+        <v>8930</v>
+      </c>
+      <c r="N9" s="65">
+        <v>9010</v>
+      </c>
+      <c r="O9" s="65">
+        <v>9080</v>
+      </c>
+      <c r="P9" s="65">
+        <v>9260</v>
+      </c>
+      <c r="Q9" s="65">
+        <v>9280</v>
+      </c>
+      <c r="R9" s="65">
+        <v>9500</v>
+      </c>
+      <c r="S9" s="65">
+        <v>9880</v>
+      </c>
+      <c r="T9" s="65">
+        <v>9920</v>
+      </c>
+      <c r="U9" s="65">
+        <v>10240</v>
+      </c>
+      <c r="V9" s="65">
+        <v>10060</v>
+      </c>
+      <c r="W9" s="65">
+        <v>9740</v>
+      </c>
+      <c r="X9" s="65">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="65">
+        <v>4848</v>
+      </c>
+      <c r="C10" s="65">
+        <v>3626</v>
+      </c>
+      <c r="D10" s="65">
+        <v>2695</v>
+      </c>
+      <c r="E10" s="65">
+        <v>3602</v>
+      </c>
+      <c r="F10" s="65">
+        <v>3477</v>
+      </c>
+      <c r="G10" s="65">
+        <v>3860</v>
+      </c>
+      <c r="H10" s="65">
+        <v>3961</v>
+      </c>
+      <c r="I10" s="65">
+        <v>3880</v>
+      </c>
+      <c r="J10" s="65">
+        <v>3990</v>
+      </c>
+      <c r="K10" s="65">
+        <v>4510</v>
+      </c>
+      <c r="L10" s="65">
+        <v>4430</v>
+      </c>
+      <c r="M10" s="65">
+        <v>4200</v>
+      </c>
+      <c r="N10" s="65">
+        <v>4290</v>
+      </c>
+      <c r="O10" s="65">
+        <v>4270</v>
+      </c>
+      <c r="P10" s="65">
+        <v>4320</v>
+      </c>
+      <c r="Q10" s="65">
+        <v>4310</v>
+      </c>
+      <c r="R10" s="65">
+        <v>4630</v>
+      </c>
+      <c r="S10" s="65">
+        <v>4970</v>
+      </c>
+      <c r="T10" s="65">
+        <v>5520</v>
+      </c>
+      <c r="U10" s="65">
         <v>5550</v>
-      </c>
-      <c r="E9" s="65">
-        <v>6108</v>
-      </c>
-      <c r="F9" s="65">
-        <v>8133</v>
-      </c>
-      <c r="G9" s="65">
-        <v>8043</v>
-      </c>
-      <c r="H9" s="65">
-        <v>8247</v>
-      </c>
-      <c r="I9" s="65">
-        <v>8070</v>
-      </c>
-      <c r="J9" s="65">
-        <v>8240</v>
-      </c>
-      <c r="K9" s="65">
-        <v>8390</v>
-      </c>
-      <c r="L9" s="65">
-        <v>8480</v>
-      </c>
-      <c r="M9" s="65">
-        <v>8690</v>
-      </c>
-      <c r="N9" s="65">
-        <v>8930</v>
-      </c>
-      <c r="O9" s="65">
-        <v>9010</v>
-      </c>
-      <c r="P9" s="65">
-        <v>9080</v>
-      </c>
-      <c r="Q9" s="65">
-        <v>9260</v>
-      </c>
-      <c r="R9" s="65">
-        <v>9280</v>
-      </c>
-      <c r="S9" s="65">
-        <v>9500</v>
-      </c>
-      <c r="T9" s="65">
-        <v>9880</v>
-      </c>
-      <c r="U9" s="65">
-        <v>9920</v>
-      </c>
-      <c r="V9" s="65">
-        <v>10240</v>
-      </c>
-      <c r="W9" s="65">
-        <v>10060</v>
-      </c>
-      <c r="X9" s="65">
-        <v>9740</v>
-      </c>
-      <c r="Y9" s="65">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="64">
-        <v>9</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="65">
-        <v>4848</v>
-      </c>
-      <c r="D10" s="65">
-        <v>3626</v>
-      </c>
-      <c r="E10" s="65">
-        <v>2695</v>
-      </c>
-      <c r="F10" s="65">
-        <v>3602</v>
-      </c>
-      <c r="G10" s="65">
-        <v>3477</v>
-      </c>
-      <c r="H10" s="65">
-        <v>3860</v>
-      </c>
-      <c r="I10" s="65">
-        <v>3961</v>
-      </c>
-      <c r="J10" s="65">
-        <v>3880</v>
-      </c>
-      <c r="K10" s="65">
-        <v>3990</v>
-      </c>
-      <c r="L10" s="65">
-        <v>4510</v>
-      </c>
-      <c r="M10" s="65">
-        <v>4430</v>
-      </c>
-      <c r="N10" s="65">
-        <v>4200</v>
-      </c>
-      <c r="O10" s="65">
-        <v>4290</v>
-      </c>
-      <c r="P10" s="65">
-        <v>4270</v>
-      </c>
-      <c r="Q10" s="65">
-        <v>4320</v>
-      </c>
-      <c r="R10" s="65">
-        <v>4310</v>
-      </c>
-      <c r="S10" s="65">
-        <v>4630</v>
-      </c>
-      <c r="T10" s="65">
-        <v>4970</v>
-      </c>
-      <c r="U10" s="65">
-        <v>5520</v>
       </c>
       <c r="V10" s="65">
         <v>5550</v>
       </c>
       <c r="W10" s="65">
-        <v>5550</v>
+        <v>5640</v>
       </c>
       <c r="X10" s="65">
-        <v>5640</v>
-      </c>
-      <c r="Y10" s="65">
         <v>6020</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="64">
-        <v>10</v>
-      </c>
-      <c r="B11" s="64" t="s">
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
         <v>116</v>
       </c>
+      <c r="B11" s="65">
+        <v>88755</v>
+      </c>
       <c r="C11" s="65">
-        <v>88755</v>
+        <v>88934</v>
       </c>
       <c r="D11" s="65">
-        <v>88934</v>
+        <v>106708</v>
       </c>
       <c r="E11" s="65">
-        <v>106708</v>
+        <v>156130</v>
       </c>
       <c r="F11" s="65">
-        <v>156130</v>
+        <v>155493</v>
       </c>
       <c r="G11" s="65">
-        <v>155493</v>
+        <v>151964</v>
       </c>
       <c r="H11" s="65">
-        <v>151964</v>
+        <v>158029</v>
       </c>
       <c r="I11" s="65">
-        <v>158029</v>
+        <v>158440</v>
       </c>
       <c r="J11" s="65">
-        <v>158440</v>
+        <v>163740</v>
       </c>
       <c r="K11" s="65">
-        <v>163740</v>
+        <v>166540</v>
       </c>
       <c r="L11" s="65">
-        <v>166540</v>
+        <v>170820</v>
       </c>
       <c r="M11" s="65">
-        <v>170820</v>
+        <v>176160</v>
       </c>
       <c r="N11" s="65">
-        <v>176160</v>
+        <v>179520</v>
       </c>
       <c r="O11" s="65">
-        <v>179520</v>
+        <v>175370</v>
       </c>
       <c r="P11" s="65">
-        <v>175370</v>
+        <v>176380</v>
       </c>
       <c r="Q11" s="65">
-        <v>176380</v>
+        <v>179930</v>
       </c>
       <c r="R11" s="65">
-        <v>179930</v>
+        <v>182780</v>
       </c>
       <c r="S11" s="65">
-        <v>182780</v>
+        <v>192590</v>
       </c>
       <c r="T11" s="65">
-        <v>192590</v>
+        <v>190040</v>
       </c>
       <c r="U11" s="65">
-        <v>190040</v>
+        <v>197900</v>
       </c>
       <c r="V11" s="65">
-        <v>197900</v>
+        <v>192690</v>
       </c>
       <c r="W11" s="65">
-        <v>192690</v>
+        <v>187880</v>
       </c>
       <c r="X11" s="65">
-        <v>187880</v>
-      </c>
-      <c r="Y11" s="65">
         <v>190410</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="64">
-        <v>11</v>
-      </c>
-      <c r="B12" s="64" t="s">
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
         <v>117</v>
       </c>
+      <c r="B12" s="65">
+        <v>62963</v>
+      </c>
       <c r="C12" s="65">
-        <v>62963</v>
+        <v>56605</v>
       </c>
       <c r="D12" s="65">
-        <v>56605</v>
+        <v>62563</v>
       </c>
       <c r="E12" s="65">
-        <v>62563</v>
+        <v>91561</v>
       </c>
       <c r="F12" s="65">
-        <v>91561</v>
+        <v>92338</v>
       </c>
       <c r="G12" s="65">
-        <v>92338</v>
+        <v>90582</v>
       </c>
       <c r="H12" s="65">
-        <v>90582</v>
+        <v>92416</v>
       </c>
       <c r="I12" s="65">
-        <v>92416</v>
+        <v>94380</v>
       </c>
       <c r="J12" s="65">
-        <v>94380</v>
+        <v>97420</v>
       </c>
       <c r="K12" s="65">
-        <v>97420</v>
+        <v>100070</v>
       </c>
       <c r="L12" s="65">
-        <v>100070</v>
+        <v>102050</v>
       </c>
       <c r="M12" s="65">
-        <v>102050</v>
+        <v>105890</v>
       </c>
       <c r="N12" s="65">
-        <v>105890</v>
+        <v>106920</v>
       </c>
       <c r="O12" s="65">
-        <v>106920</v>
+        <v>105660</v>
       </c>
       <c r="P12" s="65">
-        <v>105660</v>
+        <v>104900</v>
       </c>
       <c r="Q12" s="65">
-        <v>104900</v>
+        <v>106500</v>
       </c>
       <c r="R12" s="65">
-        <v>106500</v>
+        <v>107710</v>
       </c>
       <c r="S12" s="65">
-        <v>107710</v>
+        <v>110270</v>
       </c>
       <c r="T12" s="65">
-        <v>110270</v>
+        <v>112930</v>
       </c>
       <c r="U12" s="65">
-        <v>112930</v>
+        <v>113710</v>
       </c>
       <c r="V12" s="65">
-        <v>113710</v>
+        <v>111370</v>
       </c>
       <c r="W12" s="65">
-        <v>111370</v>
+        <v>107750</v>
       </c>
       <c r="X12" s="65">
-        <v>107750</v>
-      </c>
-      <c r="Y12" s="65">
         <v>108130</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="64">
-        <v>12</v>
-      </c>
-      <c r="B13" s="64" t="s">
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
         <v>118</v>
       </c>
+      <c r="B13" s="65">
+        <v>11472</v>
+      </c>
       <c r="C13" s="65">
-        <v>11472</v>
+        <v>10325</v>
       </c>
       <c r="D13" s="65">
-        <v>10325</v>
+        <v>10437</v>
       </c>
       <c r="E13" s="65">
-        <v>10437</v>
+        <v>10998</v>
       </c>
       <c r="F13" s="65">
-        <v>10998</v>
+        <v>10716</v>
       </c>
       <c r="G13" s="65">
-        <v>10716</v>
+        <v>11360</v>
       </c>
       <c r="H13" s="65">
-        <v>11360</v>
+        <v>10790</v>
       </c>
       <c r="I13" s="65">
-        <v>10790</v>
+        <v>11050</v>
       </c>
       <c r="J13" s="65">
-        <v>11050</v>
+        <v>10760</v>
       </c>
       <c r="K13" s="65">
-        <v>10760</v>
+        <v>10860</v>
       </c>
       <c r="L13" s="65">
-        <v>10860</v>
+        <v>10690</v>
       </c>
       <c r="M13" s="65">
-        <v>10690</v>
+        <v>11130</v>
       </c>
       <c r="N13" s="65">
-        <v>11130</v>
+        <v>10540</v>
       </c>
       <c r="O13" s="65">
-        <v>10540</v>
+        <v>10820</v>
       </c>
       <c r="P13" s="65">
-        <v>10820</v>
+        <v>10830</v>
       </c>
       <c r="Q13" s="65">
-        <v>10830</v>
+        <v>11010</v>
       </c>
       <c r="R13" s="65">
-        <v>11010</v>
+        <v>11210</v>
       </c>
       <c r="S13" s="65">
-        <v>11210</v>
+        <v>11290</v>
       </c>
       <c r="T13" s="65">
-        <v>11290</v>
+        <v>11510</v>
       </c>
       <c r="U13" s="65">
-        <v>11510</v>
+        <v>11580</v>
       </c>
       <c r="V13" s="65">
-        <v>11580</v>
+        <v>8780</v>
       </c>
       <c r="W13" s="65">
-        <v>8780</v>
+        <v>10890</v>
       </c>
       <c r="X13" s="65">
-        <v>10890</v>
-      </c>
-      <c r="Y13" s="65">
         <v>10670</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="64">
-        <v>13</v>
-      </c>
-      <c r="B14" s="64" t="s">
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
         <v>119</v>
       </c>
+      <c r="B14" s="65">
+        <v>12679</v>
+      </c>
       <c r="C14" s="65">
-        <v>12679</v>
+        <v>11971</v>
       </c>
       <c r="D14" s="65">
-        <v>11971</v>
+        <v>16170</v>
       </c>
       <c r="E14" s="65">
-        <v>16170</v>
+        <v>17793</v>
       </c>
       <c r="F14" s="65">
-        <v>17793</v>
+        <v>17525</v>
       </c>
       <c r="G14" s="65">
-        <v>17525</v>
+        <v>17568</v>
       </c>
       <c r="H14" s="65">
-        <v>17568</v>
+        <v>17198</v>
       </c>
       <c r="I14" s="65">
-        <v>17198</v>
+        <v>19120</v>
       </c>
       <c r="J14" s="65">
-        <v>19120</v>
+        <v>18050</v>
       </c>
       <c r="K14" s="65">
-        <v>18050</v>
+        <v>18230</v>
       </c>
       <c r="L14" s="65">
-        <v>18230</v>
+        <v>19130</v>
       </c>
       <c r="M14" s="65">
-        <v>19130</v>
+        <v>19280</v>
       </c>
       <c r="N14" s="65">
-        <v>19280</v>
+        <v>19720</v>
       </c>
       <c r="O14" s="65">
-        <v>19720</v>
+        <v>19440</v>
       </c>
       <c r="P14" s="65">
-        <v>19440</v>
+        <v>19830</v>
       </c>
       <c r="Q14" s="65">
-        <v>19830</v>
+        <v>20340</v>
       </c>
       <c r="R14" s="65">
-        <v>20340</v>
+        <v>21040</v>
       </c>
       <c r="S14" s="65">
-        <v>21040</v>
+        <v>21090</v>
       </c>
       <c r="T14" s="65">
-        <v>21090</v>
+        <v>21850</v>
       </c>
       <c r="U14" s="65">
-        <v>21850</v>
+        <v>21960</v>
       </c>
       <c r="V14" s="65">
-        <v>21960</v>
+        <v>21400</v>
       </c>
       <c r="W14" s="65">
-        <v>21400</v>
+        <v>21010</v>
       </c>
       <c r="X14" s="65">
-        <v>21010</v>
-      </c>
-      <c r="Y14" s="65">
         <v>21320</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="64">
-        <v>14</v>
-      </c>
-      <c r="B15" s="64" t="s">
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
         <v>120</v>
       </c>
+      <c r="B15" s="65">
+        <v>136795</v>
+      </c>
       <c r="C15" s="65">
-        <v>136795</v>
+        <v>108119</v>
       </c>
       <c r="D15" s="65">
-        <v>108119</v>
+        <v>111835</v>
       </c>
       <c r="E15" s="65">
-        <v>111835</v>
+        <v>139035</v>
       </c>
       <c r="F15" s="65">
-        <v>139035</v>
+        <v>134956</v>
       </c>
       <c r="G15" s="65">
-        <v>134956</v>
+        <v>139575</v>
       </c>
       <c r="H15" s="65">
-        <v>139575</v>
+        <v>139228</v>
       </c>
       <c r="I15" s="65">
-        <v>139228</v>
+        <v>137640</v>
       </c>
       <c r="J15" s="65">
-        <v>137640</v>
+        <v>140520</v>
       </c>
       <c r="K15" s="65">
-        <v>140520</v>
+        <v>140850</v>
       </c>
       <c r="L15" s="65">
-        <v>140850</v>
+        <v>141250</v>
       </c>
       <c r="M15" s="65">
-        <v>141250</v>
+        <v>143510</v>
       </c>
       <c r="N15" s="65">
-        <v>143510</v>
+        <v>142800</v>
       </c>
       <c r="O15" s="65">
-        <v>142800</v>
+        <v>139490</v>
       </c>
       <c r="P15" s="65">
-        <v>139490</v>
+        <v>144730</v>
       </c>
       <c r="Q15" s="65">
-        <v>144730</v>
+        <v>146850</v>
       </c>
       <c r="R15" s="65">
-        <v>146850</v>
+        <v>144610</v>
       </c>
       <c r="S15" s="65">
-        <v>144610</v>
+        <v>147870</v>
       </c>
       <c r="T15" s="65">
-        <v>147870</v>
+        <v>152340</v>
       </c>
       <c r="U15" s="65">
-        <v>152340</v>
+        <v>149530</v>
       </c>
       <c r="V15" s="65">
-        <v>149530</v>
+        <v>146040</v>
       </c>
       <c r="W15" s="65">
-        <v>146040</v>
+        <v>138960</v>
       </c>
       <c r="X15" s="65">
-        <v>138960</v>
-      </c>
-      <c r="Y15" s="65">
         <v>138790</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="64">
-        <v>15</v>
-      </c>
-      <c r="B16" s="64" t="s">
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
         <v>121</v>
       </c>
+      <c r="B16" s="65">
+        <v>73381</v>
+      </c>
       <c r="C16" s="65">
-        <v>73381</v>
+        <v>60012</v>
       </c>
       <c r="D16" s="65">
-        <v>60012</v>
+        <v>57012</v>
       </c>
       <c r="E16" s="65">
-        <v>57012</v>
+        <v>64551</v>
       </c>
       <c r="F16" s="65">
-        <v>64551</v>
+        <v>66133</v>
       </c>
       <c r="G16" s="65">
-        <v>66133</v>
+        <v>65667</v>
       </c>
       <c r="H16" s="65">
-        <v>65667</v>
+        <v>66595</v>
       </c>
       <c r="I16" s="65">
-        <v>66595</v>
+        <v>67560</v>
       </c>
       <c r="J16" s="65">
-        <v>67560</v>
+        <v>66750</v>
       </c>
       <c r="K16" s="65">
-        <v>66750</v>
+        <v>66720</v>
       </c>
       <c r="L16" s="65">
-        <v>66720</v>
+        <v>68970</v>
       </c>
       <c r="M16" s="65">
-        <v>68970</v>
+        <v>69640</v>
       </c>
       <c r="N16" s="65">
-        <v>69640</v>
+        <v>71980</v>
       </c>
       <c r="O16" s="65">
-        <v>71980</v>
+        <v>69520</v>
       </c>
       <c r="P16" s="65">
-        <v>69520</v>
+        <v>68320</v>
       </c>
       <c r="Q16" s="65">
-        <v>68320</v>
+        <v>69820</v>
       </c>
       <c r="R16" s="65">
-        <v>69820</v>
+        <v>68920</v>
       </c>
       <c r="S16" s="65">
-        <v>68920</v>
+        <v>70120</v>
       </c>
       <c r="T16" s="65">
-        <v>70120</v>
+        <v>70340</v>
       </c>
       <c r="U16" s="65">
-        <v>70340</v>
+        <v>71660</v>
       </c>
       <c r="V16" s="65">
-        <v>71660</v>
+        <v>69740</v>
       </c>
       <c r="W16" s="65">
-        <v>69740</v>
+        <v>68530</v>
       </c>
       <c r="X16" s="65">
-        <v>68530</v>
-      </c>
-      <c r="Y16" s="65">
         <v>68580</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="64">
-        <v>16</v>
-      </c>
-      <c r="B17" s="64" t="s">
+    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
         <v>122</v>
       </c>
+      <c r="B17" s="65">
+        <v>42635</v>
+      </c>
       <c r="C17" s="65">
-        <v>42635</v>
+        <v>31796</v>
       </c>
       <c r="D17" s="65">
-        <v>31796</v>
+        <v>33926</v>
       </c>
       <c r="E17" s="65">
-        <v>33926</v>
+        <v>34462</v>
       </c>
       <c r="F17" s="65">
-        <v>34462</v>
+        <v>33853</v>
       </c>
       <c r="G17" s="65">
-        <v>33853</v>
+        <v>33230</v>
       </c>
       <c r="H17" s="65">
-        <v>33230</v>
+        <v>32548</v>
       </c>
       <c r="I17" s="65">
-        <v>32548</v>
+        <v>32590</v>
       </c>
       <c r="J17" s="65">
-        <v>32590</v>
+        <v>32450</v>
       </c>
       <c r="K17" s="65">
-        <v>32450</v>
+        <v>32700</v>
       </c>
       <c r="L17" s="65">
-        <v>32700</v>
+        <v>32850</v>
       </c>
       <c r="M17" s="65">
-        <v>32850</v>
+        <v>33390</v>
       </c>
       <c r="N17" s="65">
+        <v>33310</v>
+      </c>
+      <c r="O17" s="65">
         <v>33390</v>
       </c>
-      <c r="O17" s="65">
-        <v>33310</v>
-      </c>
       <c r="P17" s="65">
-        <v>33390</v>
+        <v>33890</v>
       </c>
       <c r="Q17" s="65">
-        <v>33890</v>
+        <v>33930</v>
       </c>
       <c r="R17" s="65">
-        <v>33930</v>
+        <v>34700</v>
       </c>
       <c r="S17" s="65">
-        <v>34700</v>
+        <v>35460</v>
       </c>
       <c r="T17" s="65">
-        <v>35460</v>
+        <v>36120</v>
       </c>
       <c r="U17" s="65">
-        <v>36120</v>
+        <v>36390</v>
       </c>
       <c r="V17" s="65">
-        <v>36390</v>
+        <v>35350</v>
       </c>
       <c r="W17" s="65">
-        <v>35350</v>
+        <v>35090</v>
       </c>
       <c r="X17" s="65">
-        <v>35090</v>
-      </c>
-      <c r="Y17" s="65">
         <v>35110</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="64">
-        <v>17</v>
-      </c>
-      <c r="B18" s="64" t="s">
+    <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
         <v>123</v>
       </c>
+      <c r="B18" s="65">
+        <v>29397</v>
+      </c>
       <c r="C18" s="65">
-        <v>29397</v>
+        <v>25367</v>
       </c>
       <c r="D18" s="65">
-        <v>25367</v>
+        <v>29102</v>
       </c>
       <c r="E18" s="65">
-        <v>29102</v>
+        <v>31642</v>
       </c>
       <c r="F18" s="65">
-        <v>31642</v>
+        <v>31370</v>
       </c>
       <c r="G18" s="65">
-        <v>31370</v>
+        <v>31898</v>
       </c>
       <c r="H18" s="65">
-        <v>31898</v>
+        <v>31922</v>
       </c>
       <c r="I18" s="65">
-        <v>31922</v>
+        <v>32150</v>
       </c>
       <c r="J18" s="65">
-        <v>32150</v>
+        <v>31900</v>
       </c>
       <c r="K18" s="65">
-        <v>31900</v>
+        <v>32790</v>
       </c>
       <c r="L18" s="65">
-        <v>32790</v>
+        <v>32900</v>
       </c>
       <c r="M18" s="65">
-        <v>32900</v>
+        <v>33470</v>
       </c>
       <c r="N18" s="65">
-        <v>33470</v>
+        <v>33410</v>
       </c>
       <c r="O18" s="65">
-        <v>33410</v>
+        <v>33330</v>
       </c>
       <c r="P18" s="65">
-        <v>33330</v>
+        <v>33490</v>
       </c>
       <c r="Q18" s="65">
-        <v>33490</v>
+        <v>33680</v>
       </c>
       <c r="R18" s="65">
-        <v>33680</v>
+        <v>33660</v>
       </c>
       <c r="S18" s="65">
-        <v>33660</v>
+        <v>34200</v>
       </c>
       <c r="T18" s="65">
-        <v>34200</v>
+        <v>34870</v>
       </c>
       <c r="U18" s="65">
-        <v>34870</v>
+        <v>34670</v>
       </c>
       <c r="V18" s="65">
-        <v>34670</v>
+        <v>33910</v>
       </c>
       <c r="W18" s="65">
-        <v>33910</v>
+        <v>33560</v>
       </c>
       <c r="X18" s="65">
-        <v>33560</v>
-      </c>
-      <c r="Y18" s="65">
         <v>33500</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="64">
-        <v>18</v>
-      </c>
-      <c r="B19" s="64" t="s">
+    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
         <v>124</v>
       </c>
+      <c r="B19" s="65">
+        <v>41714</v>
+      </c>
       <c r="C19" s="65">
-        <v>41714</v>
+        <v>38005</v>
       </c>
       <c r="D19" s="65">
-        <v>38005</v>
+        <v>36830</v>
       </c>
       <c r="E19" s="65">
-        <v>36830</v>
+        <v>42664</v>
       </c>
       <c r="F19" s="65">
-        <v>42664</v>
+        <v>43031</v>
       </c>
       <c r="G19" s="65">
-        <v>43031</v>
+        <v>42642</v>
       </c>
       <c r="H19" s="65">
-        <v>42642</v>
+        <v>42888</v>
       </c>
       <c r="I19" s="65">
-        <v>42888</v>
+        <v>42400</v>
       </c>
       <c r="J19" s="65">
-        <v>42400</v>
+        <v>42530</v>
       </c>
       <c r="K19" s="65">
-        <v>42530</v>
+        <v>43280</v>
       </c>
       <c r="L19" s="65">
         <v>43280</v>
       </c>
       <c r="M19" s="65">
-        <v>43280</v>
+        <v>44330</v>
       </c>
       <c r="N19" s="65">
-        <v>44330</v>
+        <v>44420</v>
       </c>
       <c r="O19" s="65">
-        <v>44420</v>
+        <v>43760</v>
       </c>
       <c r="P19" s="65">
-        <v>43760</v>
+        <v>43830</v>
       </c>
       <c r="Q19" s="65">
-        <v>43830</v>
+        <v>43840</v>
       </c>
       <c r="R19" s="65">
-        <v>43840</v>
+        <v>43930</v>
       </c>
       <c r="S19" s="65">
-        <v>43930</v>
+        <v>44930</v>
       </c>
       <c r="T19" s="65">
-        <v>44930</v>
+        <v>45890</v>
       </c>
       <c r="U19" s="65">
-        <v>45890</v>
+        <v>45440</v>
       </c>
       <c r="V19" s="65">
-        <v>45440</v>
+        <v>44540</v>
       </c>
       <c r="W19" s="65">
-        <v>44540</v>
+        <v>42610</v>
       </c>
       <c r="X19" s="65">
-        <v>42610</v>
-      </c>
-      <c r="Y19" s="65">
         <v>42660</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="64">
-        <v>19</v>
-      </c>
-      <c r="B20" s="64" t="s">
+    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
         <v>125</v>
       </c>
+      <c r="B20" s="65">
+        <v>46199</v>
+      </c>
       <c r="C20" s="65">
-        <v>46199</v>
+        <v>36053</v>
       </c>
       <c r="D20" s="65">
-        <v>36053</v>
+        <v>38430</v>
       </c>
       <c r="E20" s="65">
-        <v>38430</v>
+        <v>36573</v>
       </c>
       <c r="F20" s="65">
-        <v>36573</v>
+        <v>35844</v>
       </c>
       <c r="G20" s="65">
-        <v>35844</v>
+        <v>36675</v>
       </c>
       <c r="H20" s="65">
-        <v>36675</v>
+        <v>37508</v>
       </c>
       <c r="I20" s="65">
-        <v>37508</v>
+        <v>38180</v>
       </c>
       <c r="J20" s="65">
-        <v>38180</v>
+        <v>37720</v>
       </c>
       <c r="K20" s="65">
-        <v>37720</v>
+        <v>38790</v>
       </c>
       <c r="L20" s="65">
-        <v>38790</v>
+        <v>39380</v>
       </c>
       <c r="M20" s="65">
-        <v>39380</v>
+        <v>41970</v>
       </c>
       <c r="N20" s="65">
-        <v>41970</v>
+        <v>41720</v>
       </c>
       <c r="O20" s="65">
-        <v>41720</v>
+        <v>40430</v>
       </c>
       <c r="P20" s="65">
-        <v>40430</v>
+        <v>39810</v>
       </c>
       <c r="Q20" s="65">
-        <v>39810</v>
+        <v>40380</v>
       </c>
       <c r="R20" s="65">
-        <v>40380</v>
+        <v>40360</v>
       </c>
       <c r="S20" s="65">
-        <v>40360</v>
+        <v>41590</v>
       </c>
       <c r="T20" s="65">
-        <v>41590</v>
+        <v>42410</v>
       </c>
       <c r="U20" s="65">
-        <v>42410</v>
+        <v>42570</v>
       </c>
       <c r="V20" s="65">
-        <v>42570</v>
+        <v>41560</v>
       </c>
       <c r="W20" s="65">
-        <v>41560</v>
+        <v>39600</v>
       </c>
       <c r="X20" s="65">
-        <v>39600</v>
-      </c>
-      <c r="Y20" s="65">
         <v>40130</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="64">
-        <v>20</v>
-      </c>
-      <c r="B21" s="64" t="s">
+    <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
         <v>126</v>
       </c>
+      <c r="B21" s="65">
+        <v>15554</v>
+      </c>
       <c r="C21" s="65">
-        <v>15554</v>
+        <v>13839</v>
       </c>
       <c r="D21" s="65">
-        <v>13839</v>
+        <v>12211</v>
       </c>
       <c r="E21" s="65">
-        <v>12211</v>
+        <v>14069</v>
       </c>
       <c r="F21" s="65">
-        <v>14069</v>
+        <v>13653</v>
       </c>
       <c r="G21" s="65">
-        <v>13653</v>
+        <v>13473</v>
       </c>
       <c r="H21" s="65">
-        <v>13473</v>
+        <v>13170</v>
       </c>
       <c r="I21" s="65">
-        <v>13170</v>
+        <v>12730</v>
       </c>
       <c r="J21" s="65">
-        <v>12730</v>
+        <v>12560</v>
       </c>
       <c r="K21" s="65">
-        <v>12560</v>
+        <v>12790</v>
       </c>
       <c r="L21" s="65">
-        <v>12790</v>
+        <v>12640</v>
       </c>
       <c r="M21" s="65">
-        <v>12640</v>
+        <v>12470</v>
       </c>
       <c r="N21" s="65">
-        <v>12470</v>
+        <v>12430</v>
       </c>
       <c r="O21" s="65">
-        <v>12430</v>
+        <v>12100</v>
       </c>
       <c r="P21" s="65">
-        <v>12100</v>
+        <v>12050</v>
       </c>
       <c r="Q21" s="65">
-        <v>12050</v>
+        <v>12250</v>
       </c>
       <c r="R21" s="65">
-        <v>12250</v>
+        <v>12300</v>
       </c>
       <c r="S21" s="65">
-        <v>12300</v>
+        <v>12160</v>
       </c>
       <c r="T21" s="65">
-        <v>12160</v>
+        <v>12340</v>
       </c>
       <c r="U21" s="65">
-        <v>12340</v>
+        <v>12080</v>
       </c>
       <c r="V21" s="65">
-        <v>12080</v>
+        <v>11960</v>
       </c>
       <c r="W21" s="65">
-        <v>11960</v>
+        <v>11600</v>
       </c>
       <c r="X21" s="65">
-        <v>11600</v>
-      </c>
-      <c r="Y21" s="65">
         <v>11580</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="64">
-        <v>21</v>
-      </c>
-      <c r="B22" s="64" t="s">
+    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
         <v>127</v>
       </c>
+      <c r="B22" s="65">
+        <v>54050</v>
+      </c>
       <c r="C22" s="65">
-        <v>54050</v>
+        <v>41566</v>
       </c>
       <c r="D22" s="65">
-        <v>41566</v>
+        <v>47849</v>
       </c>
       <c r="E22" s="65">
-        <v>47849</v>
+        <v>59078</v>
       </c>
       <c r="F22" s="65">
-        <v>59078</v>
+        <v>58745</v>
       </c>
       <c r="G22" s="65">
-        <v>58745</v>
+        <v>58811</v>
       </c>
       <c r="H22" s="65">
-        <v>58811</v>
+        <v>58896</v>
       </c>
       <c r="I22" s="65">
-        <v>58896</v>
+        <v>58120</v>
       </c>
       <c r="J22" s="65">
-        <v>58120</v>
+        <v>57650</v>
       </c>
       <c r="K22" s="65">
-        <v>57650</v>
+        <v>57490</v>
       </c>
       <c r="L22" s="65">
-        <v>57490</v>
+        <v>57290</v>
       </c>
       <c r="M22" s="65">
-        <v>57290</v>
+        <v>59040</v>
       </c>
       <c r="N22" s="65">
-        <v>59040</v>
+        <v>58560</v>
       </c>
       <c r="O22" s="65">
-        <v>58560</v>
+        <v>60180</v>
       </c>
       <c r="P22" s="65">
-        <v>60180</v>
+        <v>60920</v>
       </c>
       <c r="Q22" s="65">
-        <v>60920</v>
+        <v>61640</v>
       </c>
       <c r="R22" s="65">
-        <v>61640</v>
+        <v>61990</v>
       </c>
       <c r="S22" s="65">
-        <v>61990</v>
+        <v>63770</v>
       </c>
       <c r="T22" s="65">
-        <v>63770</v>
+        <v>65820</v>
       </c>
       <c r="U22" s="65">
-        <v>65820</v>
+        <v>66930</v>
       </c>
       <c r="V22" s="65">
-        <v>66930</v>
+        <v>65550</v>
       </c>
       <c r="W22" s="65">
-        <v>65550</v>
+        <v>64340</v>
       </c>
       <c r="X22" s="65">
-        <v>64340</v>
-      </c>
-      <c r="Y22" s="65">
         <v>64550</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="64">
-        <v>22</v>
-      </c>
-      <c r="B23" s="64" t="s">
+    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
         <v>128</v>
       </c>
+      <c r="B23" s="65">
+        <v>74831</v>
+      </c>
       <c r="C23" s="65">
-        <v>74831</v>
+        <v>55941</v>
       </c>
       <c r="D23" s="65">
-        <v>55941</v>
+        <v>52950</v>
       </c>
       <c r="E23" s="65">
-        <v>52950</v>
+        <v>64462</v>
       </c>
       <c r="F23" s="65">
-        <v>64462</v>
+        <v>64724</v>
       </c>
       <c r="G23" s="65">
-        <v>64724</v>
+        <v>65157</v>
       </c>
       <c r="H23" s="65">
-        <v>65157</v>
+        <v>66360</v>
       </c>
       <c r="I23" s="65">
-        <v>66360</v>
+        <v>65200</v>
       </c>
       <c r="J23" s="65">
-        <v>65200</v>
+        <v>65790</v>
       </c>
       <c r="K23" s="65">
-        <v>65790</v>
+        <v>68630</v>
       </c>
       <c r="L23" s="65">
-        <v>68630</v>
+        <v>68610</v>
       </c>
       <c r="M23" s="65">
-        <v>68610</v>
+        <v>69320</v>
       </c>
       <c r="N23" s="65">
-        <v>69320</v>
+        <v>69810</v>
       </c>
       <c r="O23" s="65">
-        <v>69810</v>
+        <v>69790</v>
       </c>
       <c r="P23" s="65">
-        <v>69790</v>
+        <v>70020</v>
       </c>
       <c r="Q23" s="65">
+        <v>70360</v>
+      </c>
+      <c r="R23" s="65">
+        <v>69700</v>
+      </c>
+      <c r="S23" s="65">
         <v>70020</v>
       </c>
-      <c r="R23" s="65">
-        <v>70360</v>
-      </c>
-      <c r="S23" s="65">
-        <v>69700</v>
-      </c>
       <c r="T23" s="65">
-        <v>70020</v>
+        <v>71160</v>
       </c>
       <c r="U23" s="65">
-        <v>71160</v>
+        <v>71310</v>
       </c>
       <c r="V23" s="65">
-        <v>71310</v>
+        <v>69390</v>
       </c>
       <c r="W23" s="65">
-        <v>69390</v>
+        <v>67880</v>
       </c>
       <c r="X23" s="65">
-        <v>67880</v>
-      </c>
-      <c r="Y23" s="65">
         <v>68390</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="64">
-        <v>23</v>
-      </c>
-      <c r="B24" s="64" t="s">
+    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
         <v>129</v>
       </c>
+      <c r="B24" s="65">
+        <v>124372</v>
+      </c>
       <c r="C24" s="65">
-        <v>124372</v>
+        <v>93807</v>
       </c>
       <c r="D24" s="65">
-        <v>93807</v>
+        <v>97679</v>
       </c>
       <c r="E24" s="65">
-        <v>97679</v>
+        <v>110682</v>
       </c>
       <c r="F24" s="65">
-        <v>110682</v>
+        <v>106017</v>
       </c>
       <c r="G24" s="65">
-        <v>106017</v>
+        <v>105446</v>
       </c>
       <c r="H24" s="65">
-        <v>105446</v>
+        <v>104210</v>
       </c>
       <c r="I24" s="65">
-        <v>104210</v>
+        <v>102520</v>
       </c>
       <c r="J24" s="65">
-        <v>102520</v>
+        <v>102020</v>
       </c>
       <c r="K24" s="65">
-        <v>102020</v>
+        <v>100800</v>
       </c>
       <c r="L24" s="65">
-        <v>100800</v>
+        <v>101570</v>
       </c>
       <c r="M24" s="65">
-        <v>101570</v>
+        <v>102440</v>
       </c>
       <c r="N24" s="65">
-        <v>102440</v>
+        <v>99910</v>
       </c>
       <c r="O24" s="65">
-        <v>99910</v>
+        <v>98170</v>
       </c>
       <c r="P24" s="65">
-        <v>98170</v>
+        <v>97790</v>
       </c>
       <c r="Q24" s="65">
-        <v>97790</v>
+        <v>97500</v>
       </c>
       <c r="R24" s="65">
-        <v>97500</v>
+        <v>94870</v>
       </c>
       <c r="S24" s="65">
-        <v>94870</v>
+        <v>96260</v>
       </c>
       <c r="T24" s="65">
-        <v>96260</v>
+        <v>96030</v>
       </c>
       <c r="U24" s="65">
-        <v>96030</v>
+        <v>92560</v>
       </c>
       <c r="V24" s="65">
-        <v>92560</v>
+        <v>90060</v>
       </c>
       <c r="W24" s="65">
-        <v>90060</v>
+        <v>88840</v>
       </c>
       <c r="X24" s="65">
-        <v>88840</v>
-      </c>
-      <c r="Y24" s="65">
         <v>88680</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="64">
-        <v>24</v>
-      </c>
-      <c r="B25" s="64" t="s">
+    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
         <v>130</v>
       </c>
+      <c r="B25" s="65">
+        <v>64166</v>
+      </c>
       <c r="C25" s="65">
-        <v>64166</v>
+        <v>49087</v>
       </c>
       <c r="D25" s="65">
-        <v>49087</v>
+        <v>57372</v>
       </c>
       <c r="E25" s="65">
-        <v>57372</v>
+        <v>59667</v>
       </c>
       <c r="F25" s="65">
-        <v>59667</v>
+        <v>59357</v>
       </c>
       <c r="G25" s="65">
-        <v>59357</v>
+        <v>57501</v>
       </c>
       <c r="H25" s="65">
-        <v>57501</v>
+        <v>58255</v>
       </c>
       <c r="I25" s="65">
-        <v>58255</v>
+        <v>56370</v>
       </c>
       <c r="J25" s="65">
-        <v>56370</v>
+        <v>56800</v>
       </c>
       <c r="K25" s="65">
-        <v>56800</v>
+        <v>56640</v>
       </c>
       <c r="L25" s="65">
-        <v>56640</v>
+        <v>57250</v>
       </c>
       <c r="M25" s="65">
-        <v>57250</v>
+        <v>58370</v>
       </c>
       <c r="N25" s="65">
-        <v>58370</v>
+        <v>59350</v>
       </c>
       <c r="O25" s="65">
-        <v>59350</v>
+        <v>58510</v>
       </c>
       <c r="P25" s="65">
-        <v>58510</v>
+        <v>60360</v>
       </c>
       <c r="Q25" s="65">
-        <v>60360</v>
+        <v>61810</v>
       </c>
       <c r="R25" s="65">
-        <v>61810</v>
+        <v>61920</v>
       </c>
       <c r="S25" s="65">
+        <v>63460</v>
+      </c>
+      <c r="T25" s="65">
+        <v>65100</v>
+      </c>
+      <c r="U25" s="65">
+        <v>65520</v>
+      </c>
+      <c r="V25" s="65">
+        <v>64560</v>
+      </c>
+      <c r="W25" s="65">
+        <v>63320</v>
+      </c>
+      <c r="X25" s="65">
+        <v>63910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="65">
+        <v>28083</v>
+      </c>
+      <c r="C26" s="65">
+        <v>25182</v>
+      </c>
+      <c r="D26" s="65">
+        <v>24232</v>
+      </c>
+      <c r="E26" s="65">
+        <v>25478</v>
+      </c>
+      <c r="F26" s="65">
+        <v>27321</v>
+      </c>
+      <c r="G26" s="65">
+        <v>26158</v>
+      </c>
+      <c r="H26" s="65">
+        <v>26502</v>
+      </c>
+      <c r="I26" s="65">
+        <v>26650</v>
+      </c>
+      <c r="J26" s="65">
+        <v>26260</v>
+      </c>
+      <c r="K26" s="65">
+        <v>26770</v>
+      </c>
+      <c r="L26" s="65">
+        <v>26900</v>
+      </c>
+      <c r="M26" s="65">
+        <v>28050</v>
+      </c>
+      <c r="N26" s="65">
+        <v>27390</v>
+      </c>
+      <c r="O26" s="65">
+        <v>26680</v>
+      </c>
+      <c r="P26" s="65">
+        <v>25990</v>
+      </c>
+      <c r="Q26" s="65">
+        <v>26300</v>
+      </c>
+      <c r="R26" s="65">
+        <v>26180</v>
+      </c>
+      <c r="S26" s="65">
+        <v>25950</v>
+      </c>
+      <c r="T26" s="65">
+        <v>28040</v>
+      </c>
+      <c r="U26" s="65">
+        <v>27280</v>
+      </c>
+      <c r="V26" s="65">
+        <v>26330</v>
+      </c>
+      <c r="W26" s="65">
+        <v>24560</v>
+      </c>
+      <c r="X26" s="65">
+        <v>24850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="65">
+        <v>60359</v>
+      </c>
+      <c r="C27" s="65">
+        <v>48957</v>
+      </c>
+      <c r="D27" s="65">
+        <v>52848</v>
+      </c>
+      <c r="E27" s="65">
+        <v>63994</v>
+      </c>
+      <c r="F27" s="65">
+        <v>62994</v>
+      </c>
+      <c r="G27" s="65">
+        <v>61313</v>
+      </c>
+      <c r="H27" s="65">
+        <v>61407</v>
+      </c>
+      <c r="I27" s="65">
+        <v>60900</v>
+      </c>
+      <c r="J27" s="65">
+        <v>60590</v>
+      </c>
+      <c r="K27" s="65">
+        <v>61600</v>
+      </c>
+      <c r="L27" s="65">
+        <v>60890</v>
+      </c>
+      <c r="M27" s="65">
+        <v>61700</v>
+      </c>
+      <c r="N27" s="65">
+        <v>61770</v>
+      </c>
+      <c r="O27" s="65">
+        <v>60750</v>
+      </c>
+      <c r="P27" s="65">
+        <v>60800</v>
+      </c>
+      <c r="Q27" s="65">
+        <v>61170</v>
+      </c>
+      <c r="R27" s="65">
+        <v>61590</v>
+      </c>
+      <c r="S27" s="65">
+        <v>62280</v>
+      </c>
+      <c r="T27" s="65">
+        <v>63600</v>
+      </c>
+      <c r="U27" s="65">
+        <v>63560</v>
+      </c>
+      <c r="V27" s="65">
         <v>61920</v>
       </c>
-      <c r="T25" s="65">
-        <v>63460</v>
-      </c>
-      <c r="U25" s="65">
-        <v>65100</v>
-      </c>
-      <c r="V25" s="65">
-        <v>65520</v>
-      </c>
-      <c r="W25" s="65">
-        <v>64560</v>
-      </c>
-      <c r="X25" s="65">
-        <v>63320</v>
-      </c>
-      <c r="Y25" s="65">
-        <v>63910</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="64">
-        <v>25</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="65">
-        <v>28083</v>
-      </c>
-      <c r="D26" s="65">
-        <v>25182</v>
-      </c>
-      <c r="E26" s="65">
-        <v>24232</v>
-      </c>
-      <c r="F26" s="65">
-        <v>25478</v>
-      </c>
-      <c r="G26" s="65">
-        <v>27321</v>
-      </c>
-      <c r="H26" s="65">
-        <v>26158</v>
-      </c>
-      <c r="I26" s="65">
-        <v>26502</v>
-      </c>
-      <c r="J26" s="65">
-        <v>26650</v>
-      </c>
-      <c r="K26" s="65">
-        <v>26260</v>
-      </c>
-      <c r="L26" s="65">
-        <v>26770</v>
-      </c>
-      <c r="M26" s="65">
-        <v>26900</v>
-      </c>
-      <c r="N26" s="65">
-        <v>28050</v>
-      </c>
-      <c r="O26" s="65">
-        <v>27390</v>
-      </c>
-      <c r="P26" s="65">
-        <v>26680</v>
-      </c>
-      <c r="Q26" s="65">
-        <v>25990</v>
-      </c>
-      <c r="R26" s="65">
-        <v>26300</v>
-      </c>
-      <c r="S26" s="65">
-        <v>26180</v>
-      </c>
-      <c r="T26" s="65">
-        <v>25950</v>
-      </c>
-      <c r="U26" s="65">
-        <v>28040</v>
-      </c>
-      <c r="V26" s="65">
-        <v>27280</v>
-      </c>
-      <c r="W26" s="65">
-        <v>26330</v>
-      </c>
-      <c r="X26" s="65">
-        <v>24560</v>
-      </c>
-      <c r="Y26" s="65">
-        <v>24850</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="64">
-        <v>26</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="65">
-        <v>60359</v>
-      </c>
-      <c r="D27" s="65">
-        <v>48957</v>
-      </c>
-      <c r="E27" s="65">
-        <v>52848</v>
-      </c>
-      <c r="F27" s="65">
-        <v>63994</v>
-      </c>
-      <c r="G27" s="65">
-        <v>62994</v>
-      </c>
-      <c r="H27" s="65">
-        <v>61313</v>
-      </c>
-      <c r="I27" s="65">
-        <v>61407</v>
-      </c>
-      <c r="J27" s="65">
-        <v>60900</v>
-      </c>
-      <c r="K27" s="65">
-        <v>60590</v>
-      </c>
-      <c r="L27" s="65">
-        <v>61600</v>
-      </c>
-      <c r="M27" s="65">
-        <v>60890</v>
-      </c>
-      <c r="N27" s="65">
-        <v>61700</v>
-      </c>
-      <c r="O27" s="65">
-        <v>61770</v>
-      </c>
-      <c r="P27" s="65">
-        <v>60750</v>
-      </c>
-      <c r="Q27" s="65">
-        <v>60800</v>
-      </c>
-      <c r="R27" s="65">
-        <v>61170</v>
-      </c>
-      <c r="S27" s="65">
-        <v>61590</v>
-      </c>
-      <c r="T27" s="65">
-        <v>62280</v>
-      </c>
-      <c r="U27" s="65">
-        <v>63600</v>
-      </c>
-      <c r="V27" s="65">
-        <v>63560</v>
-      </c>
       <c r="W27" s="65">
-        <v>61920</v>
+        <v>60470</v>
       </c>
       <c r="X27" s="65">
-        <v>60470</v>
-      </c>
-      <c r="Y27" s="65">
         <v>60440</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="64">
-        <v>27</v>
-      </c>
-      <c r="B28" s="64" t="s">
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
         <v>133</v>
       </c>
+      <c r="B28" s="65">
+        <v>11634</v>
+      </c>
       <c r="C28" s="65">
-        <v>11634</v>
+        <v>9370</v>
       </c>
       <c r="D28" s="65">
-        <v>9370</v>
+        <v>10903</v>
       </c>
       <c r="E28" s="65">
-        <v>10903</v>
+        <v>10075</v>
       </c>
       <c r="F28" s="65">
-        <v>10075</v>
+        <v>9732</v>
       </c>
       <c r="G28" s="65">
-        <v>9732</v>
+        <v>9750</v>
       </c>
       <c r="H28" s="65">
-        <v>9750</v>
+        <v>9369</v>
       </c>
       <c r="I28" s="65">
-        <v>9369</v>
+        <v>9470</v>
       </c>
       <c r="J28" s="65">
-        <v>9470</v>
+        <v>9390</v>
       </c>
       <c r="K28" s="65">
-        <v>9390</v>
+        <v>9320</v>
       </c>
       <c r="L28" s="65">
-        <v>9320</v>
+        <v>9380</v>
       </c>
       <c r="M28" s="65">
-        <v>9380</v>
+        <v>9210</v>
       </c>
       <c r="N28" s="65">
-        <v>9210</v>
+        <v>9430</v>
       </c>
       <c r="O28" s="65">
-        <v>9430</v>
+        <v>9610</v>
       </c>
       <c r="P28" s="65">
-        <v>9610</v>
+        <v>9660</v>
       </c>
       <c r="Q28" s="65">
-        <v>9660</v>
+        <v>9870</v>
       </c>
       <c r="R28" s="65">
-        <v>9870</v>
+        <v>9890</v>
       </c>
       <c r="S28" s="65">
-        <v>9890</v>
+        <v>10430</v>
       </c>
       <c r="T28" s="65">
         <v>10430</v>
       </c>
       <c r="U28" s="65">
-        <v>10430</v>
+        <v>10800</v>
       </c>
       <c r="V28" s="65">
-        <v>10800</v>
+        <v>10530</v>
       </c>
       <c r="W28" s="65">
-        <v>10530</v>
+        <v>10200</v>
       </c>
       <c r="X28" s="65">
-        <v>10200</v>
-      </c>
-      <c r="Y28" s="65">
         <v>10380</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="64">
-        <v>28</v>
-      </c>
-      <c r="B29" s="64" t="s">
+    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
         <v>134</v>
       </c>
+      <c r="B29" s="65">
+        <v>21411</v>
+      </c>
       <c r="C29" s="65">
-        <v>21411</v>
+        <v>17664</v>
       </c>
       <c r="D29" s="65">
-        <v>17664</v>
+        <v>20149</v>
       </c>
       <c r="E29" s="65">
-        <v>20149</v>
+        <v>19370</v>
       </c>
       <c r="F29" s="65">
-        <v>19370</v>
+        <v>20331</v>
       </c>
       <c r="G29" s="65">
-        <v>20331</v>
+        <v>20464</v>
       </c>
       <c r="H29" s="65">
-        <v>20464</v>
+        <v>20442</v>
       </c>
       <c r="I29" s="65">
-        <v>20442</v>
+        <v>20580</v>
       </c>
       <c r="J29" s="65">
-        <v>20580</v>
+        <v>20650</v>
       </c>
       <c r="K29" s="65">
-        <v>20650</v>
+        <v>21090</v>
       </c>
       <c r="L29" s="65">
-        <v>21090</v>
+        <v>21130</v>
       </c>
       <c r="M29" s="65">
-        <v>21130</v>
+        <v>21960</v>
       </c>
       <c r="N29" s="65">
-        <v>21960</v>
+        <v>22270</v>
       </c>
       <c r="O29" s="65">
-        <v>22270</v>
+        <v>22750</v>
       </c>
       <c r="P29" s="65">
-        <v>22750</v>
+        <v>23240</v>
       </c>
       <c r="Q29" s="65">
-        <v>23240</v>
+        <v>23800</v>
       </c>
       <c r="R29" s="65">
-        <v>23800</v>
+        <v>23640</v>
       </c>
       <c r="S29" s="65">
-        <v>23640</v>
+        <v>24050</v>
       </c>
       <c r="T29" s="65">
-        <v>24050</v>
+        <v>22970</v>
       </c>
       <c r="U29" s="65">
-        <v>22970</v>
+        <v>24790</v>
       </c>
       <c r="V29" s="65">
-        <v>24790</v>
+        <v>24890</v>
       </c>
       <c r="W29" s="65">
-        <v>24890</v>
+        <v>24450</v>
       </c>
       <c r="X29" s="65">
-        <v>24450</v>
-      </c>
-      <c r="Y29" s="65">
         <v>24420</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="64">
-        <v>29</v>
-      </c>
-      <c r="B30" s="64" t="s">
+    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
         <v>135</v>
       </c>
+      <c r="B30" s="65">
+        <v>9069</v>
+      </c>
       <c r="C30" s="65">
-        <v>9069</v>
+        <v>9477</v>
       </c>
       <c r="D30" s="65">
-        <v>9477</v>
+        <v>14551</v>
       </c>
       <c r="E30" s="65">
-        <v>14551</v>
+        <v>20956</v>
       </c>
       <c r="F30" s="65">
-        <v>20956</v>
+        <v>21182</v>
       </c>
       <c r="G30" s="65">
-        <v>21182</v>
+        <v>21891</v>
       </c>
       <c r="H30" s="65">
-        <v>21891</v>
+        <v>23038</v>
       </c>
       <c r="I30" s="65">
-        <v>23038</v>
+        <v>22720</v>
       </c>
       <c r="J30" s="65">
-        <v>22720</v>
+        <v>23040</v>
       </c>
       <c r="K30" s="65">
-        <v>23040</v>
+        <v>23190</v>
       </c>
       <c r="L30" s="65">
-        <v>23190</v>
+        <v>23780</v>
       </c>
       <c r="M30" s="65">
-        <v>23780</v>
+        <v>24170</v>
       </c>
       <c r="N30" s="65">
-        <v>24170</v>
+        <v>24880</v>
       </c>
       <c r="O30" s="65">
-        <v>24880</v>
+        <v>25150</v>
       </c>
       <c r="P30" s="65">
-        <v>25150</v>
+        <v>25190</v>
       </c>
       <c r="Q30" s="65">
-        <v>25190</v>
+        <v>25410</v>
       </c>
       <c r="R30" s="65">
-        <v>25410</v>
+        <v>26270</v>
       </c>
       <c r="S30" s="65">
-        <v>26270</v>
+        <v>27270</v>
       </c>
       <c r="T30" s="65">
-        <v>27270</v>
+        <v>28460</v>
       </c>
       <c r="U30" s="65">
-        <v>28460</v>
+        <v>28610</v>
       </c>
       <c r="V30" s="65">
-        <v>28610</v>
+        <v>27590</v>
       </c>
       <c r="W30" s="65">
-        <v>27590</v>
+        <v>27520</v>
       </c>
       <c r="X30" s="65">
-        <v>27520</v>
-      </c>
-      <c r="Y30" s="65">
         <v>27770</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="64">
-        <v>30</v>
-      </c>
-      <c r="B31" s="64" t="s">
+    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
         <v>136</v>
       </c>
+      <c r="B31" s="65">
+        <v>11552</v>
+      </c>
       <c r="C31" s="65">
-        <v>11552</v>
+        <v>10766</v>
       </c>
       <c r="D31" s="65">
-        <v>10766</v>
+        <v>11829</v>
       </c>
       <c r="E31" s="65">
-        <v>11829</v>
+        <v>15034</v>
       </c>
       <c r="F31" s="65">
-        <v>15034</v>
+        <v>14495</v>
       </c>
       <c r="G31" s="65">
-        <v>14495</v>
+        <v>14426</v>
       </c>
       <c r="H31" s="65">
-        <v>14426</v>
+        <v>14262</v>
       </c>
       <c r="I31" s="65">
-        <v>14262</v>
+        <v>13790</v>
       </c>
       <c r="J31" s="65">
-        <v>13790</v>
+        <v>13520</v>
       </c>
       <c r="K31" s="65">
-        <v>13520</v>
+        <v>13600</v>
       </c>
       <c r="L31" s="65">
-        <v>13600</v>
+        <v>13160</v>
       </c>
       <c r="M31" s="65">
         <v>13160</v>
       </c>
       <c r="N31" s="65">
-        <v>13160</v>
+        <v>12950</v>
       </c>
       <c r="O31" s="65">
-        <v>12950</v>
+        <v>12960</v>
       </c>
       <c r="P31" s="65">
-        <v>12960</v>
+        <v>12780</v>
       </c>
       <c r="Q31" s="65">
-        <v>12780</v>
+        <v>12810</v>
       </c>
       <c r="R31" s="65">
-        <v>12810</v>
+        <v>12540</v>
       </c>
       <c r="S31" s="65">
-        <v>12540</v>
+        <v>12550</v>
       </c>
       <c r="T31" s="65">
-        <v>12550</v>
+        <v>12500</v>
       </c>
       <c r="U31" s="65">
-        <v>12500</v>
+        <v>12290</v>
       </c>
       <c r="V31" s="65">
-        <v>12290</v>
+        <v>11910</v>
       </c>
       <c r="W31" s="65">
-        <v>11910</v>
+        <v>11490</v>
       </c>
       <c r="X31" s="65">
-        <v>11490</v>
-      </c>
-      <c r="Y31" s="65">
         <v>11380</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="64">
-        <v>31</v>
-      </c>
-      <c r="B32" s="64" t="s">
+    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
         <v>137</v>
       </c>
+      <c r="B32" s="65">
+        <v>93168</v>
+      </c>
       <c r="C32" s="65">
-        <v>93168</v>
+        <v>69824</v>
       </c>
       <c r="D32" s="65">
-        <v>69824</v>
+        <v>74420</v>
       </c>
       <c r="E32" s="65">
-        <v>74420</v>
+        <v>96225</v>
       </c>
       <c r="F32" s="65">
-        <v>96225</v>
+        <v>95186</v>
       </c>
       <c r="G32" s="65">
-        <v>95186</v>
+        <v>93819</v>
       </c>
       <c r="H32" s="65">
-        <v>93819</v>
+        <v>96490</v>
       </c>
       <c r="I32" s="65">
-        <v>96490</v>
+        <v>95220</v>
       </c>
       <c r="J32" s="65">
-        <v>95220</v>
+        <v>95250</v>
       </c>
       <c r="K32" s="65">
-        <v>95250</v>
+        <v>97130</v>
       </c>
       <c r="L32" s="65">
-        <v>97130</v>
+        <v>97990</v>
       </c>
       <c r="M32" s="65">
-        <v>97990</v>
+        <v>98330</v>
       </c>
       <c r="N32" s="65">
-        <v>98330</v>
+        <v>97120</v>
       </c>
       <c r="O32" s="65">
-        <v>97120</v>
+        <v>96210</v>
       </c>
       <c r="P32" s="65">
+        <v>97920</v>
+      </c>
+      <c r="Q32" s="65">
+        <v>98540</v>
+      </c>
+      <c r="R32" s="65">
+        <v>97370</v>
+      </c>
+      <c r="S32" s="65">
+        <v>98540</v>
+      </c>
+      <c r="T32" s="65">
+        <v>100920</v>
+      </c>
+      <c r="U32" s="65">
+        <v>99270</v>
+      </c>
+      <c r="V32" s="65">
+        <v>97620</v>
+      </c>
+      <c r="W32" s="65">
+        <v>96130</v>
+      </c>
+      <c r="X32" s="65">
+        <v>96020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="65">
+        <v>17915</v>
+      </c>
+      <c r="C33" s="65">
+        <v>14884</v>
+      </c>
+      <c r="D33" s="65">
+        <v>18031</v>
+      </c>
+      <c r="E33" s="65">
+        <v>18595</v>
+      </c>
+      <c r="F33" s="65">
+        <v>19352</v>
+      </c>
+      <c r="G33" s="65">
+        <v>20315</v>
+      </c>
+      <c r="H33" s="65">
+        <v>19232</v>
+      </c>
+      <c r="I33" s="65">
+        <v>18590</v>
+      </c>
+      <c r="J33" s="65">
+        <v>19530</v>
+      </c>
+      <c r="K33" s="65">
+        <v>19480</v>
+      </c>
+      <c r="L33" s="65">
+        <v>19770</v>
+      </c>
+      <c r="M33" s="65">
+        <v>20190</v>
+      </c>
+      <c r="N33" s="65">
+        <v>20300</v>
+      </c>
+      <c r="O33" s="65">
+        <v>20780</v>
+      </c>
+      <c r="P33" s="65">
+        <v>20410</v>
+      </c>
+      <c r="Q33" s="65">
+        <v>20430</v>
+      </c>
+      <c r="R33" s="65">
+        <v>20800</v>
+      </c>
+      <c r="S33" s="65">
+        <v>20820</v>
+      </c>
+      <c r="T33" s="65">
+        <v>21380</v>
+      </c>
+      <c r="U33" s="65">
+        <v>21510</v>
+      </c>
+      <c r="V33" s="65">
+        <v>20920</v>
+      </c>
+      <c r="W33" s="65">
+        <v>19510</v>
+      </c>
+      <c r="X33" s="65">
+        <v>19290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="65">
+        <v>198465</v>
+      </c>
+      <c r="C34" s="65">
+        <v>143318</v>
+      </c>
+      <c r="D34" s="65">
+        <v>141731</v>
+      </c>
+      <c r="E34" s="65">
+        <v>183826</v>
+      </c>
+      <c r="F34" s="65">
+        <v>182759</v>
+      </c>
+      <c r="G34" s="65">
+        <v>180806</v>
+      </c>
+      <c r="H34" s="65">
+        <v>180351</v>
+      </c>
+      <c r="I34" s="65">
+        <v>178810</v>
+      </c>
+      <c r="J34" s="65">
+        <v>179110</v>
+      </c>
+      <c r="K34" s="65">
+        <v>178260</v>
+      </c>
+      <c r="L34" s="65">
+        <v>181790</v>
+      </c>
+      <c r="M34" s="65">
+        <v>185630</v>
+      </c>
+      <c r="N34" s="65">
+        <v>182480</v>
+      </c>
+      <c r="O34" s="65">
+        <v>179160</v>
+      </c>
+      <c r="P34" s="65">
+        <v>180970</v>
+      </c>
+      <c r="Q34" s="65">
+        <v>180070</v>
+      </c>
+      <c r="R34" s="65">
+        <v>180320</v>
+      </c>
+      <c r="S34" s="65">
+        <v>183830</v>
+      </c>
+      <c r="T34" s="65">
+        <v>186510</v>
+      </c>
+      <c r="U34" s="65">
+        <v>185690</v>
+      </c>
+      <c r="V34" s="65">
+        <v>183510</v>
+      </c>
+      <c r="W34" s="65">
+        <v>180560</v>
+      </c>
+      <c r="X34" s="65">
+        <v>181140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="65">
+        <v>69395</v>
+      </c>
+      <c r="C35" s="65">
+        <v>64782</v>
+      </c>
+      <c r="D35" s="65">
+        <v>62140</v>
+      </c>
+      <c r="E35" s="65">
+        <v>88704</v>
+      </c>
+      <c r="F35" s="65">
+        <v>89892</v>
+      </c>
+      <c r="G35" s="65">
+        <v>93977</v>
+      </c>
+      <c r="H35" s="65">
+        <v>94339</v>
+      </c>
+      <c r="I35" s="65">
         <v>96210</v>
       </c>
-      <c r="Q32" s="65">
-        <v>97920</v>
-      </c>
-      <c r="R32" s="65">
-        <v>98540</v>
-      </c>
-      <c r="S32" s="65">
-        <v>97370</v>
-      </c>
-      <c r="T32" s="65">
-        <v>98540</v>
-      </c>
-      <c r="U32" s="65">
-        <v>100920</v>
-      </c>
-      <c r="V32" s="65">
-        <v>99270</v>
-      </c>
-      <c r="W32" s="65">
-        <v>97620</v>
-      </c>
-      <c r="X32" s="65">
-        <v>96130</v>
-      </c>
-      <c r="Y32" s="65">
-        <v>96020</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="64">
-        <v>32</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="65">
-        <v>17915</v>
-      </c>
-      <c r="D33" s="65">
-        <v>14884</v>
-      </c>
-      <c r="E33" s="65">
-        <v>18031</v>
-      </c>
-      <c r="F33" s="65">
-        <v>18595</v>
-      </c>
-      <c r="G33" s="65">
-        <v>19352</v>
-      </c>
-      <c r="H33" s="65">
-        <v>20315</v>
-      </c>
-      <c r="I33" s="65">
-        <v>19232</v>
-      </c>
-      <c r="J33" s="65">
-        <v>18590</v>
-      </c>
-      <c r="K33" s="65">
-        <v>19530</v>
-      </c>
-      <c r="L33" s="65">
-        <v>19480</v>
-      </c>
-      <c r="M33" s="65">
-        <v>19770</v>
-      </c>
-      <c r="N33" s="65">
-        <v>20190</v>
-      </c>
-      <c r="O33" s="65">
-        <v>20300</v>
-      </c>
-      <c r="P33" s="65">
-        <v>20780</v>
-      </c>
-      <c r="Q33" s="65">
-        <v>20410</v>
-      </c>
-      <c r="R33" s="65">
-        <v>20430</v>
-      </c>
-      <c r="S33" s="65">
-        <v>20800</v>
-      </c>
-      <c r="T33" s="65">
-        <v>20820</v>
-      </c>
-      <c r="U33" s="65">
-        <v>21380</v>
-      </c>
-      <c r="V33" s="65">
-        <v>21510</v>
-      </c>
-      <c r="W33" s="65">
-        <v>20920</v>
-      </c>
-      <c r="X33" s="65">
-        <v>19510</v>
-      </c>
-      <c r="Y33" s="65">
-        <v>19290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="64">
-        <v>33</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="65">
-        <v>198465</v>
-      </c>
-      <c r="D34" s="65">
-        <v>143318</v>
-      </c>
-      <c r="E34" s="65">
-        <v>141731</v>
-      </c>
-      <c r="F34" s="65">
-        <v>183826</v>
-      </c>
-      <c r="G34" s="65">
-        <v>182759</v>
-      </c>
-      <c r="H34" s="65">
-        <v>180806</v>
-      </c>
-      <c r="I34" s="65">
-        <v>180351</v>
-      </c>
-      <c r="J34" s="65">
-        <v>178810</v>
-      </c>
-      <c r="K34" s="65">
-        <v>179110</v>
-      </c>
-      <c r="L34" s="65">
-        <v>178260</v>
-      </c>
-      <c r="M34" s="65">
-        <v>181790</v>
-      </c>
-      <c r="N34" s="65">
-        <v>185630</v>
-      </c>
-      <c r="O34" s="65">
-        <v>182480</v>
-      </c>
-      <c r="P34" s="65">
-        <v>179160</v>
-      </c>
-      <c r="Q34" s="65">
-        <v>180970</v>
-      </c>
-      <c r="R34" s="65">
-        <v>180070</v>
-      </c>
-      <c r="S34" s="65">
-        <v>180320</v>
-      </c>
-      <c r="T34" s="65">
-        <v>183830</v>
-      </c>
-      <c r="U34" s="65">
-        <v>186510</v>
-      </c>
-      <c r="V34" s="65">
-        <v>185690</v>
-      </c>
-      <c r="W34" s="65">
-        <v>183510</v>
-      </c>
-      <c r="X34" s="65">
-        <v>180560</v>
-      </c>
-      <c r="Y34" s="65">
-        <v>181140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="64">
-        <v>34</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="65">
-        <v>69395</v>
-      </c>
-      <c r="D35" s="65">
-        <v>64782</v>
-      </c>
-      <c r="E35" s="65">
-        <v>62140</v>
-      </c>
-      <c r="F35" s="65">
-        <v>88704</v>
-      </c>
-      <c r="G35" s="65">
-        <v>89892</v>
-      </c>
-      <c r="H35" s="65">
-        <v>93977</v>
-      </c>
-      <c r="I35" s="65">
-        <v>94339</v>
-      </c>
       <c r="J35" s="65">
-        <v>96210</v>
+        <v>97020</v>
       </c>
       <c r="K35" s="65">
-        <v>97020</v>
+        <v>98970</v>
       </c>
       <c r="L35" s="65">
-        <v>98970</v>
+        <v>101710</v>
       </c>
       <c r="M35" s="65">
-        <v>101710</v>
+        <v>105280</v>
       </c>
       <c r="N35" s="65">
-        <v>105280</v>
+        <v>107590</v>
       </c>
       <c r="O35" s="65">
-        <v>107590</v>
+        <v>104770</v>
       </c>
       <c r="P35" s="65">
-        <v>104770</v>
+        <v>104820</v>
       </c>
       <c r="Q35" s="65">
-        <v>104820</v>
+        <v>97640</v>
       </c>
       <c r="R35" s="65">
-        <v>97640</v>
+        <v>104440</v>
       </c>
       <c r="S35" s="65">
-        <v>104440</v>
+        <v>107090</v>
       </c>
       <c r="T35" s="65">
-        <v>107090</v>
+        <v>110400</v>
       </c>
       <c r="U35" s="65">
-        <v>110400</v>
+        <v>110430</v>
       </c>
       <c r="V35" s="65">
-        <v>110430</v>
+        <v>108930</v>
       </c>
       <c r="W35" s="65">
-        <v>108930</v>
+        <v>105400</v>
       </c>
       <c r="X35" s="65">
-        <v>105400</v>
-      </c>
-      <c r="Y35" s="65">
         <v>106280</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="64">
-        <v>35</v>
-      </c>
-      <c r="B36" s="64" t="s">
+    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
         <v>141</v>
       </c>
+      <c r="B36" s="65">
+        <v>9924</v>
+      </c>
       <c r="C36" s="65">
-        <v>9924</v>
+        <v>7690</v>
       </c>
       <c r="D36" s="65">
-        <v>7690</v>
+        <v>8606</v>
       </c>
       <c r="E36" s="65">
-        <v>8606</v>
+        <v>7155</v>
       </c>
       <c r="F36" s="65">
-        <v>7155</v>
+        <v>7156</v>
       </c>
       <c r="G36" s="65">
-        <v>7156</v>
+        <v>6942</v>
       </c>
       <c r="H36" s="65">
-        <v>6942</v>
+        <v>6900</v>
       </c>
       <c r="I36" s="65">
-        <v>6900</v>
+        <v>6960</v>
       </c>
       <c r="J36" s="65">
-        <v>6960</v>
+        <v>7040</v>
       </c>
       <c r="K36" s="65">
-        <v>7040</v>
+        <v>7020</v>
       </c>
       <c r="L36" s="65">
-        <v>7020</v>
+        <v>6940</v>
       </c>
       <c r="M36" s="65">
-        <v>6940</v>
+        <v>6570</v>
       </c>
       <c r="N36" s="65">
-        <v>6570</v>
+        <v>6800</v>
       </c>
       <c r="O36" s="65">
-        <v>6800</v>
+        <v>6850</v>
       </c>
       <c r="P36" s="65">
-        <v>6850</v>
+        <v>7050</v>
       </c>
       <c r="Q36" s="65">
-        <v>7050</v>
+        <v>7330</v>
       </c>
       <c r="R36" s="65">
-        <v>7330</v>
+        <v>7450</v>
       </c>
       <c r="S36" s="65">
-        <v>7450</v>
+        <v>7910</v>
       </c>
       <c r="T36" s="65">
-        <v>7910</v>
+        <v>8140</v>
       </c>
       <c r="U36" s="65">
+        <v>8240</v>
+      </c>
+      <c r="V36" s="65">
+        <v>8270</v>
+      </c>
+      <c r="W36" s="65">
+        <v>8000</v>
+      </c>
+      <c r="X36" s="65">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="65">
+        <v>143503</v>
+      </c>
+      <c r="C37" s="65">
+        <v>114513</v>
+      </c>
+      <c r="D37" s="65">
+        <v>111668</v>
+      </c>
+      <c r="E37" s="65">
+        <v>123437</v>
+      </c>
+      <c r="F37" s="65">
+        <v>124229</v>
+      </c>
+      <c r="G37" s="65">
+        <v>123135</v>
+      </c>
+      <c r="H37" s="65">
+        <v>122491</v>
+      </c>
+      <c r="I37" s="65">
+        <v>119520</v>
+      </c>
+      <c r="J37" s="65">
+        <v>120940</v>
+      </c>
+      <c r="K37" s="65">
+        <v>125050</v>
+      </c>
+      <c r="L37" s="65">
+        <v>126590</v>
+      </c>
+      <c r="M37" s="65">
+        <v>122380</v>
+      </c>
+      <c r="N37" s="65">
+        <v>123350</v>
+      </c>
+      <c r="O37" s="65">
+        <v>121250</v>
+      </c>
+      <c r="P37" s="65">
+        <v>120550</v>
+      </c>
+      <c r="Q37" s="65">
+        <v>120190</v>
+      </c>
+      <c r="R37" s="65">
+        <v>117580</v>
+      </c>
+      <c r="S37" s="65">
+        <v>120240</v>
+      </c>
+      <c r="T37" s="65">
+        <v>121250</v>
+      </c>
+      <c r="U37" s="65">
+        <v>122090</v>
+      </c>
+      <c r="V37" s="65">
+        <v>117540</v>
+      </c>
+      <c r="W37" s="65">
+        <v>114030</v>
+      </c>
+      <c r="X37" s="65">
+        <v>114690</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="65">
+        <v>38875</v>
+      </c>
+      <c r="C38" s="65">
+        <v>35606</v>
+      </c>
+      <c r="D38" s="65">
+        <v>37646</v>
+      </c>
+      <c r="E38" s="65">
+        <v>38503</v>
+      </c>
+      <c r="F38" s="65">
+        <v>37744</v>
+      </c>
+      <c r="G38" s="65">
+        <v>37305</v>
+      </c>
+      <c r="H38" s="65">
+        <v>37033</v>
+      </c>
+      <c r="I38" s="65">
+        <v>37260</v>
+      </c>
+      <c r="J38" s="65">
+        <v>38420</v>
+      </c>
+      <c r="K38" s="65">
+        <v>39690</v>
+      </c>
+      <c r="L38" s="65">
+        <v>40230</v>
+      </c>
+      <c r="M38" s="65">
+        <v>41170</v>
+      </c>
+      <c r="N38" s="65">
+        <v>41370</v>
+      </c>
+      <c r="O38" s="65">
+        <v>41640</v>
+      </c>
+      <c r="P38" s="65">
+        <v>41920</v>
+      </c>
+      <c r="Q38" s="65">
+        <v>41960</v>
+      </c>
+      <c r="R38" s="65">
+        <v>40480</v>
+      </c>
+      <c r="S38" s="65">
+        <v>42640</v>
+      </c>
+      <c r="T38" s="65">
+        <v>44270</v>
+      </c>
+      <c r="U38" s="65">
+        <v>44080</v>
+      </c>
+      <c r="V38" s="65">
+        <v>43800</v>
+      </c>
+      <c r="W38" s="65">
+        <v>42440</v>
+      </c>
+      <c r="X38" s="65">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="65">
+        <v>28729</v>
+      </c>
+      <c r="C39" s="65">
+        <v>25473</v>
+      </c>
+      <c r="D39" s="65">
+        <v>30151</v>
+      </c>
+      <c r="E39" s="65">
+        <v>34671</v>
+      </c>
+      <c r="F39" s="65">
+        <v>34723</v>
+      </c>
+      <c r="G39" s="65">
+        <v>34261</v>
+      </c>
+      <c r="H39" s="65">
+        <v>33899</v>
+      </c>
+      <c r="I39" s="65">
+        <v>34440</v>
+      </c>
+      <c r="J39" s="65">
+        <v>34800</v>
+      </c>
+      <c r="K39" s="65">
+        <v>35650</v>
+      </c>
+      <c r="L39" s="65">
+        <v>34700</v>
+      </c>
+      <c r="M39" s="65">
+        <v>35380</v>
+      </c>
+      <c r="N39" s="65">
+        <v>35610</v>
+      </c>
+      <c r="O39" s="65">
+        <v>35190</v>
+      </c>
+      <c r="P39" s="65">
+        <v>35790</v>
+      </c>
+      <c r="Q39" s="65">
+        <v>36200</v>
+      </c>
+      <c r="R39" s="65">
+        <v>36320</v>
+      </c>
+      <c r="S39" s="65">
+        <v>37570</v>
+      </c>
+      <c r="T39" s="65">
+        <v>38690</v>
+      </c>
+      <c r="U39" s="65">
+        <v>38920</v>
+      </c>
+      <c r="V39" s="65">
+        <v>37850</v>
+      </c>
+      <c r="W39" s="65">
+        <v>37360</v>
+      </c>
+      <c r="X39" s="65">
+        <v>37620</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="65">
+        <v>144645</v>
+      </c>
+      <c r="C40" s="65">
+        <v>110527</v>
+      </c>
+      <c r="D40" s="65">
+        <v>113959</v>
+      </c>
+      <c r="E40" s="65">
+        <v>131182</v>
+      </c>
+      <c r="F40" s="65">
+        <v>130284</v>
+      </c>
+      <c r="G40" s="65">
+        <v>131733</v>
+      </c>
+      <c r="H40" s="65">
+        <v>129777</v>
+      </c>
+      <c r="I40" s="65">
+        <v>127200</v>
+      </c>
+      <c r="J40" s="65">
+        <v>123560</v>
+      </c>
+      <c r="K40" s="65">
+        <v>121840</v>
+      </c>
+      <c r="L40" s="65">
+        <v>123990</v>
+      </c>
+      <c r="M40" s="65">
+        <v>123190</v>
+      </c>
+      <c r="N40" s="65">
+        <v>120390</v>
+      </c>
+      <c r="O40" s="65">
+        <v>118130</v>
+      </c>
+      <c r="P40" s="65">
+        <v>119550</v>
+      </c>
+      <c r="Q40" s="65">
+        <v>120570</v>
+      </c>
+      <c r="R40" s="65">
+        <v>119610</v>
+      </c>
+      <c r="S40" s="65">
+        <v>121370</v>
+      </c>
+      <c r="T40" s="65">
+        <v>123220</v>
+      </c>
+      <c r="U40" s="65">
+        <v>123420</v>
+      </c>
+      <c r="V40" s="65">
+        <v>120520</v>
+      </c>
+      <c r="W40" s="65">
+        <v>118990</v>
+      </c>
+      <c r="X40" s="65">
+        <v>119130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="65">
+        <v>10719</v>
+      </c>
+      <c r="C41" s="65">
+        <v>7825</v>
+      </c>
+      <c r="D41" s="65">
+        <v>8477</v>
+      </c>
+      <c r="E41" s="65">
+        <v>9908</v>
+      </c>
+      <c r="F41" s="65">
+        <v>9724</v>
+      </c>
+      <c r="G41" s="65">
+        <v>9751</v>
+      </c>
+      <c r="H41" s="65">
+        <v>9579</v>
+      </c>
+      <c r="I41" s="65">
+        <v>9730</v>
+      </c>
+      <c r="J41" s="65">
+        <v>9900</v>
+      </c>
+      <c r="K41" s="65">
+        <v>10050</v>
+      </c>
+      <c r="L41" s="65">
+        <v>9390</v>
+      </c>
+      <c r="M41" s="65">
+        <v>9660</v>
+      </c>
+      <c r="N41" s="65">
+        <v>10240</v>
+      </c>
+      <c r="O41" s="65">
+        <v>10390</v>
+      </c>
+      <c r="P41" s="65">
+        <v>10250</v>
+      </c>
+      <c r="Q41" s="65">
+        <v>10510</v>
+      </c>
+      <c r="R41" s="65">
+        <v>10300</v>
+      </c>
+      <c r="S41" s="65">
+        <v>10420</v>
+      </c>
+      <c r="T41" s="65">
+        <v>10540</v>
+      </c>
+      <c r="U41" s="65">
+        <v>10390</v>
+      </c>
+      <c r="V41" s="65">
+        <v>9990</v>
+      </c>
+      <c r="W41" s="65">
+        <v>9780</v>
+      </c>
+      <c r="X41" s="65">
+        <v>9740</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="65">
+        <v>38347</v>
+      </c>
+      <c r="C42" s="65">
+        <v>32483</v>
+      </c>
+      <c r="D42" s="65">
+        <v>31617</v>
+      </c>
+      <c r="E42" s="65">
+        <v>40438</v>
+      </c>
+      <c r="F42" s="65">
+        <v>40708</v>
+      </c>
+      <c r="G42" s="65">
+        <v>41442</v>
+      </c>
+      <c r="H42" s="65">
+        <v>42246</v>
+      </c>
+      <c r="I42" s="65">
+        <v>41720</v>
+      </c>
+      <c r="J42" s="65">
+        <v>42650</v>
+      </c>
+      <c r="K42" s="65">
+        <v>43840</v>
+      </c>
+      <c r="L42" s="65">
+        <v>45090</v>
+      </c>
+      <c r="M42" s="65">
+        <v>46640</v>
+      </c>
+      <c r="N42" s="65">
+        <v>46890</v>
+      </c>
+      <c r="O42" s="65">
+        <v>46620</v>
+      </c>
+      <c r="P42" s="65">
+        <v>46480</v>
+      </c>
+      <c r="Q42" s="65">
+        <v>47070</v>
+      </c>
+      <c r="R42" s="65">
+        <v>48120</v>
+      </c>
+      <c r="S42" s="65">
+        <v>49580</v>
+      </c>
+      <c r="T42" s="65">
+        <v>52080</v>
+      </c>
+      <c r="U42" s="65">
+        <v>52000</v>
+      </c>
+      <c r="V42" s="65">
+        <v>51900</v>
+      </c>
+      <c r="W42" s="65">
+        <v>49310</v>
+      </c>
+      <c r="X42" s="65">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="65">
+        <v>10385</v>
+      </c>
+      <c r="C43" s="65">
+        <v>7650</v>
+      </c>
+      <c r="D43" s="65">
+        <v>9278</v>
+      </c>
+      <c r="E43" s="65">
+        <v>8162</v>
+      </c>
+      <c r="F43" s="65">
+        <v>8248</v>
+      </c>
+      <c r="G43" s="65">
+        <v>8196</v>
+      </c>
+      <c r="H43" s="65">
+        <v>8239</v>
+      </c>
+      <c r="I43" s="65">
+        <v>7960</v>
+      </c>
+      <c r="J43" s="65">
         <v>8140</v>
       </c>
-      <c r="V36" s="65">
-        <v>8240</v>
-      </c>
-      <c r="W36" s="65">
-        <v>8270</v>
-      </c>
-      <c r="X36" s="65">
-        <v>8000</v>
-      </c>
-      <c r="Y36" s="65">
+      <c r="K43" s="65">
+        <v>8080</v>
+      </c>
+      <c r="L43" s="65">
+        <v>8160</v>
+      </c>
+      <c r="M43" s="65">
+        <v>8280</v>
+      </c>
+      <c r="N43" s="65">
         <v>8190</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="64">
-        <v>36</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="65">
-        <v>143503</v>
-      </c>
-      <c r="D37" s="65">
-        <v>114513</v>
-      </c>
-      <c r="E37" s="65">
-        <v>111668</v>
-      </c>
-      <c r="F37" s="65">
-        <v>123437</v>
-      </c>
-      <c r="G37" s="65">
-        <v>124229</v>
-      </c>
-      <c r="H37" s="65">
-        <v>123135</v>
-      </c>
-      <c r="I37" s="65">
-        <v>122491</v>
-      </c>
-      <c r="J37" s="65">
-        <v>119520</v>
-      </c>
-      <c r="K37" s="65">
-        <v>120940</v>
-      </c>
-      <c r="L37" s="65">
-        <v>125050</v>
-      </c>
-      <c r="M37" s="65">
-        <v>126590</v>
-      </c>
-      <c r="N37" s="65">
-        <v>122380</v>
-      </c>
-      <c r="O37" s="65">
-        <v>123350</v>
-      </c>
-      <c r="P37" s="65">
-        <v>121250</v>
-      </c>
-      <c r="Q37" s="65">
-        <v>120550</v>
-      </c>
-      <c r="R37" s="65">
-        <v>120190</v>
-      </c>
-      <c r="S37" s="65">
-        <v>117580</v>
-      </c>
-      <c r="T37" s="65">
-        <v>120240</v>
-      </c>
-      <c r="U37" s="65">
-        <v>121250</v>
-      </c>
-      <c r="V37" s="65">
-        <v>122090</v>
-      </c>
-      <c r="W37" s="65">
-        <v>117540</v>
-      </c>
-      <c r="X37" s="65">
-        <v>114030</v>
-      </c>
-      <c r="Y37" s="65">
-        <v>114690</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="64">
-        <v>37</v>
-      </c>
-      <c r="B38" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="65">
-        <v>38875</v>
-      </c>
-      <c r="D38" s="65">
-        <v>35606</v>
-      </c>
-      <c r="E38" s="65">
-        <v>37646</v>
-      </c>
-      <c r="F38" s="65">
-        <v>38503</v>
-      </c>
-      <c r="G38" s="65">
-        <v>37744</v>
-      </c>
-      <c r="H38" s="65">
-        <v>37305</v>
-      </c>
-      <c r="I38" s="65">
-        <v>37033</v>
-      </c>
-      <c r="J38" s="65">
-        <v>37260</v>
-      </c>
-      <c r="K38" s="65">
-        <v>38420</v>
-      </c>
-      <c r="L38" s="65">
-        <v>39690</v>
-      </c>
-      <c r="M38" s="65">
-        <v>40230</v>
-      </c>
-      <c r="N38" s="65">
-        <v>41170</v>
-      </c>
-      <c r="O38" s="65">
-        <v>41370</v>
-      </c>
-      <c r="P38" s="65">
-        <v>41640</v>
-      </c>
-      <c r="Q38" s="65">
-        <v>41920</v>
-      </c>
-      <c r="R38" s="65">
-        <v>41960</v>
-      </c>
-      <c r="S38" s="65">
-        <v>40480</v>
-      </c>
-      <c r="T38" s="65">
-        <v>42640</v>
-      </c>
-      <c r="U38" s="65">
-        <v>44270</v>
-      </c>
-      <c r="V38" s="65">
-        <v>44080</v>
-      </c>
-      <c r="W38" s="65">
-        <v>43800</v>
-      </c>
-      <c r="X38" s="65">
-        <v>42440</v>
-      </c>
-      <c r="Y38" s="65">
-        <v>42720</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="64">
-        <v>38</v>
-      </c>
-      <c r="B39" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="65">
-        <v>28729</v>
-      </c>
-      <c r="D39" s="65">
-        <v>25473</v>
-      </c>
-      <c r="E39" s="65">
-        <v>30151</v>
-      </c>
-      <c r="F39" s="65">
-        <v>34671</v>
-      </c>
-      <c r="G39" s="65">
-        <v>34723</v>
-      </c>
-      <c r="H39" s="65">
-        <v>34261</v>
-      </c>
-      <c r="I39" s="65">
-        <v>33899</v>
-      </c>
-      <c r="J39" s="65">
-        <v>34440</v>
-      </c>
-      <c r="K39" s="65">
-        <v>34800</v>
-      </c>
-      <c r="L39" s="65">
-        <v>35650</v>
-      </c>
-      <c r="M39" s="65">
-        <v>34700</v>
-      </c>
-      <c r="N39" s="65">
-        <v>35380</v>
-      </c>
-      <c r="O39" s="65">
-        <v>35610</v>
-      </c>
-      <c r="P39" s="65">
-        <v>35190</v>
-      </c>
-      <c r="Q39" s="65">
-        <v>35790</v>
-      </c>
-      <c r="R39" s="65">
-        <v>36200</v>
-      </c>
-      <c r="S39" s="65">
-        <v>36320</v>
-      </c>
-      <c r="T39" s="65">
-        <v>37570</v>
-      </c>
-      <c r="U39" s="65">
-        <v>38690</v>
-      </c>
-      <c r="V39" s="65">
-        <v>38920</v>
-      </c>
-      <c r="W39" s="65">
-        <v>37850</v>
-      </c>
-      <c r="X39" s="65">
-        <v>37360</v>
-      </c>
-      <c r="Y39" s="65">
-        <v>37620</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="64">
-        <v>39</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="65">
-        <v>144645</v>
-      </c>
-      <c r="D40" s="65">
-        <v>110527</v>
-      </c>
-      <c r="E40" s="65">
-        <v>113959</v>
-      </c>
-      <c r="F40" s="65">
-        <v>131182</v>
-      </c>
-      <c r="G40" s="65">
-        <v>130284</v>
-      </c>
-      <c r="H40" s="65">
-        <v>131733</v>
-      </c>
-      <c r="I40" s="65">
-        <v>129777</v>
-      </c>
-      <c r="J40" s="65">
-        <v>127200</v>
-      </c>
-      <c r="K40" s="65">
-        <v>123560</v>
-      </c>
-      <c r="L40" s="65">
-        <v>121840</v>
-      </c>
-      <c r="M40" s="65">
-        <v>123990</v>
-      </c>
-      <c r="N40" s="65">
-        <v>123190</v>
-      </c>
-      <c r="O40" s="65">
-        <v>120390</v>
-      </c>
-      <c r="P40" s="65">
-        <v>118130</v>
-      </c>
-      <c r="Q40" s="65">
-        <v>119550</v>
-      </c>
-      <c r="R40" s="65">
-        <v>120570</v>
-      </c>
-      <c r="S40" s="65">
-        <v>119610</v>
-      </c>
-      <c r="T40" s="65">
-        <v>121370</v>
-      </c>
-      <c r="U40" s="65">
-        <v>123220</v>
-      </c>
-      <c r="V40" s="65">
-        <v>123420</v>
-      </c>
-      <c r="W40" s="65">
-        <v>120520</v>
-      </c>
-      <c r="X40" s="65">
-        <v>118990</v>
-      </c>
-      <c r="Y40" s="65">
-        <v>119130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="64">
-        <v>40</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="65">
-        <v>10719</v>
-      </c>
-      <c r="D41" s="65">
-        <v>7825</v>
-      </c>
-      <c r="E41" s="65">
-        <v>8477</v>
-      </c>
-      <c r="F41" s="65">
-        <v>9908</v>
-      </c>
-      <c r="G41" s="65">
-        <v>9724</v>
-      </c>
-      <c r="H41" s="65">
-        <v>9751</v>
-      </c>
-      <c r="I41" s="65">
-        <v>9579</v>
-      </c>
-      <c r="J41" s="65">
-        <v>9730</v>
-      </c>
-      <c r="K41" s="65">
-        <v>9900</v>
-      </c>
-      <c r="L41" s="65">
-        <v>10050</v>
-      </c>
-      <c r="M41" s="65">
-        <v>9390</v>
-      </c>
-      <c r="N41" s="65">
+      <c r="O43" s="65">
+        <v>8380</v>
+      </c>
+      <c r="P43" s="65">
+        <v>8500</v>
+      </c>
+      <c r="Q43" s="65">
+        <v>8820</v>
+      </c>
+      <c r="R43" s="65">
+        <v>9200</v>
+      </c>
+      <c r="S43" s="65">
+        <v>9350</v>
+      </c>
+      <c r="T43" s="65">
+        <v>9610</v>
+      </c>
+      <c r="U43" s="65">
         <v>9660</v>
       </c>
-      <c r="O41" s="65">
-        <v>10240</v>
-      </c>
-      <c r="P41" s="65">
-        <v>10390</v>
-      </c>
-      <c r="Q41" s="65">
-        <v>10250</v>
-      </c>
-      <c r="R41" s="65">
-        <v>10510</v>
-      </c>
-      <c r="S41" s="65">
-        <v>10300</v>
-      </c>
-      <c r="T41" s="65">
-        <v>10420</v>
-      </c>
-      <c r="U41" s="65">
-        <v>10540</v>
-      </c>
-      <c r="V41" s="65">
-        <v>10390</v>
-      </c>
-      <c r="W41" s="65">
-        <v>9990</v>
-      </c>
-      <c r="X41" s="65">
-        <v>9780</v>
-      </c>
-      <c r="Y41" s="65">
-        <v>9740</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="64">
-        <v>41</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="65">
-        <v>38347</v>
-      </c>
-      <c r="D42" s="65">
-        <v>32483</v>
-      </c>
-      <c r="E42" s="65">
-        <v>31617</v>
-      </c>
-      <c r="F42" s="65">
-        <v>40438</v>
-      </c>
-      <c r="G42" s="65">
-        <v>40708</v>
-      </c>
-      <c r="H42" s="65">
-        <v>41442</v>
-      </c>
-      <c r="I42" s="65">
-        <v>42246</v>
-      </c>
-      <c r="J42" s="65">
-        <v>41720</v>
-      </c>
-      <c r="K42" s="65">
+      <c r="V43" s="65">
+        <v>9470</v>
+      </c>
+      <c r="W43" s="65">
+        <v>9380</v>
+      </c>
+      <c r="X43" s="65">
+        <v>9470</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="65">
+        <v>50648</v>
+      </c>
+      <c r="C44" s="65">
+        <v>46094</v>
+      </c>
+      <c r="D44" s="65">
+        <v>41568</v>
+      </c>
+      <c r="E44" s="65">
+        <v>62408</v>
+      </c>
+      <c r="F44" s="65">
+        <v>61862</v>
+      </c>
+      <c r="G44" s="65">
+        <v>62454</v>
+      </c>
+      <c r="H44" s="65">
+        <v>61323</v>
+      </c>
+      <c r="I44" s="65">
+        <v>60970</v>
+      </c>
+      <c r="J44" s="65">
+        <v>62010</v>
+      </c>
+      <c r="K44" s="65">
+        <v>63480</v>
+      </c>
+      <c r="L44" s="65">
+        <v>63710</v>
+      </c>
+      <c r="M44" s="65">
+        <v>66310</v>
+      </c>
+      <c r="N44" s="65">
+        <v>65660</v>
+      </c>
+      <c r="O44" s="65">
+        <v>64430</v>
+      </c>
+      <c r="P44" s="65">
+        <v>64190</v>
+      </c>
+      <c r="Q44" s="65">
+        <v>64540</v>
+      </c>
+      <c r="R44" s="65">
+        <v>65250</v>
+      </c>
+      <c r="S44" s="65">
+        <v>67010</v>
+      </c>
+      <c r="T44" s="65">
+        <v>68260</v>
+      </c>
+      <c r="U44" s="65">
+        <v>67850</v>
+      </c>
+      <c r="V44" s="65">
+        <v>65050</v>
+      </c>
+      <c r="W44" s="65">
+        <v>64230</v>
+      </c>
+      <c r="X44" s="65">
+        <v>64670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="65">
+        <v>171665</v>
+      </c>
+      <c r="C45" s="65">
+        <v>172480</v>
+      </c>
+      <c r="D45" s="65">
+        <v>212925</v>
+      </c>
+      <c r="E45" s="65">
+        <v>280894</v>
+      </c>
+      <c r="F45" s="65">
+        <v>290470</v>
+      </c>
+      <c r="G45" s="65">
+        <v>292531</v>
+      </c>
+      <c r="H45" s="65">
+        <v>301390</v>
+      </c>
+      <c r="I45" s="65">
+        <v>304360</v>
+      </c>
+      <c r="J45" s="65">
+        <v>309280</v>
+      </c>
+      <c r="K45" s="65">
+        <v>318660</v>
+      </c>
+      <c r="L45" s="65">
+        <v>327690</v>
+      </c>
+      <c r="M45" s="65">
+        <v>339950</v>
+      </c>
+      <c r="N45" s="65">
+        <v>349360</v>
+      </c>
+      <c r="O45" s="65">
+        <v>352500</v>
+      </c>
+      <c r="P45" s="65">
+        <v>357190</v>
+      </c>
+      <c r="Q45" s="65">
+        <v>363530</v>
+      </c>
+      <c r="R45" s="65">
+        <v>370780</v>
+      </c>
+      <c r="S45" s="65">
+        <v>374490</v>
+      </c>
+      <c r="T45" s="65">
+        <v>387420</v>
+      </c>
+      <c r="U45" s="65">
+        <v>390110</v>
+      </c>
+      <c r="V45" s="65">
+        <v>387360</v>
+      </c>
+      <c r="W45" s="65">
+        <v>374920</v>
+      </c>
+      <c r="X45" s="65">
+        <v>377680</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="65">
+        <v>19886</v>
+      </c>
+      <c r="C46" s="65">
+        <v>21196</v>
+      </c>
+      <c r="D46" s="65">
+        <v>32501</v>
+      </c>
+      <c r="E46" s="65">
+        <v>31481</v>
+      </c>
+      <c r="F46" s="65">
+        <v>30888</v>
+      </c>
+      <c r="G46" s="65">
+        <v>31157</v>
+      </c>
+      <c r="H46" s="65">
+        <v>33186</v>
+      </c>
+      <c r="I46" s="65">
+        <v>33400</v>
+      </c>
+      <c r="J46" s="65">
+        <v>34070</v>
+      </c>
+      <c r="K46" s="65">
+        <v>35400</v>
+      </c>
+      <c r="L46" s="65">
+        <v>36560</v>
+      </c>
+      <c r="M46" s="65">
+        <v>37690</v>
+      </c>
+      <c r="N46" s="65">
+        <v>38350</v>
+      </c>
+      <c r="O46" s="65">
+        <v>39140</v>
+      </c>
+      <c r="P46" s="65">
+        <v>40300</v>
+      </c>
+      <c r="Q46" s="65">
+        <v>41230</v>
+      </c>
+      <c r="R46" s="65">
+        <v>41670</v>
+      </c>
+      <c r="S46" s="65">
+        <v>42770</v>
+      </c>
+      <c r="T46" s="65">
+        <v>44030</v>
+      </c>
+      <c r="U46" s="65">
+        <v>44070</v>
+      </c>
+      <c r="V46" s="65">
+        <v>43120</v>
+      </c>
+      <c r="W46" s="65">
+        <v>42500</v>
+      </c>
+      <c r="X46" s="65">
         <v>42650</v>
       </c>
-      <c r="L42" s="65">
-        <v>43840</v>
-      </c>
-      <c r="M42" s="65">
-        <v>45090</v>
-      </c>
-      <c r="N42" s="65">
-        <v>46640</v>
-      </c>
-      <c r="O42" s="65">
-        <v>46890</v>
-      </c>
-      <c r="P42" s="65">
-        <v>46620</v>
-      </c>
-      <c r="Q42" s="65">
-        <v>46480</v>
-      </c>
-      <c r="R42" s="65">
-        <v>47070</v>
-      </c>
-      <c r="S42" s="65">
-        <v>48120</v>
-      </c>
-      <c r="T42" s="65">
-        <v>49580</v>
-      </c>
-      <c r="U42" s="65">
-        <v>52080</v>
-      </c>
-      <c r="V42" s="65">
-        <v>52000</v>
-      </c>
-      <c r="W42" s="65">
-        <v>51900</v>
-      </c>
-      <c r="X42" s="65">
-        <v>49310</v>
-      </c>
-      <c r="Y42" s="65">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="64">
-        <v>42</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="65">
-        <v>10385</v>
-      </c>
-      <c r="D43" s="65">
-        <v>7650</v>
-      </c>
-      <c r="E43" s="65">
-        <v>9278</v>
-      </c>
-      <c r="F43" s="65">
-        <v>8162</v>
-      </c>
-      <c r="G43" s="65">
-        <v>8248</v>
-      </c>
-      <c r="H43" s="65">
-        <v>8196</v>
-      </c>
-      <c r="I43" s="65">
-        <v>8239</v>
-      </c>
-      <c r="J43" s="65">
-        <v>7960</v>
-      </c>
-      <c r="K43" s="65">
-        <v>8140</v>
-      </c>
-      <c r="L43" s="65">
-        <v>8080</v>
-      </c>
-      <c r="M43" s="65">
-        <v>8160</v>
-      </c>
-      <c r="N43" s="65">
-        <v>8280</v>
-      </c>
-      <c r="O43" s="65">
-        <v>8190</v>
-      </c>
-      <c r="P43" s="65">
-        <v>8380</v>
-      </c>
-      <c r="Q43" s="65">
-        <v>8500</v>
-      </c>
-      <c r="R43" s="65">
-        <v>8820</v>
-      </c>
-      <c r="S43" s="65">
-        <v>9200</v>
-      </c>
-      <c r="T43" s="65">
-        <v>9350</v>
-      </c>
-      <c r="U43" s="65">
-        <v>9610</v>
-      </c>
-      <c r="V43" s="65">
-        <v>9660</v>
-      </c>
-      <c r="W43" s="65">
-        <v>9470</v>
-      </c>
-      <c r="X43" s="65">
-        <v>9380</v>
-      </c>
-      <c r="Y43" s="65">
-        <v>9470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="64">
-        <v>43</v>
-      </c>
-      <c r="B44" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" s="65">
-        <v>50648</v>
-      </c>
-      <c r="D44" s="65">
-        <v>46094</v>
-      </c>
-      <c r="E44" s="65">
-        <v>41568</v>
-      </c>
-      <c r="F44" s="65">
-        <v>62408</v>
-      </c>
-      <c r="G44" s="65">
-        <v>61862</v>
-      </c>
-      <c r="H44" s="65">
-        <v>62454</v>
-      </c>
-      <c r="I44" s="65">
-        <v>61323</v>
-      </c>
-      <c r="J44" s="65">
-        <v>60970</v>
-      </c>
-      <c r="K44" s="65">
-        <v>62010</v>
-      </c>
-      <c r="L44" s="65">
-        <v>63480</v>
-      </c>
-      <c r="M44" s="65">
-        <v>63710</v>
-      </c>
-      <c r="N44" s="65">
-        <v>66310</v>
-      </c>
-      <c r="O44" s="65">
-        <v>65660</v>
-      </c>
-      <c r="P44" s="65">
-        <v>64430</v>
-      </c>
-      <c r="Q44" s="65">
-        <v>64190</v>
-      </c>
-      <c r="R44" s="65">
-        <v>64540</v>
-      </c>
-      <c r="S44" s="65">
-        <v>65250</v>
-      </c>
-      <c r="T44" s="65">
-        <v>67010</v>
-      </c>
-      <c r="U44" s="65">
-        <v>68260</v>
-      </c>
-      <c r="V44" s="65">
-        <v>67850</v>
-      </c>
-      <c r="W44" s="65">
-        <v>65050</v>
-      </c>
-      <c r="X44" s="65">
-        <v>64230</v>
-      </c>
-      <c r="Y44" s="65">
-        <v>64670</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="64">
-        <v>44</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="65">
-        <v>171665</v>
-      </c>
-      <c r="D45" s="65">
-        <v>172480</v>
-      </c>
-      <c r="E45" s="65">
-        <v>212925</v>
-      </c>
-      <c r="F45" s="65">
-        <v>280894</v>
-      </c>
-      <c r="G45" s="65">
-        <v>290470</v>
-      </c>
-      <c r="H45" s="65">
-        <v>292531</v>
-      </c>
-      <c r="I45" s="65">
-        <v>301390</v>
-      </c>
-      <c r="J45" s="65">
-        <v>304360</v>
-      </c>
-      <c r="K45" s="65">
-        <v>309280</v>
-      </c>
-      <c r="L45" s="65">
-        <v>318660</v>
-      </c>
-      <c r="M45" s="65">
-        <v>327690</v>
-      </c>
-      <c r="N45" s="65">
-        <v>339950</v>
-      </c>
-      <c r="O45" s="65">
-        <v>349360</v>
-      </c>
-      <c r="P45" s="65">
-        <v>352500</v>
-      </c>
-      <c r="Q45" s="65">
-        <v>357190</v>
-      </c>
-      <c r="R45" s="65">
-        <v>363530</v>
-      </c>
-      <c r="S45" s="65">
-        <v>370780</v>
-      </c>
-      <c r="T45" s="65">
-        <v>374490</v>
-      </c>
-      <c r="U45" s="65">
-        <v>387420</v>
-      </c>
-      <c r="V45" s="65">
-        <v>390110</v>
-      </c>
-      <c r="W45" s="65">
-        <v>387360</v>
-      </c>
-      <c r="X45" s="65">
-        <v>374920</v>
-      </c>
-      <c r="Y45" s="65">
-        <v>377680</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="64">
-        <v>45</v>
-      </c>
-      <c r="B46" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="65">
-        <v>19886</v>
-      </c>
-      <c r="D46" s="65">
-        <v>21196</v>
-      </c>
-      <c r="E46" s="65">
-        <v>32501</v>
-      </c>
-      <c r="F46" s="65">
-        <v>31481</v>
-      </c>
-      <c r="G46" s="65">
-        <v>30888</v>
-      </c>
-      <c r="H46" s="65">
-        <v>31157</v>
-      </c>
-      <c r="I46" s="65">
-        <v>33186</v>
-      </c>
-      <c r="J46" s="65">
-        <v>33400</v>
-      </c>
-      <c r="K46" s="65">
-        <v>34070</v>
-      </c>
-      <c r="L46" s="65">
-        <v>35400</v>
-      </c>
-      <c r="M46" s="65">
-        <v>36560</v>
-      </c>
-      <c r="N46" s="65">
-        <v>37690</v>
-      </c>
-      <c r="O46" s="65">
-        <v>38350</v>
-      </c>
-      <c r="P46" s="65">
-        <v>39140</v>
-      </c>
-      <c r="Q46" s="65">
-        <v>40300</v>
-      </c>
-      <c r="R46" s="65">
-        <v>41230</v>
-      </c>
-      <c r="S46" s="65">
-        <v>41670</v>
-      </c>
-      <c r="T46" s="65">
-        <v>42770</v>
-      </c>
-      <c r="U46" s="65">
-        <v>44030</v>
-      </c>
-      <c r="V46" s="65">
-        <v>44070</v>
-      </c>
-      <c r="W46" s="65">
-        <v>43120</v>
-      </c>
-      <c r="X46" s="65">
-        <v>42500</v>
-      </c>
-      <c r="Y46" s="65">
-        <v>42650</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="64">
-        <v>46</v>
-      </c>
-      <c r="B47" s="64" t="s">
+    </row>
+    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
         <v>152</v>
       </c>
+      <c r="B47" s="65">
+        <v>6424</v>
+      </c>
       <c r="C47" s="65">
-        <v>6424</v>
+        <v>6127</v>
       </c>
       <c r="D47" s="65">
-        <v>6127</v>
+        <v>6675</v>
       </c>
       <c r="E47" s="65">
-        <v>6675</v>
+        <v>7199</v>
       </c>
       <c r="F47" s="65">
-        <v>7199</v>
+        <v>6932</v>
       </c>
       <c r="G47" s="65">
-        <v>6932</v>
+        <v>6859</v>
       </c>
       <c r="H47" s="65">
-        <v>6859</v>
+        <v>6491</v>
       </c>
       <c r="I47" s="65">
-        <v>6491</v>
+        <v>6360</v>
       </c>
       <c r="J47" s="65">
-        <v>6360</v>
+        <v>6240</v>
       </c>
       <c r="K47" s="65">
-        <v>6240</v>
+        <v>6090</v>
       </c>
       <c r="L47" s="65">
-        <v>6090</v>
+        <v>6010</v>
       </c>
       <c r="M47" s="65">
-        <v>6010</v>
+        <v>5930</v>
       </c>
       <c r="N47" s="65">
-        <v>5930</v>
+        <v>5880</v>
       </c>
       <c r="O47" s="65">
-        <v>5880</v>
+        <v>5750</v>
       </c>
       <c r="P47" s="65">
-        <v>5750</v>
+        <v>5680</v>
       </c>
       <c r="Q47" s="65">
-        <v>5680</v>
+        <v>5730</v>
       </c>
       <c r="R47" s="65">
-        <v>5730</v>
+        <v>5800</v>
       </c>
       <c r="S47" s="65">
-        <v>5800</v>
+        <v>5660</v>
       </c>
       <c r="T47" s="65">
+        <v>5810</v>
+      </c>
+      <c r="U47" s="65">
+        <v>5860</v>
+      </c>
+      <c r="V47" s="65">
+        <v>5420</v>
+      </c>
+      <c r="W47" s="65">
+        <v>5490</v>
+      </c>
+      <c r="X47" s="65">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="65">
+        <v>67126</v>
+      </c>
+      <c r="C48" s="65">
+        <v>60605</v>
+      </c>
+      <c r="D48" s="65">
+        <v>65596</v>
+      </c>
+      <c r="E48" s="65">
+        <v>81511</v>
+      </c>
+      <c r="F48" s="65">
+        <v>82895</v>
+      </c>
+      <c r="G48" s="65">
+        <v>83336</v>
+      </c>
+      <c r="H48" s="65">
+        <v>83279</v>
+      </c>
+      <c r="I48" s="65">
+        <v>83100</v>
+      </c>
+      <c r="J48" s="65">
+        <v>82680</v>
+      </c>
+      <c r="K48" s="65">
+        <v>84640</v>
+      </c>
+      <c r="L48" s="65">
+        <v>84720</v>
+      </c>
+      <c r="M48" s="65">
+        <v>87490</v>
+      </c>
+      <c r="N48" s="65">
+        <v>87860</v>
+      </c>
+      <c r="O48" s="65">
+        <v>87800</v>
+      </c>
+      <c r="P48" s="65">
+        <v>87670</v>
+      </c>
+      <c r="Q48" s="65">
+        <v>89310</v>
+      </c>
+      <c r="R48" s="65">
+        <v>89250</v>
+      </c>
+      <c r="S48" s="65">
+        <v>90680</v>
+      </c>
+      <c r="T48" s="65">
+        <v>92690</v>
+      </c>
+      <c r="U48" s="65">
+        <v>92530</v>
+      </c>
+      <c r="V48" s="65">
+        <v>90310</v>
+      </c>
+      <c r="W48" s="65">
+        <v>88120</v>
+      </c>
+      <c r="X48" s="65">
+        <v>88820</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="65">
+        <v>50046</v>
+      </c>
+      <c r="C49" s="65">
+        <v>45941</v>
+      </c>
+      <c r="D49" s="65">
+        <v>57597</v>
+      </c>
+      <c r="E49" s="65">
+        <v>66046</v>
+      </c>
+      <c r="F49" s="65">
+        <v>66453</v>
+      </c>
+      <c r="G49" s="65">
+        <v>65205</v>
+      </c>
+      <c r="H49" s="65">
+        <v>66066</v>
+      </c>
+      <c r="I49" s="65">
+        <v>66240</v>
+      </c>
+      <c r="J49" s="65">
+        <v>68200</v>
+      </c>
+      <c r="K49" s="65">
+        <v>69770</v>
+      </c>
+      <c r="L49" s="65">
+        <v>70840</v>
+      </c>
+      <c r="M49" s="65">
+        <v>72500</v>
+      </c>
+      <c r="N49" s="65">
+        <v>73160</v>
+      </c>
+      <c r="O49" s="65">
+        <v>72220</v>
+      </c>
+      <c r="P49" s="65">
+        <v>73530</v>
+      </c>
+      <c r="Q49" s="65">
+        <v>74900</v>
+      </c>
+      <c r="R49" s="65">
+        <v>75990</v>
+      </c>
+      <c r="S49" s="65">
+        <v>78500</v>
+      </c>
+      <c r="T49" s="65">
+        <v>81790</v>
+      </c>
+      <c r="U49" s="65">
+        <v>83300</v>
+      </c>
+      <c r="V49" s="65">
+        <v>82670</v>
+      </c>
+      <c r="W49" s="65">
+        <v>81360</v>
+      </c>
+      <c r="X49" s="65">
+        <v>82790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="65">
+        <v>23580</v>
+      </c>
+      <c r="C50" s="65">
+        <v>21854</v>
+      </c>
+      <c r="D50" s="65">
+        <v>19437</v>
+      </c>
+      <c r="E50" s="65">
+        <v>17651</v>
+      </c>
+      <c r="F50" s="65">
+        <v>17311</v>
+      </c>
+      <c r="G50" s="65">
+        <v>17603</v>
+      </c>
+      <c r="H50" s="65">
+        <v>17924</v>
+      </c>
+      <c r="I50" s="65">
+        <v>17510</v>
+      </c>
+      <c r="J50" s="65">
+        <v>17460</v>
+      </c>
+      <c r="K50" s="65">
+        <v>17640</v>
+      </c>
+      <c r="L50" s="65">
+        <v>17370</v>
+      </c>
+      <c r="M50" s="65">
+        <v>17540</v>
+      </c>
+      <c r="N50" s="65">
+        <v>17270</v>
+      </c>
+      <c r="O50" s="65">
+        <v>17230</v>
+      </c>
+      <c r="P50" s="65">
+        <v>16790</v>
+      </c>
+      <c r="Q50" s="65">
+        <v>16920</v>
+      </c>
+      <c r="R50" s="65">
+        <v>16600</v>
+      </c>
+      <c r="S50" s="65">
+        <v>16220</v>
+      </c>
+      <c r="T50" s="65">
+        <v>16600</v>
+      </c>
+      <c r="U50" s="65">
+        <v>16370</v>
+      </c>
+      <c r="V50" s="65">
+        <v>15850</v>
+      </c>
+      <c r="W50" s="65">
+        <v>15230</v>
+      </c>
+      <c r="X50" s="65">
+        <v>15270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="65">
+        <v>67743</v>
+      </c>
+      <c r="C51" s="65">
+        <v>52038</v>
+      </c>
+      <c r="D51" s="65">
+        <v>58545</v>
+      </c>
+      <c r="E51" s="65">
+        <v>64687</v>
+      </c>
+      <c r="F51" s="65">
+        <v>64135</v>
+      </c>
+      <c r="G51" s="65">
+        <v>62705</v>
+      </c>
+      <c r="H51" s="65">
+        <v>61425</v>
+      </c>
+      <c r="I51" s="65">
+        <v>60810</v>
+      </c>
+      <c r="J51" s="65">
+        <v>60460</v>
+      </c>
+      <c r="K51" s="65">
+        <v>60710</v>
+      </c>
+      <c r="L51" s="65">
+        <v>60740</v>
+      </c>
+      <c r="M51" s="65">
+        <v>61560</v>
+      </c>
+      <c r="N51" s="65">
+        <v>61130</v>
+      </c>
+      <c r="O51" s="65">
+        <v>60040</v>
+      </c>
+      <c r="P51" s="65">
+        <v>60420</v>
+      </c>
+      <c r="Q51" s="65">
+        <v>61450</v>
+      </c>
+      <c r="R51" s="65">
+        <v>60940</v>
+      </c>
+      <c r="S51" s="65">
+        <v>61020</v>
+      </c>
+      <c r="T51" s="65">
+        <v>62250</v>
+      </c>
+      <c r="U51" s="65">
+        <v>61750</v>
+      </c>
+      <c r="V51" s="65">
+        <v>60700</v>
+      </c>
+      <c r="W51" s="65">
+        <v>58540</v>
+      </c>
+      <c r="X51" s="65">
+        <v>58330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="65">
+        <v>6161</v>
+      </c>
+      <c r="C52" s="65">
+        <v>5823</v>
+      </c>
+      <c r="D52" s="65">
+        <v>6462</v>
+      </c>
+      <c r="E52" s="65">
+        <v>5695</v>
+      </c>
+      <c r="F52" s="65">
+        <v>5600</v>
+      </c>
+      <c r="G52" s="65">
+        <v>5553</v>
+      </c>
+      <c r="H52" s="65">
+        <v>5489</v>
+      </c>
+      <c r="I52" s="65">
+        <v>5590</v>
+      </c>
+      <c r="J52" s="65">
+        <v>5550</v>
+      </c>
+      <c r="K52" s="65">
+        <v>5700</v>
+      </c>
+      <c r="L52" s="65">
         <v>5660</v>
       </c>
-      <c r="U47" s="65">
-        <v>5810</v>
-      </c>
-      <c r="V47" s="65">
-        <v>5860</v>
-      </c>
-      <c r="W47" s="65">
-        <v>5420</v>
-      </c>
-      <c r="X47" s="65">
-        <v>5490</v>
-      </c>
-      <c r="Y47" s="65">
-        <v>5440</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="64">
-        <v>47</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="65">
-        <v>67126</v>
-      </c>
-      <c r="D48" s="65">
-        <v>60605</v>
-      </c>
-      <c r="E48" s="65">
-        <v>65596</v>
-      </c>
-      <c r="F48" s="65">
-        <v>81511</v>
-      </c>
-      <c r="G48" s="65">
-        <v>82895</v>
-      </c>
-      <c r="H48" s="65">
-        <v>83336</v>
-      </c>
-      <c r="I48" s="65">
-        <v>83279</v>
-      </c>
-      <c r="J48" s="65">
-        <v>83100</v>
-      </c>
-      <c r="K48" s="65">
-        <v>82680</v>
-      </c>
-      <c r="L48" s="65">
-        <v>84640</v>
-      </c>
-      <c r="M48" s="65">
-        <v>84720</v>
-      </c>
-      <c r="N48" s="65">
-        <v>87490</v>
-      </c>
-      <c r="O48" s="65">
-        <v>87860</v>
-      </c>
-      <c r="P48" s="65">
-        <v>87800</v>
-      </c>
-      <c r="Q48" s="65">
-        <v>87670</v>
-      </c>
-      <c r="R48" s="65">
-        <v>89310</v>
-      </c>
-      <c r="S48" s="65">
-        <v>89250</v>
-      </c>
-      <c r="T48" s="65">
-        <v>90680</v>
-      </c>
-      <c r="U48" s="65">
-        <v>92690</v>
-      </c>
-      <c r="V48" s="65">
-        <v>92530</v>
-      </c>
-      <c r="W48" s="65">
-        <v>90310</v>
-      </c>
-      <c r="X48" s="65">
-        <v>88120</v>
-      </c>
-      <c r="Y48" s="65">
-        <v>88820</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="64">
-        <v>48</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="65">
-        <v>50046</v>
-      </c>
-      <c r="D49" s="65">
-        <v>45941</v>
-      </c>
-      <c r="E49" s="65">
-        <v>57597</v>
-      </c>
-      <c r="F49" s="65">
-        <v>66046</v>
-      </c>
-      <c r="G49" s="65">
-        <v>66453</v>
-      </c>
-      <c r="H49" s="65">
-        <v>65205</v>
-      </c>
-      <c r="I49" s="65">
-        <v>66066</v>
-      </c>
-      <c r="J49" s="65">
-        <v>66240</v>
-      </c>
-      <c r="K49" s="65">
-        <v>68200</v>
-      </c>
-      <c r="L49" s="65">
-        <v>69770</v>
-      </c>
-      <c r="M49" s="65">
-        <v>70840</v>
-      </c>
-      <c r="N49" s="65">
-        <v>72500</v>
-      </c>
-      <c r="O49" s="65">
-        <v>73160</v>
-      </c>
-      <c r="P49" s="65">
-        <v>72220</v>
-      </c>
-      <c r="Q49" s="65">
-        <v>73530</v>
-      </c>
-      <c r="R49" s="65">
-        <v>74900</v>
-      </c>
-      <c r="S49" s="65">
-        <v>75990</v>
-      </c>
-      <c r="T49" s="65">
-        <v>78500</v>
-      </c>
-      <c r="U49" s="65">
-        <v>81790</v>
-      </c>
-      <c r="V49" s="65">
-        <v>83300</v>
-      </c>
-      <c r="W49" s="65">
-        <v>82670</v>
-      </c>
-      <c r="X49" s="65">
-        <v>81360</v>
-      </c>
-      <c r="Y49" s="65">
-        <v>82790</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="64">
-        <v>49</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="65">
-        <v>23580</v>
-      </c>
-      <c r="D50" s="65">
-        <v>21854</v>
-      </c>
-      <c r="E50" s="65">
-        <v>19437</v>
-      </c>
-      <c r="F50" s="65">
-        <v>17651</v>
-      </c>
-      <c r="G50" s="65">
-        <v>17311</v>
-      </c>
-      <c r="H50" s="65">
-        <v>17603</v>
-      </c>
-      <c r="I50" s="65">
-        <v>17924</v>
-      </c>
-      <c r="J50" s="65">
-        <v>17510</v>
-      </c>
-      <c r="K50" s="65">
-        <v>17460</v>
-      </c>
-      <c r="L50" s="65">
-        <v>17640</v>
-      </c>
-      <c r="M50" s="65">
-        <v>17370</v>
-      </c>
-      <c r="N50" s="65">
-        <v>17540</v>
-      </c>
-      <c r="O50" s="65">
-        <v>17270</v>
-      </c>
-      <c r="P50" s="65">
-        <v>17230</v>
-      </c>
-      <c r="Q50" s="65">
-        <v>16790</v>
-      </c>
-      <c r="R50" s="65">
-        <v>16920</v>
-      </c>
-      <c r="S50" s="65">
-        <v>16600</v>
-      </c>
-      <c r="T50" s="65">
-        <v>16220</v>
-      </c>
-      <c r="U50" s="65">
-        <v>16600</v>
-      </c>
-      <c r="V50" s="65">
-        <v>16370</v>
-      </c>
-      <c r="W50" s="65">
-        <v>15850</v>
-      </c>
-      <c r="X50" s="65">
-        <v>15230</v>
-      </c>
-      <c r="Y50" s="65">
-        <v>15270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="64">
-        <v>50</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="65">
-        <v>67743</v>
-      </c>
-      <c r="D51" s="65">
-        <v>52038</v>
-      </c>
-      <c r="E51" s="65">
-        <v>58545</v>
-      </c>
-      <c r="F51" s="65">
-        <v>64687</v>
-      </c>
-      <c r="G51" s="65">
-        <v>64135</v>
-      </c>
-      <c r="H51" s="65">
-        <v>62705</v>
-      </c>
-      <c r="I51" s="65">
-        <v>61425</v>
-      </c>
-      <c r="J51" s="65">
-        <v>60810</v>
-      </c>
-      <c r="K51" s="65">
-        <v>60460</v>
-      </c>
-      <c r="L51" s="65">
-        <v>60710</v>
-      </c>
-      <c r="M51" s="65">
-        <v>60740</v>
-      </c>
-      <c r="N51" s="65">
-        <v>61560</v>
-      </c>
-      <c r="O51" s="65">
-        <v>61130</v>
-      </c>
-      <c r="P51" s="65">
-        <v>60040</v>
-      </c>
-      <c r="Q51" s="65">
-        <v>60420</v>
-      </c>
-      <c r="R51" s="65">
-        <v>61450</v>
-      </c>
-      <c r="S51" s="65">
-        <v>60940</v>
-      </c>
-      <c r="T51" s="65">
-        <v>61020</v>
-      </c>
-      <c r="U51" s="65">
-        <v>62250</v>
-      </c>
-      <c r="V51" s="65">
-        <v>61750</v>
-      </c>
-      <c r="W51" s="65">
-        <v>60700</v>
-      </c>
-      <c r="X51" s="65">
-        <v>58540</v>
-      </c>
-      <c r="Y51" s="65">
-        <v>58330</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="64">
-        <v>51</v>
-      </c>
-      <c r="B52" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="65">
-        <v>6161</v>
-      </c>
-      <c r="D52" s="65">
-        <v>5823</v>
-      </c>
-      <c r="E52" s="65">
-        <v>6462</v>
-      </c>
-      <c r="F52" s="65">
-        <v>5695</v>
-      </c>
-      <c r="G52" s="65">
-        <v>5600</v>
-      </c>
-      <c r="H52" s="65">
-        <v>5553</v>
-      </c>
-      <c r="I52" s="65">
-        <v>5489</v>
-      </c>
-      <c r="J52" s="65">
-        <v>5590</v>
-      </c>
-      <c r="K52" s="65">
-        <v>5550</v>
-      </c>
-      <c r="L52" s="65">
-        <v>5700</v>
-      </c>
       <c r="M52" s="65">
-        <v>5660</v>
+        <v>5740</v>
       </c>
       <c r="N52" s="65">
-        <v>5740</v>
+        <v>5770</v>
       </c>
       <c r="O52" s="65">
         <v>5770</v>
       </c>
       <c r="P52" s="65">
-        <v>5770</v>
+        <v>5950</v>
       </c>
       <c r="Q52" s="65">
-        <v>5950</v>
+        <v>5880</v>
       </c>
       <c r="R52" s="65">
-        <v>5880</v>
+        <v>6130</v>
       </c>
       <c r="S52" s="65">
-        <v>6130</v>
+        <v>6200</v>
       </c>
       <c r="T52" s="65">
-        <v>6200</v>
+        <v>6290</v>
       </c>
       <c r="U52" s="65">
-        <v>6290</v>
+        <v>6170</v>
       </c>
       <c r="V52" s="65">
-        <v>6170</v>
+        <v>5960</v>
       </c>
       <c r="W52" s="65">
-        <v>5960</v>
+        <v>5720</v>
       </c>
       <c r="X52" s="65">
-        <v>5720</v>
-      </c>
-      <c r="Y52" s="65">
         <v>5590</v>
       </c>
     </row>

--- a/ch4/tabn219_20.xlsx
+++ b/ch4/tabn219_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/709290408fa44f9b/Documents/GitHub/data/ch4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{D9DE1B3A-5B0B-46AD-9146-389A614A4D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0DC4F95-D585-40EE-89D3-C9D6366AF9CF}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{D9DE1B3A-5B0B-46AD-9146-389A614A4D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{276B97B0-BC77-4E73-AF19-6196FAD24388}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2043F598-A324-425E-B2FA-4C07D4A07404}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="181">
   <si>
     <t>Table 219.20. Public high school graduates, by region, state, and jurisdiction: Selected years, 1980-81 through 2028-29</t>
   </si>
@@ -536,6 +536,75 @@
   </si>
   <si>
     <t xml:space="preserve">  Wyoming </t>
+  </si>
+  <si>
+    <t>HSGrad1981</t>
+  </si>
+  <si>
+    <t>HSGrad1990</t>
+  </si>
+  <si>
+    <t>HSGrad2000</t>
+  </si>
+  <si>
+    <t>HSGrad2010</t>
+  </si>
+  <si>
+    <t>HSGrad2011</t>
+  </si>
+  <si>
+    <t>HSGrad2012</t>
+  </si>
+  <si>
+    <t>HSGrad2013</t>
+  </si>
+  <si>
+    <t>HSGrad2014</t>
+  </si>
+  <si>
+    <t>HSGrad2015</t>
+  </si>
+  <si>
+    <t>HSGrad2016</t>
+  </si>
+  <si>
+    <t>HSGrad2017</t>
+  </si>
+  <si>
+    <t>HSGrad2018</t>
+  </si>
+  <si>
+    <t>HSGrad2019</t>
+  </si>
+  <si>
+    <t>HSGrad2020</t>
+  </si>
+  <si>
+    <t>HSGrad2021</t>
+  </si>
+  <si>
+    <t>HSGrad2022</t>
+  </si>
+  <si>
+    <t>HSGrad2023</t>
+  </si>
+  <si>
+    <t>HSGrad2024</t>
+  </si>
+  <si>
+    <t>HSGrad2025</t>
+  </si>
+  <si>
+    <t>HSGrad2026</t>
+  </si>
+  <si>
+    <t>HSGrad2027</t>
+  </si>
+  <si>
+    <t>HSGrad2028</t>
+  </si>
+  <si>
+    <t>HSGrad2029</t>
   </si>
 </sst>
 </file>
@@ -7342,87 +7411,87 @@
   <dimension ref="A1:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="24" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="24" width="13.75" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="65">
-        <v>1981</v>
-      </c>
-      <c r="C1" s="65">
-        <v>1990</v>
-      </c>
-      <c r="D1" s="65">
-        <v>2000</v>
-      </c>
-      <c r="E1" s="65">
-        <v>2010</v>
-      </c>
-      <c r="F1" s="65">
-        <v>2011</v>
-      </c>
-      <c r="G1" s="65">
-        <v>2012</v>
-      </c>
-      <c r="H1" s="65">
-        <v>2013</v>
-      </c>
-      <c r="I1" s="65">
-        <v>2014</v>
-      </c>
-      <c r="J1" s="65">
-        <v>2015</v>
-      </c>
-      <c r="K1" s="65">
-        <v>2016</v>
-      </c>
-      <c r="L1" s="65">
-        <v>2017</v>
-      </c>
-      <c r="M1" s="65">
-        <v>2018</v>
-      </c>
-      <c r="N1" s="65">
-        <v>2019</v>
-      </c>
-      <c r="O1" s="65">
-        <v>2020</v>
-      </c>
-      <c r="P1" s="65">
-        <v>2021</v>
-      </c>
-      <c r="Q1" s="65">
-        <v>2022</v>
-      </c>
-      <c r="R1" s="65">
-        <v>2023</v>
-      </c>
-      <c r="S1" s="65">
-        <v>2024</v>
-      </c>
-      <c r="T1" s="65">
-        <v>2025</v>
-      </c>
-      <c r="U1" s="65">
-        <v>2026</v>
-      </c>
-      <c r="V1" s="65">
-        <v>2027</v>
-      </c>
-      <c r="W1" s="65">
-        <v>2028</v>
-      </c>
-      <c r="X1" s="65">
-        <v>2029</v>
+      <c r="B1" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="T1" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="V1" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="W1" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="X1" s="65" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
